--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
   <si>
     <t>Desviación de esfuerzo por proyectos planificados/reales</t>
   </si>
@@ -183,22 +183,25 @@
     <t>Elementos de configuración física</t>
   </si>
   <si>
+    <t>Control de cambios organizacional</t>
+  </si>
+  <si>
+    <t>Línea base</t>
+  </si>
+  <si>
+    <t>Elementos de Configuración</t>
+  </si>
+  <si>
+    <t>Funcional Ejecución</t>
+  </si>
+  <si>
+    <t>Funcional Organizacional</t>
+  </si>
+  <si>
+    <t>Entregables</t>
+  </si>
+  <si>
     <t>Control de cambios</t>
-  </si>
-  <si>
-    <t>Línea base</t>
-  </si>
-  <si>
-    <t>Elementos de Configuración</t>
-  </si>
-  <si>
-    <t>Funcional Ejecución</t>
-  </si>
-  <si>
-    <t>Funcional Organizacional</t>
-  </si>
-  <si>
-    <t>Entregables</t>
   </si>
   <si>
     <t>Ventas por personal</t>
@@ -294,7 +297,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,7 +319,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF009933"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF007826"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003300"/>
+        <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
     <fill>
@@ -334,13 +343,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006600"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FF007826"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF420E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007826"/>
+        <bgColor rgb="FF006600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF420E"/>
+        <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,7 +419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,6 +460,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,11 +472,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,7 +484,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,16 +500,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -489,27 +536,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,7 +588,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF007826"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -541,7 +596,7 @@
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -554,7 +609,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -585,1403 +640,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>procesos_organizacional</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>procesos_organizacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Procesos'!$D$25:$G$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación anual</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Seguimiento</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cambios</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Apego a Procesos'!$D$38:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="63255103"/>
-        <c:axId val="94620663"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="63255103"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="94620663"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="94620663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="63255103"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>proceso</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>proceso</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Productos'!$D$4:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cotización</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Solicitud de compra</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Carta de aceptación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tickets de servicio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Apego a Productos'!$D$17:$G$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="26773910"/>
-        <c:axId val="30501451"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="26773910"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="30501451"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="30501451"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="26773910"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>organizacional</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>organizacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Productos'!$D$26:$I$26</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Catalogo de servicios</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Plan de calidad</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Plan de Métricas</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Plan de Configuración</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Plan de proyecto</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Reporte de Monitoreo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Apego a Productos'!$D$39:$I$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="95723687"/>
-        <c:axId val="93396470"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95723687"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="93396470"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="93396470"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="95723687"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>física</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>física</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Física!$D$6:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Elementos de configuración física</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Control de cambios</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Línea base</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Elementos de Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Física!$D$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="82974812"/>
-        <c:axId val="98280952"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="82974812"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="98280952"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="98280952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="82974812"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>funcional</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>funcional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Funcional!$D$4:$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Entregables</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Control de cambios</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Línea base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Funcional!$D$17:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="14056928"/>
-        <c:axId val="70595183"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="14056928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="70595183"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="70595183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="14056928"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$H$4:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>275000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$J$4:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>179572.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="76395173"/>
-        <c:axId val="96262232"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="76395173"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="96262232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="96262232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="76395173"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>satisfacción</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>satisfacción</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Indice de Satisfacción'!$C$5:$C$17</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Indice de Satisfacción'!$D$5:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>98.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>98.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="57737924"/>
-        <c:axId val="21166070"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="57737924"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="21166070"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="21166070"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="57737924"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2030,7 +689,7 @@
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2106,7 +765,7 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2182,7 +841,7 @@
                   <c:v>-9.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>-15.0485436893204</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
@@ -2258,13 +917,53 @@
             </a:ln>
           </c:spPr>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="95861731"/>
-        <c:axId val="16414893"/>
+        <c:axId val="99861454"/>
+        <c:axId val="36416003"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95861731"/>
+        <c:axId val="99861454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,14 +979,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16414893"/>
+        <c:crossAx val="36416003"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16414893"/>
+        <c:axId val="36416003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +1011,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95861731"/>
+        <c:crossAx val="99861454"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2347,7 +1046,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2361,11 +1060,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'total'</c:f>
+              <c:f>'Desviacion de costos'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Totales planeados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2396,7 +1095,7 @@
                   <c:v>140990.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>140990.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2437,11 +1136,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'total'</c:f>
+              <c:f>'Desviacion de costos'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>totales Reales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2472,7 +1171,7 @@
                   <c:v>91828.107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>81057.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2548,7 +1247,7 @@
                   <c:v>-34.8694425637073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>-42.5083491251416</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
@@ -2624,13 +1323,53 @@
             </a:ln>
           </c:spPr>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="17827262"/>
-        <c:axId val="19188014"/>
+        <c:axId val="67848286"/>
+        <c:axId val="55311086"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17827262"/>
+        <c:axId val="67848286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,14 +1385,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19188014"/>
+        <c:crossAx val="55311086"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19188014"/>
+        <c:axId val="55311086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +1417,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="17827262"/>
+        <c:crossAx val="67848286"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2713,7 +1452,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2785,7 +1524,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.71</c:v>
+                  <c:v>78.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -2796,11 +1535,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="63900691"/>
-        <c:axId val="87318237"/>
+        <c:axId val="75458762"/>
+        <c:axId val="36378038"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63900691"/>
+        <c:axId val="75458762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,14 +1555,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87318237"/>
+        <c:crossAx val="36378038"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87318237"/>
+        <c:axId val="36378038"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,7 +1587,1403 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63900691"/>
+        <c:crossAx val="75458762"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>procesos_organizacional</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>procesos_organizacional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Procesos'!$D$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación anual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Procesos'!$D$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="4263083"/>
+        <c:axId val="30024363"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="4263083"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="30024363"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="30024363"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="4263083"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>proceso</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>proceso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Productos'!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Cotización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Solicitud de compra</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carta de aceptación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tickets de servicio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Productos'!$D$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="83657218"/>
+        <c:axId val="69645419"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83657218"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="69645419"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69645419"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="83657218"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>organizacional</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>organizacional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Productos'!$D$26:$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Catalogo de servicios</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plan de calidad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plan de Métricas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Plan de Configuración</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Plan de proyecto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Reporte de Monitoreo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Productos'!$D$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="13945438"/>
+        <c:axId val="35934031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="13945438"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="35934031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="35934031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="13945438"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>física</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>física</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Física!$D$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Elementos de configuración física</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios organizacional</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elementos de Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Física!$D$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="33857728"/>
+        <c:axId val="8039124"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="33857728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="8039124"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8039124"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="33857728"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>funcional</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>funcional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Funcional!$D$4:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Entregables</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Funcional!$D$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="39651859"/>
+        <c:axId val="2370812"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39651859"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2370812"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2370812"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="39651859"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$H$4:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275000.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>179572.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134033.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="68092718"/>
+        <c:axId val="69690542"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68092718"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="69690542"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69690542"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="68092718"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>satisfacción</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>satisfacción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$C$5:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indice de Satisfacción'!$D$5:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="70252972"/>
+        <c:axId val="10969685"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70252972"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="10969685"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="10969685"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="70252972"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2888,15 +3023,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:colOff>56520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2904,8 +3039,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="315720" y="3549960"/>
-        <a:ext cx="5754240" cy="3233880"/>
+        <a:off x="259560" y="3744720"/>
+        <a:ext cx="5752800" cy="3243960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2923,15 +3058,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
+      <xdr:colOff>220320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>739080</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2939,8 +3074,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="315360" y="3700440"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:off x="423360" y="3664440"/>
+        <a:ext cx="5757480" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2958,15 +3093,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
+      <xdr:colOff>346680</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1449000</xdr:colOff>
+      <xdr:colOff>1555560</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2974,8 +3109,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8529120" y="0"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:off x="8637120" y="0"/>
+        <a:ext cx="5756760" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2988,15 +3123,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>355320</xdr:colOff>
+      <xdr:colOff>463320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1563480</xdr:colOff>
+      <xdr:colOff>1670040</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3004,8 +3139,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8645760" y="4037760"/>
-        <a:ext cx="5756040" cy="3230640"/>
+        <a:off x="8753760" y="4001760"/>
+        <a:ext cx="5754600" cy="3229200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3023,15 +3158,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>325800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>465120</xdr:colOff>
+      <xdr:colOff>572400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3039,8 +3174,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8689320" y="192600"/>
-        <a:ext cx="5758920" cy="3237120"/>
+        <a:off x="8797320" y="156600"/>
+        <a:ext cx="5758200" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3053,15 +3188,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>356040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>863640</xdr:colOff>
+      <xdr:colOff>970920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3069,8 +3204,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11145240" y="4345560"/>
-        <a:ext cx="5758920" cy="3236760"/>
+        <a:off x="11253240" y="4310280"/>
+        <a:ext cx="5758200" cy="3234600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3088,15 +3223,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>129240</xdr:colOff>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>407880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3104,8 +3239,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3685680" y="3614400"/>
-        <a:ext cx="5758200" cy="2997000"/>
+        <a:off x="3794400" y="3578400"/>
+        <a:ext cx="5756040" cy="2995560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3123,15 +3258,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>563400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3139,8 +3274,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7262280" y="167400"/>
-        <a:ext cx="5751360" cy="3234600"/>
+        <a:off x="7370280" y="131400"/>
+        <a:ext cx="5750640" cy="3233160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3158,15 +3293,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:colOff>158040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>835200</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3174,8 +3309,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5610600" y="3172680"/>
-        <a:ext cx="5760360" cy="3240360"/>
+        <a:off x="5718600" y="3137400"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3193,15 +3328,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>440640</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>31320</xdr:colOff>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3209,8 +3344,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3944520" y="700560"/>
-        <a:ext cx="5762880" cy="3235320"/>
+        <a:off x="4052520" y="665280"/>
+        <a:ext cx="5761440" cy="3233160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3230,8 +3365,8 @@
   </sheetPr>
   <dimension ref="B1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3347,25 +3482,34 @@
         <v>-9.09090909090909</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">63 * 2</f>
+        <v>126</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>128</v>
+      </c>
       <c r="G8" s="7" t="n">
         <f aca="false">SUM(C8,E8)</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="H8" s="5" t="n">
         <f aca="false">SUM(D8,F8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="e">
+        <v>175</v>
+      </c>
+      <c r="I8" s="9" t="n">
         <f aca="false">((H8 * 100)/G8)-100</f>
-        <v>#DIV/0!</v>
+        <v>-15.0485436893204</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3528,7 @@
         <f aca="false">SUM(D9,F9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="9" t="e">
+      <c r="I9" s="10" t="e">
         <f aca="false">((H9 * 100)/G9)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3405,7 +3549,7 @@
         <f aca="false">SUM(D10,F10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="9" t="e">
+      <c r="I10" s="10" t="e">
         <f aca="false">((H10 * 100)/G10)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3426,7 +3570,7 @@
         <f aca="false">SUM(D11,F11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="9" t="e">
+      <c r="I11" s="10" t="e">
         <f aca="false">((H11 * 100)/G11)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3447,7 +3591,7 @@
         <f aca="false">SUM(D12,F12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="9" t="e">
+      <c r="I12" s="10" t="e">
         <f aca="false">((H12 * 100)/G12)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3468,7 +3612,7 @@
         <f aca="false">SUM(D13,F13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="9" t="e">
+      <c r="I13" s="10" t="e">
         <f aca="false">((H13 * 100)/G13)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3489,7 +3633,7 @@
         <f aca="false">SUM(D14,F14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="9" t="e">
+      <c r="I14" s="10" t="e">
         <f aca="false">((H14 * 100)/G14)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3510,7 +3654,7 @@
         <f aca="false">SUM(D15,F15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="9" t="e">
+      <c r="I15" s="10" t="e">
         <f aca="false">((H15 * 100)/G15)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3531,7 +3675,7 @@
         <f aca="false">SUM(D16,F16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="9" t="e">
+      <c r="I16" s="10" t="e">
         <f aca="false">((H16 * 100)/G16)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3552,7 +3696,7 @@
         <f aca="false">SUM(D17,F17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="9" t="e">
+      <c r="I17" s="10" t="e">
         <f aca="false">((H17 * 100)/G17)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3573,7 +3717,7 @@
         <f aca="false">SUM(D18,F18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="9" t="e">
+      <c r="I18" s="10" t="e">
         <f aca="false">((H18 * 100)/G18)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3672,7 +3816,7 @@
   <dimension ref="B1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3774,34 +3918,34 @@
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <v>63870.88</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <v>57896.127</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="11" t="n">
         <v>77119.94</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="11" t="n">
         <v>33931.98</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="12" t="n">
         <f aca="false">SUM(C7,E7)</f>
         <v>140990.82</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="13" t="n">
         <f aca="false">SUM(D7,F7)</f>
         <v>91828.107</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="14" t="n">
         <f aca="false">((H7 * 100)/G7)-100</f>
         <v>-34.8694425637073</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="15" t="n">
         <v>88924.64</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="K7" s="13" t="n">
         <f aca="false">SUM(J7,H7)</f>
         <v>180752.747</v>
       </c>
@@ -3810,254 +3954,267 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="n">
+      <c r="C8" s="11" t="n">
+        <v>63870.88</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>60118.7</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>77119.94</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>20939.25</v>
+      </c>
+      <c r="G8" s="12" t="n">
         <f aca="false">SUM(C8,E8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="12" t="n">
+        <v>140990.82</v>
+      </c>
+      <c r="H8" s="13" t="n">
         <f aca="false">SUM(D8,F8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="15" t="e">
+        <v>81057.95</v>
+      </c>
+      <c r="I8" s="16" t="n">
         <f aca="false">((H8 * 100)/G8)-100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="12"/>
+        <v>-42.5083491251416</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>60762.1</v>
+      </c>
+      <c r="K8" s="13" t="n">
+        <f aca="false">SUM(J8,H8)</f>
+        <v>141820.05</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="n">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="n">
         <f aca="false">SUM(C9,E9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="13" t="n">
         <f aca="false">SUM(D9,F9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="e">
+      <c r="I9" s="17" t="e">
         <f aca="false">((H9 * 100)/G9)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11" t="n">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="n">
         <f aca="false">SUM(C10,E10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="13" t="n">
         <f aca="false">SUM(D10,F10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="15" t="e">
+      <c r="I10" s="17" t="e">
         <f aca="false">((H10 * 100)/G10)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="n">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="n">
         <f aca="false">SUM(C11,E11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="13" t="n">
         <f aca="false">SUM(D11,F11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="15" t="e">
+      <c r="I11" s="17" t="e">
         <f aca="false">((H11 * 100)/G11)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11" t="n">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="n">
         <f aca="false">SUM(C12,E12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="13" t="n">
         <f aca="false">SUM(D12,F12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="15" t="e">
+      <c r="I12" s="17" t="e">
         <f aca="false">((H12 * 100)/G12)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11" t="n">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12" t="n">
         <f aca="false">SUM(C13,E13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="13" t="n">
         <f aca="false">SUM(D13,F13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="15" t="e">
+      <c r="I13" s="17" t="e">
         <f aca="false">((H13 * 100)/G13)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11" t="n">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12" t="n">
         <f aca="false">SUM(C14,E14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="13" t="n">
         <f aca="false">SUM(D14,F14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="15" t="e">
+      <c r="I14" s="17" t="e">
         <f aca="false">((H14 * 100)/G14)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11" t="n">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12" t="n">
         <f aca="false">SUM(C15,E15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="13" t="n">
         <f aca="false">SUM(D15,F15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="15" t="e">
+      <c r="I15" s="17" t="e">
         <f aca="false">((H15 * 100)/G15)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11" t="n">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12" t="n">
         <f aca="false">SUM(C16,E16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="12" t="n">
+      <c r="H16" s="13" t="n">
         <f aca="false">SUM(D16,F16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="15" t="e">
+      <c r="I16" s="17" t="e">
         <f aca="false">((H16 * 100)/G16)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11" t="n">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12" t="n">
         <f aca="false">SUM(C17,E17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="13" t="n">
         <f aca="false">SUM(D17,F17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="15" t="e">
+      <c r="I17" s="17" t="e">
         <f aca="false">((H17 * 100)/G17)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11" t="n">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="n">
         <f aca="false">SUM(C18,E18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="13" t="n">
         <f aca="false">SUM(D18,F18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="15" t="e">
+      <c r="I18" s="17" t="e">
         <f aca="false">((H18 * 100)/G18)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4117,8 +4274,8 @@
   </sheetPr>
   <dimension ref="C1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4126,7 +4283,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="13.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5384615384615"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2793522267206"/>
@@ -4160,16 +4317,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4177,16 +4334,16 @@
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="20" t="n">
         <v>85.71</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4194,118 +4351,126 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>71.43</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="21" t="n">
         <f aca="false">AVERAGE(D5:D16)</f>
         <v>100</v>
       </c>
-      <c r="E17" s="19" t="n">
+      <c r="E17" s="21" t="n">
         <f aca="false">AVERAGE(E5:E16)</f>
         <v>100</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F17" s="22" t="n">
         <f aca="false">AVERAGE(F5:F16)</f>
-        <v>85.71</v>
-      </c>
-      <c r="G17" s="19" t="n">
+        <v>78.57</v>
+      </c>
+      <c r="G17" s="21" t="n">
         <f aca="false">AVERAGE(G5:G16)</f>
         <v>100</v>
       </c>
@@ -4362,129 +4527,137 @@
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="D26" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" s="23" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="18" t="e">
+      <c r="D38" s="24" t="n">
         <f aca="false">AVERAGE(D26:D37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="E38" s="24" t="n">
         <f aca="false">AVERAGE(E26:E37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="F38" s="24" t="n">
         <f aca="false">AVERAGE(F26:F37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="G38" s="21" t="n">
         <f aca="false">AVERAGE(G26:G37)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4527,8 +4700,8 @@
   </sheetPr>
   <dimension ref="C1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4536,7 +4709,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4251012145749"/>
@@ -4585,16 +4758,16 @@
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="20" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4602,120 +4775,128 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="21" t="n">
         <f aca="false">AVERAGE(D5:D16)</f>
         <v>100</v>
       </c>
-      <c r="E17" s="19" t="n">
+      <c r="E17" s="21" t="n">
         <f aca="false">AVERAGE(E5:E16)</f>
         <v>100</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F17" s="25" t="n">
         <f aca="false">AVERAGE(F5:F16)</f>
-        <v>100</v>
-      </c>
-      <c r="G17" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" s="21" t="n">
         <f aca="false">AVERAGE(G5:G16)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,10 +4953,10 @@
       <c r="G26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="26" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4783,161 +4964,173 @@
       <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="D27" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" s="23" t="n">
+        <v>88.9</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="18" t="e">
+      <c r="D39" s="24" t="n">
         <f aca="false">AVERAGE(D27:D38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="E39" s="24" t="n">
         <f aca="false">AVERAGE(E27:E38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="F39" s="24" t="n">
         <f aca="false">AVERAGE(F27:F38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="G39" s="24" t="n">
         <f aca="false">AVERAGE(G27:G38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="H39" s="24" t="n">
         <f aca="false">AVERAGE(H27:H38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="I39" s="24" t="n">
         <f aca="false">AVERAGE(I27:I38)</f>
-        <v>#DIV/0!</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4981,8 +5174,8 @@
   </sheetPr>
   <dimension ref="C1:G19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4991,7 +5184,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5182186234818"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="18.5182186234818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="18.5182186234818"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2186234817814"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5708502024291"/>
@@ -5028,16 +5221,16 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="2"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="27" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5045,131 +5238,139 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="E7" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" s="23" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="25" t="n">
         <f aca="false">AVERAGE(D7:D18)</f>
+        <v>50</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <f aca="false">AVERAGE(E7:E18)</f>
         <v>100</v>
       </c>
-      <c r="E19" s="18" t="e">
-        <f aca="false">AVERAGE(E7:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="18" t="e">
+      <c r="F19" s="29" t="n">
         <f aca="false">AVERAGE(F7:F18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="18" t="e">
+        <v>100</v>
+      </c>
+      <c r="G19" s="29" t="n">
         <f aca="false">AVERAGE(G7:G18)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5197,7 +5398,7 @@
   <dimension ref="C1:H20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5205,7 +5406,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5708502024291"/>
@@ -5214,9 +5415,9 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="D1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="2" t="s">
@@ -5238,13 +5439,13 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2"/>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5252,18 +5453,24 @@
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,7 +5478,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="18"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,7 +5486,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5287,7 +5494,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,7 +5502,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5303,7 +5510,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,7 +5518,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5319,7 +5526,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,7 +5534,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5335,7 +5542,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,24 +5550,24 @@
         <v>21</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="21" t="n">
         <f aca="false">AVERAGE(D5:D16)</f>
+        <v>83.5</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <f aca="false">AVERAGE(E5:E16)</f>
         <v>100</v>
       </c>
-      <c r="E17" s="18" t="e">
-        <f aca="false">AVERAGE(E5:E16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="18" t="e">
+      <c r="F17" s="29" t="n">
         <f aca="false">AVERAGE(F5:F16)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5388,8 +5595,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5413,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5427,27 +5634,27 @@
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -5459,19 +5666,19 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
@@ -5486,38 +5693,38 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12" t="n">
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="n">
         <f aca="false">275000/2</f>
         <v>137500</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="13" t="n">
         <v>26640.42</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="13" t="n">
         <f aca="false">275000/2</f>
         <v>137500</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="13" t="n">
         <v>18065.18</v>
       </c>
-      <c r="H4" s="26" t="n">
+      <c r="H4" s="32" t="n">
         <f aca="false">SUM(B4,F4,D4)</f>
         <v>275000</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="13" t="n">
         <f aca="false">SUM(C4,G4,E4)</f>
         <v>44705.6</v>
       </c>
-      <c r="J4" s="27" t="n">
+      <c r="J4" s="33" t="n">
         <v>179572.48</v>
       </c>
-      <c r="K4" s="28" t="n">
+      <c r="K4" s="34" t="n">
         <f aca="false">((J4 * 100)/H4)-100</f>
         <v>-34.7009163636364</v>
       </c>
@@ -5530,47 +5737,64 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="26" t="n">
+      <c r="B5" s="13" t="n">
+        <v>91666.67</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>11997</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>91666.67</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>12722.43</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>91666.67</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>25179.75</v>
+      </c>
+      <c r="H5" s="32" t="n">
         <f aca="false">SUM(B5,F5,D5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="12" t="n">
+        <v>275000.01</v>
+      </c>
+      <c r="I5" s="13" t="n">
         <f aca="false">SUM(C5,G5,E5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="29" t="e">
+        <v>49899.18</v>
+      </c>
+      <c r="J5" s="33" t="n">
+        <v>134033.44</v>
+      </c>
+      <c r="K5" s="35" t="n">
         <f aca="false">((J5 * 100)/H5)-100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="5"/>
+        <v>-51.2605690450702</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <f aca="false">J5-'Desviacion de costos'!K8</f>
+        <v>-7786.60999999999</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="26" t="n">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="32" t="n">
         <f aca="false">SUM(B6,F6,D6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="13" t="n">
         <f aca="false">SUM(C6,G6,E6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="29" t="e">
+      <c r="J6" s="33"/>
+      <c r="K6" s="36" t="e">
         <f aca="false">((J6 * 100)/H6)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5580,22 +5804,22 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="26" t="n">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="32" t="n">
         <f aca="false">SUM(B7,F7,D7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="13" t="n">
         <f aca="false">SUM(C7,G7,E7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="29" t="e">
+      <c r="J7" s="33"/>
+      <c r="K7" s="36" t="e">
         <f aca="false">((J7 * 100)/H7)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5605,22 +5829,22 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="26" t="n">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="32" t="n">
         <f aca="false">SUM(B8,F8,D8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="13" t="n">
         <f aca="false">SUM(C8,G8,E8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="29" t="e">
+      <c r="J8" s="33"/>
+      <c r="K8" s="36" t="e">
         <f aca="false">((J8 * 100)/H8)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5630,22 +5854,22 @@
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="26" t="n">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="32" t="n">
         <f aca="false">SUM(B9,F9,D9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="13" t="n">
         <f aca="false">SUM(C9,G9,E9)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="29" t="e">
+      <c r="J9" s="33"/>
+      <c r="K9" s="36" t="e">
         <f aca="false">((J9 * 100)/H9)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5655,22 +5879,22 @@
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="26" t="n">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="32" t="n">
         <f aca="false">SUM(B10,F10,D10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="13" t="n">
         <f aca="false">SUM(C10,G10,E10)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="29" t="e">
+      <c r="J10" s="33"/>
+      <c r="K10" s="36" t="e">
         <f aca="false">((J10 * 100)/H10)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5680,22 +5904,22 @@
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="26" t="n">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="32" t="n">
         <f aca="false">SUM(B11,F11,D11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="13" t="n">
         <f aca="false">SUM(C11,G11,E11)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="29" t="e">
+      <c r="J11" s="33"/>
+      <c r="K11" s="36" t="e">
         <f aca="false">((J11 * 100)/H11)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5705,22 +5929,22 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="26" t="n">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="32" t="n">
         <f aca="false">SUM(B12,F12,D12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="13" t="n">
         <f aca="false">SUM(C12,G12,E12)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="29" t="e">
+      <c r="J12" s="33"/>
+      <c r="K12" s="36" t="e">
         <f aca="false">((J12 * 100)/H12)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5730,22 +5954,22 @@
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="26" t="n">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="32" t="n">
         <f aca="false">SUM(B13,F13,D13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="13" t="n">
         <f aca="false">SUM(C13,G13,E13)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="29" t="e">
+      <c r="J13" s="33"/>
+      <c r="K13" s="36" t="e">
         <f aca="false">((J13 * 100)/H13)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5755,22 +5979,22 @@
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="26" t="n">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="32" t="n">
         <f aca="false">SUM(B14,F14,D14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="13" t="n">
         <f aca="false">SUM(C14,G14,E14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="29" t="e">
+      <c r="J14" s="33"/>
+      <c r="K14" s="36" t="e">
         <f aca="false">((J14 * 100)/H14)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5780,22 +6004,22 @@
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="26" t="n">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="32" t="n">
         <f aca="false">SUM(B15,F15,D15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I15" s="13" t="n">
         <f aca="false">SUM(C15,G15,E15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="29" t="e">
+      <c r="J15" s="33"/>
+      <c r="K15" s="36" t="e">
         <f aca="false">((J15 * 100)/H15)-100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5803,53 +6027,53 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="12" t="n">
+        <v>68</v>
+      </c>
+      <c r="B16" s="13" t="n">
         <f aca="false">SUM(B4:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="12" t="n">
+        <v>91666.67</v>
+      </c>
+      <c r="C16" s="13" t="n">
         <f aca="false">SUM(C4:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="12" t="n">
+        <v>11997</v>
+      </c>
+      <c r="D16" s="13" t="n">
         <f aca="false">SUM(D4:D15)</f>
-        <v>137500</v>
-      </c>
-      <c r="E16" s="12" t="n">
+        <v>229166.67</v>
+      </c>
+      <c r="E16" s="13" t="n">
         <f aca="false">SUM(E4:E15)</f>
-        <v>26640.42</v>
-      </c>
-      <c r="F16" s="12" t="n">
+        <v>39362.85</v>
+      </c>
+      <c r="F16" s="13" t="n">
         <f aca="false">SUM(F4:F15)</f>
-        <v>137500</v>
-      </c>
-      <c r="G16" s="12" t="n">
+        <v>229166.67</v>
+      </c>
+      <c r="G16" s="13" t="n">
         <f aca="false">SUM(G4:G15)</f>
-        <v>18065.18</v>
-      </c>
-      <c r="H16" s="26" t="n">
+        <v>43244.93</v>
+      </c>
+      <c r="H16" s="32" t="n">
         <f aca="false">SUM(H4:H15)</f>
-        <v>275000</v>
-      </c>
-      <c r="I16" s="12" t="n">
+        <v>550000.01</v>
+      </c>
+      <c r="I16" s="13" t="n">
         <f aca="false">SUM(I4:I15)</f>
-        <v>44705.6</v>
-      </c>
-      <c r="J16" s="27" t="n">
+        <v>94604.78</v>
+      </c>
+      <c r="J16" s="33" t="n">
         <f aca="false">SUM(J4:J15)</f>
-        <v>179572.48</v>
-      </c>
-      <c r="K16" s="29" t="n">
+        <v>313605.92</v>
+      </c>
+      <c r="K16" s="36" t="n">
         <f aca="false">((J16 * 100)/H16)-100</f>
-        <v>-34.7009163636364</v>
+        <v>-42.9807428548956</v>
       </c>
       <c r="L16" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -5858,29 +6082,29 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="12" t="n">
+      <c r="B20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="13" t="n">
         <v>3300000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="C21" s="13" t="n">
         <f aca="false">J16</f>
-        <v>179572.48</v>
+        <v>313605.92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="20" t="n">
+      <c r="B22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="23" t="n">
         <f aca="false">((C21 * 100)/C20)-100</f>
-        <v>-94.5584096969697</v>
+        <v>-90.4967903030303</v>
       </c>
     </row>
   </sheetData>
@@ -5915,8 +6139,8 @@
   </sheetPr>
   <dimension ref="C2:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5933,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5948,7 +6172,7 @@
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="23" t="n">
         <f aca="false">(100+100+97+100+97)/5</f>
         <v>98.8</v>
       </c>
@@ -5957,75 +6181,78 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="23" t="n">
+        <f aca="false">(300 + 74.29 + 88.57)/5</f>
+        <v>92.572</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="20" t="n">
+        <v>73</v>
+      </c>
+      <c r="D17" s="23" t="n">
         <f aca="false">AVERAGE(D5:D16)</f>
-        <v>98.8</v>
+        <v>95.686</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
@@ -255,7 +255,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,6 +286,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -452,16 +458,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -476,7 +486,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,10 +495,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,7 +522,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,11 +562,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -622,7 +628,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
@@ -640,7 +646,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -654,11 +660,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>totales</c:f>
+              <c:f>totales_planeados</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>totales</c:v>
+                  <c:v>totales_planeados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -730,11 +736,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>totales</c:f>
+              <c:f>totales_reales</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>totales</c:v>
+                  <c:v>totales_reales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -804,152 +810,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>desviación</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$I$7:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-9.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-15.0485436893204</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -959,16 +819,36 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="99861454"/>
-        <c:axId val="36416003"/>
+        <c:axId val="19253046"/>
+        <c:axId val="38989708"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99861454"/>
+        <c:axId val="19253046"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -979,14 +859,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36416003"/>
+        <c:crossAx val="38989708"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36416003"/>
+        <c:axId val="38989708"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,6 +881,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tickets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1011,7 +911,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99861454"/>
+        <c:crossAx val="19253046"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1046,7 +946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1060,11 +960,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$G$4</c:f>
+              <c:f>funcional</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Totales planeados</c:v>
+                  <c:v>funcional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1085,291 +985,49 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Funcional!$D$4:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Entregables</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$G$7:$G$18</c:f>
+              <c:f>Funcional!$D$17:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>140990.82</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140990.82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>totales Reales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$H$7:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>91828.107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81057.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>desviación</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$I$7:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-34.8694425637073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-42.5083491251416</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="67848286"/>
-        <c:axId val="55311086"/>
+        <c:axId val="97132714"/>
+        <c:axId val="50136831"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67848286"/>
+        <c:axId val="97132714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,14 +1043,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55311086"/>
+        <c:crossAx val="50136831"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55311086"/>
+        <c:axId val="50136831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1075,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67848286"/>
+        <c:crossAx val="97132714"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1452,7 +1110,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1464,17 +1122,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>apego_interno</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>apego_interno</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -1493,41 +1140,198 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$D$4:$G$4</c:f>
+              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
+                  <c:v>Enero</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ventas</c:v>
+                  <c:v>Febrero</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Implementación</c:v>
+                  <c:v>Marzo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Garantía</c:v>
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$D$17:$G$17</c:f>
+              <c:f>'Crecimiento anual de ventas'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>275000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>275000.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>179572.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134033.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,11 +1339,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="75458762"/>
-        <c:axId val="36378038"/>
+        <c:axId val="65310341"/>
+        <c:axId val="29368385"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75458762"/>
+        <c:axId val="65310341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,14 +1359,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36378038"/>
+        <c:crossAx val="29368385"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36378038"/>
+        <c:axId val="29368385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1391,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75458762"/>
+        <c:crossAx val="65310341"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1622,7 +1426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1636,11 +1440,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>procesos_organizacional</c:f>
+              <c:f>satisfacción</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>procesos_organizacional</c:v>
+                  <c:v>satisfacción</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1663,41 +1467,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$D$25:$G$25</c:f>
+              <c:f>'Indice de Satisfacción'!$C$5:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Calidad</c:v>
+                  <c:v>Enero</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Planeación anual</c:v>
+                  <c:v>Febrero</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Seguimiento</c:v>
+                  <c:v>Marzo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cambios</c:v>
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$D$38:$G$38</c:f>
+              <c:f>'Indice de Satisfacción'!$D$5:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>92.572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,11 +1563,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="4263083"/>
-        <c:axId val="30024363"/>
+        <c:axId val="86870159"/>
+        <c:axId val="52863315"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4263083"/>
+        <c:axId val="86870159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,14 +1583,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30024363"/>
+        <c:crossAx val="52863315"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30024363"/>
+        <c:axId val="52863315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1615,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4263083"/>
+        <c:crossAx val="86870159"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1792,7 +1650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1806,11 +1664,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>proceso</c:f>
+              <c:f>desviación</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>proceso</c:v>
+                  <c:v>desviación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1831,60 +1689,94 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Productos'!$D$4:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cotización</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Solicitud de compra</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Carta de aceptación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tickets de servicio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$D$17:$G$17</c:f>
+              <c:f>'Desviacion de esfuerzo'!$I$7:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>-9.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>-15.0485436893204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="83657218"/>
-        <c:axId val="69645419"/>
+        <c:axId val="26322778"/>
+        <c:axId val="97593934"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83657218"/>
+        <c:axId val="26322778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1895,14 +1787,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69645419"/>
+        <c:crossAx val="97593934"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69645419"/>
+        <c:axId val="97593934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,6 +1809,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1927,7 +1839,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83657218"/>
+        <c:crossAx val="26322778"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1962,7 +1874,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1976,11 +1888,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>organizacional</c:f>
+              <c:f>'Desviacion de costos'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>organizacional</c:v>
+                  <c:v>Totales planeados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2001,72 +1913,170 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Productos'!$D$26:$I$26</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Catalogo de servicios</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Plan de calidad</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Plan de Métricas</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Plan de Configuración</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Plan de proyecto</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Reporte de Monitoreo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$D$39:$I$39</c:f>
+              <c:f>'Desviacion de costos'!$G$7:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>140990.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>140990.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.9</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totales Reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$H$7:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91828.107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81057.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="13945438"/>
-        <c:axId val="35934031"/>
+        <c:axId val="66557972"/>
+        <c:axId val="3171250"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13945438"/>
+        <c:axId val="66557972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2077,14 +2087,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="35934031"/>
+        <c:crossAx val="3171250"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35934031"/>
+        <c:axId val="3171250"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,6 +2109,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Pesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2109,7 +2139,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13945438"/>
+        <c:crossAx val="66557972"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2144,7 +2174,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2158,11 +2188,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>física</c:f>
+              <c:f>desviación</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>física</c:v>
+                  <c:v>desviación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2183,60 +2213,94 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Física!$D$6:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Elementos de configuración física</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Control de cambios organizacional</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Línea base</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Elementos de Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Física!$D$19:$G$19</c:f>
+              <c:f>'Desviacion de costos'!$I$7:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>-34.8694425637073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>-42.5083491251416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="33857728"/>
-        <c:axId val="8039124"/>
+        <c:axId val="8235349"/>
+        <c:axId val="45216745"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33857728"/>
+        <c:axId val="8235349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2247,14 +2311,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8039124"/>
+        <c:crossAx val="45216745"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8039124"/>
+        <c:axId val="45216745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,6 +2333,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2279,7 +2363,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33857728"/>
+        <c:crossAx val="8235349"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2314,7 +2398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2328,11 +2412,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>funcional</c:f>
+              <c:f>apego_interno</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>funcional</c:v>
+                  <c:v>apego_interno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2355,34 +2439,40 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Funcional!$D$4:$F$4</c:f>
+              <c:f>'Apego a Procesos'!$D$4:$G$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Entregables</c:v>
+                  <c:v>Prospectación</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Control de cambios</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Línea base</c:v>
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Garantía</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Funcional!$D$17:$F$17</c:f>
+              <c:f>'Apego a Procesos'!$D$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>83.5</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>78.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2391,11 +2481,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39651859"/>
-        <c:axId val="2370812"/>
+        <c:axId val="18344368"/>
+        <c:axId val="34614624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39651859"/>
+        <c:axId val="18344368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,14 +2501,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2370812"/>
+        <c:crossAx val="34614624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2370812"/>
+        <c:axId val="34614624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2533,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39651859"/>
+        <c:crossAx val="18344368"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2478,7 +2568,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2490,6 +2580,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>procesos_organizacional</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>procesos_organizacional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -2508,198 +2609,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
+              <c:f>'Apego a Procesos'!$D$25:$G$25</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Enero</c:v>
+                  <c:v>Calidad</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Febrero</c:v>
+                  <c:v>Planeación anual</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Marzo</c:v>
+                  <c:v>Seguimiento</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
+                  <c:v>Cambios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$H$4:$H$15</c:f>
+              <c:f>'Apego a Procesos'!$D$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>275000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275000.01</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$J$4:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>179572.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134033.44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,11 +2651,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="68092718"/>
-        <c:axId val="69690542"/>
+        <c:axId val="78201251"/>
+        <c:axId val="43785690"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68092718"/>
+        <c:axId val="78201251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,14 +2671,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69690542"/>
+        <c:crossAx val="43785690"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69690542"/>
+        <c:axId val="43785690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,7 +2703,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68092718"/>
+        <c:crossAx val="78201251"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2794,7 +2738,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2808,11 +2752,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>satisfacción</c:f>
+              <c:f>proceso</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>satisfacción</c:v>
+                  <c:v>proceso</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2835,95 +2779,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$C$5:$C$17</c:f>
+              <c:f>'Apego a Productos'!$D$4:$G$4</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Enero</c:v>
+                  <c:v>Cotización</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Febrero</c:v>
+                  <c:v>Solicitud de compra</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Marzo</c:v>
+                  <c:v>Carta de aceptación</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Total</c:v>
+                  <c:v>Tickets de servicio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Indice de Satisfacción'!$D$5:$D$17</c:f>
+              <c:f>'Apego a Productos'!$D$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>98.8</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.572</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.686</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2931,11 +2821,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="70252972"/>
-        <c:axId val="10969685"/>
+        <c:axId val="18264643"/>
+        <c:axId val="62816361"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70252972"/>
+        <c:axId val="18264643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,14 +2841,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="10969685"/>
+        <c:crossAx val="62816361"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10969685"/>
+        <c:axId val="62816361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +2873,359 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70252972"/>
+        <c:crossAx val="18264643"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>organizacional</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>organizacional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Productos'!$D$26:$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Catalogo de servicios</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plan de calidad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plan de Métricas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Plan de Configuración</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Plan de proyecto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Reporte de Monitoreo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Productos'!$D$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="77506039"/>
+        <c:axId val="9764485"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77506039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="9764485"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="9764485"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="77506039"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>física</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>física</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Física!$D$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Elementos de configuración física</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios organizacional</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elementos de Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Física!$D$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="99162137"/>
+        <c:axId val="32461032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99162137"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="32461032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="32461032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="99162137"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3023,15 +3265,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>134280</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3039,12 +3281,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="259560" y="3744720"/>
-        <a:ext cx="5752800" cy="3243960"/>
+        <a:off x="313560" y="3726720"/>
+        <a:ext cx="5752080" cy="3243240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>529560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>186480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6460920" y="3894840"/>
+        <a:ext cx="5755320" cy="3243600"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3058,28 +3330,58 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>220320</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="423360" y="3664440"/>
-        <a:ext cx="5757480" cy="3236760"/>
+        <a:off x="477360" y="3646440"/>
+        <a:ext cx="5756760" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6721200" y="3738240"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3093,24 +3395,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
+      <xdr:colOff>400680</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1555560</xdr:colOff>
+      <xdr:colOff>1608840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Apego Interno"/>
+        <xdr:cNvPr id="4" name="Apego Interno"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8637120" y="0"/>
-        <a:ext cx="5756760" cy="3237480"/>
+        <a:off x="8691120" y="0"/>
+        <a:ext cx="5756040" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3123,24 +3425,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>463320</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1670040</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:colOff>1723320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8753760" y="4001760"/>
-        <a:ext cx="5754600" cy="3229200"/>
+        <a:off x="8807760" y="3983760"/>
+        <a:ext cx="5753880" cy="3228480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3158,24 +3460,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:colOff>379800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>572400</xdr:colOff>
+      <xdr:colOff>625680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8797320" y="156600"/>
-        <a:ext cx="5758200" cy="3236400"/>
+        <a:off x="8851320" y="138600"/>
+        <a:ext cx="5757480" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3188,24 +3490,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>356040</xdr:colOff>
+      <xdr:colOff>410040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>970920</xdr:colOff>
+      <xdr:colOff>1024200</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="7" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11253240" y="4310280"/>
-        <a:ext cx="5758200" cy="3234600"/>
+        <a:off x="11307240" y="4292280"/>
+        <a:ext cx="5757480" cy="3233880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3223,24 +3525,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>407880</xdr:colOff>
+      <xdr:colOff>461160</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="8" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3794400" y="3578400"/>
-        <a:ext cx="5756040" cy="2995560"/>
+        <a:off x="3848400" y="3560400"/>
+        <a:ext cx="5755320" cy="2994840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3258,24 +3560,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>378360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>563400</xdr:colOff>
+      <xdr:colOff>616680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="9" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7370280" y="131400"/>
-        <a:ext cx="5750640" cy="3233160"/>
+        <a:off x="7424280" y="113400"/>
+        <a:ext cx="5749920" cy="3232440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3293,24 +3595,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>158040</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="10" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5718600" y="3137400"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:off x="5772600" y="3119400"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3328,24 +3630,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>137880</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="11" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4052520" y="665280"/>
-        <a:ext cx="5761440" cy="3233160"/>
+        <a:off x="4106520" y="647280"/>
+        <a:ext cx="5760720" cy="3232440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3363,10 +3665,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I65536"/>
+  <dimension ref="B1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3554,7 +3856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3575,7 +3877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -3595,6 +3897,7 @@
         <f aca="false">((H12 * 100)/G12)-100</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
@@ -3815,8 +4118,8 @@
   </sheetPr>
   <dimension ref="B1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3918,34 +4221,34 @@
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>63870.88</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>57896.127</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="12" t="n">
         <v>77119.94</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="12" t="n">
         <v>33931.98</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="13" t="n">
         <f aca="false">SUM(C7,E7)</f>
         <v>140990.82</v>
       </c>
-      <c r="H7" s="13" t="n">
+      <c r="H7" s="14" t="n">
         <f aca="false">SUM(D7,F7)</f>
         <v>91828.107</v>
       </c>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="15" t="n">
         <f aca="false">((H7 * 100)/G7)-100</f>
         <v>-34.8694425637073</v>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="J7" s="16" t="n">
         <v>88924.64</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="14" t="n">
         <f aca="false">SUM(J7,H7)</f>
         <v>180752.747</v>
       </c>
@@ -3954,34 +4257,34 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="12" t="n">
         <v>63870.88</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="12" t="n">
         <v>60118.7</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="12" t="n">
         <v>77119.94</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="12" t="n">
         <v>20939.25</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="13" t="n">
         <f aca="false">SUM(C8,E8)</f>
         <v>140990.82</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="14" t="n">
         <f aca="false">SUM(D8,F8)</f>
         <v>81057.95</v>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="17" t="n">
         <f aca="false">((H8 * 100)/G8)-100</f>
         <v>-42.5083491251416</v>
       </c>
-      <c r="J8" s="15" t="n">
+      <c r="J8" s="16" t="n">
         <v>60762.1</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="14" t="n">
         <f aca="false">SUM(J8,H8)</f>
         <v>141820.05</v>
       </c>
@@ -3990,231 +4293,231 @@
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12" t="n">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="n">
         <f aca="false">SUM(C9,E9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="13" t="n">
+      <c r="H9" s="14" t="n">
         <f aca="false">SUM(D9,F9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="17" t="e">
+      <c r="I9" s="10" t="e">
         <f aca="false">((H9 * 100)/G9)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12" t="n">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="n">
         <f aca="false">SUM(C10,E10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="14" t="n">
         <f aca="false">SUM(D10,F10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="17" t="e">
+      <c r="I10" s="10" t="e">
         <f aca="false">((H10 * 100)/G10)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="n">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="n">
         <f aca="false">SUM(C11,E11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="13" t="n">
+      <c r="H11" s="14" t="n">
         <f aca="false">SUM(D11,F11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="17" t="e">
+      <c r="I11" s="10" t="e">
         <f aca="false">((H11 * 100)/G11)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12" t="n">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="n">
         <f aca="false">SUM(C12,E12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="13" t="n">
+      <c r="H12" s="14" t="n">
         <f aca="false">SUM(D12,F12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="17" t="e">
+      <c r="I12" s="10" t="e">
         <f aca="false">((H12 * 100)/G12)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12" t="n">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="n">
         <f aca="false">SUM(C13,E13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="13" t="n">
+      <c r="H13" s="14" t="n">
         <f aca="false">SUM(D13,F13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="17" t="e">
+      <c r="I13" s="10" t="e">
         <f aca="false">((H13 * 100)/G13)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12" t="n">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="n">
         <f aca="false">SUM(C14,E14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="13" t="n">
+      <c r="H14" s="14" t="n">
         <f aca="false">SUM(D14,F14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="17" t="e">
+      <c r="I14" s="10" t="e">
         <f aca="false">((H14 * 100)/G14)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12" t="n">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="n">
         <f aca="false">SUM(C15,E15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="13" t="n">
+      <c r="H15" s="14" t="n">
         <f aca="false">SUM(D15,F15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="17" t="e">
+      <c r="I15" s="10" t="e">
         <f aca="false">((H15 * 100)/G15)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12" t="n">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="n">
         <f aca="false">SUM(C16,E16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="13" t="n">
+      <c r="H16" s="14" t="n">
         <f aca="false">SUM(D16,F16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="17" t="e">
+      <c r="I16" s="10" t="e">
         <f aca="false">((H16 * 100)/G16)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12" t="n">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="n">
         <f aca="false">SUM(C17,E17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="13" t="n">
+      <c r="H17" s="14" t="n">
         <f aca="false">SUM(D17,F17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="17" t="e">
+      <c r="I17" s="10" t="e">
         <f aca="false">((H17 * 100)/G17)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12" t="n">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="n">
         <f aca="false">SUM(C18,E18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="13" t="n">
+      <c r="H18" s="14" t="n">
         <f aca="false">SUM(D18,F18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="17" t="e">
+      <c r="I18" s="10" t="e">
         <f aca="false">((H18 * 100)/G18)-100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4274,8 +4577,8 @@
   </sheetPr>
   <dimension ref="C1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5693,31 +5996,31 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="14" t="n">
         <f aca="false">275000/2</f>
         <v>137500</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="14" t="n">
         <v>26640.42</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="14" t="n">
         <f aca="false">275000/2</f>
         <v>137500</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="14" t="n">
         <v>18065.18</v>
       </c>
       <c r="H4" s="32" t="n">
         <f aca="false">SUM(B4,F4,D4)</f>
         <v>275000</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="I4" s="14" t="n">
         <f aca="false">SUM(C4,G4,E4)</f>
         <v>44705.6</v>
       </c>
@@ -5737,29 +6040,29 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="14" t="n">
         <v>91666.67</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="14" t="n">
         <v>11997</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="14" t="n">
         <v>91666.67</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="14" t="n">
         <v>12722.43</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="14" t="n">
         <v>91666.67</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="14" t="n">
         <v>25179.75</v>
       </c>
       <c r="H5" s="32" t="n">
         <f aca="false">SUM(B5,F5,D5)</f>
         <v>275000.01</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="14" t="n">
         <f aca="false">SUM(C5,G5,E5)</f>
         <v>49899.18</v>
       </c>
@@ -5779,17 +6082,17 @@
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="32" t="n">
         <f aca="false">SUM(B6,F6,D6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="14" t="n">
         <f aca="false">SUM(C6,G6,E6)</f>
         <v>0</v>
       </c>
@@ -5804,17 +6107,17 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="32" t="n">
         <f aca="false">SUM(B7,F7,D7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="14" t="n">
         <f aca="false">SUM(C7,G7,E7)</f>
         <v>0</v>
       </c>
@@ -5829,17 +6132,17 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="32" t="n">
         <f aca="false">SUM(B8,F8,D8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="14" t="n">
         <f aca="false">SUM(C8,G8,E8)</f>
         <v>0</v>
       </c>
@@ -5854,17 +6157,17 @@
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="32" t="n">
         <f aca="false">SUM(B9,F9,D9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="14" t="n">
         <f aca="false">SUM(C9,G9,E9)</f>
         <v>0</v>
       </c>
@@ -5879,17 +6182,17 @@
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="32" t="n">
         <f aca="false">SUM(B10,F10,D10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="14" t="n">
         <f aca="false">SUM(C10,G10,E10)</f>
         <v>0</v>
       </c>
@@ -5904,17 +6207,17 @@
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="32" t="n">
         <f aca="false">SUM(B11,F11,D11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="14" t="n">
         <f aca="false">SUM(C11,G11,E11)</f>
         <v>0</v>
       </c>
@@ -5929,17 +6232,17 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="32" t="n">
         <f aca="false">SUM(B12,F12,D12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="14" t="n">
         <f aca="false">SUM(C12,G12,E12)</f>
         <v>0</v>
       </c>
@@ -5954,17 +6257,17 @@
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="32" t="n">
         <f aca="false">SUM(B13,F13,D13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="13" t="n">
+      <c r="I13" s="14" t="n">
         <f aca="false">SUM(C13,G13,E13)</f>
         <v>0</v>
       </c>
@@ -5979,17 +6282,17 @@
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="32" t="n">
         <f aca="false">SUM(B14,F14,D14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="14" t="n">
         <f aca="false">SUM(C14,G14,E14)</f>
         <v>0</v>
       </c>
@@ -6004,17 +6307,17 @@
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="32" t="n">
         <f aca="false">SUM(B15,F15,D15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="14" t="n">
         <f aca="false">SUM(C15,G15,E15)</f>
         <v>0</v>
       </c>
@@ -6029,27 +6332,27 @@
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="14" t="n">
         <f aca="false">SUM(B4:B15)</f>
         <v>91666.67</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="14" t="n">
         <f aca="false">SUM(C4:C15)</f>
         <v>11997</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="14" t="n">
         <f aca="false">SUM(D4:D15)</f>
         <v>229166.67</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="14" t="n">
         <f aca="false">SUM(E4:E15)</f>
         <v>39362.85</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="14" t="n">
         <f aca="false">SUM(F4:F15)</f>
         <v>229166.67</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="14" t="n">
         <f aca="false">SUM(G4:G15)</f>
         <v>43244.93</v>
       </c>
@@ -6057,7 +6360,7 @@
         <f aca="false">SUM(H4:H15)</f>
         <v>550000.01</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="14" t="n">
         <f aca="false">SUM(I4:I15)</f>
         <v>94604.78</v>
       </c>
@@ -6085,7 +6388,7 @@
       <c r="B20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="14" t="n">
         <v>3300000</v>
       </c>
     </row>
@@ -6093,7 +6396,7 @@
       <c r="B21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="14" t="n">
         <f aca="false">J16</f>
         <v>313605.92</v>
       </c>
@@ -6139,7 +6442,7 @@
   </sheetPr>
   <dimension ref="C2:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -16,13 +16,15 @@
     <sheet name="Funcional" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Crecimiento anual de ventas" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Indice de Satisfacción" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Producto" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Actividades" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="79">
   <si>
     <t>Desviación de esfuerzo por proyectos planificados/reales</t>
   </si>
@@ -244,6 +246,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Actividades en tiempo</t>
+  </si>
+  <si>
+    <t>Actividades fuera de tiempo</t>
   </si>
 </sst>
 </file>
@@ -255,7 +272,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -285,6 +302,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -301,6 +323,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -425,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,7 +513,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,7 +549,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,16 +589,28 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -646,10 +685,30 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Esfuerzo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -817,13 +876,23 @@
             </a:ln>
           </c:spPr>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="19253046"/>
-        <c:axId val="38989708"/>
+        <c:axId val="96814414"/>
+        <c:axId val="46892396"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19253046"/>
+        <c:axId val="96814414"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,14 +928,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38989708"/>
+        <c:crossAx val="46892396"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38989708"/>
+        <c:axId val="46892396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +980,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19253046"/>
+        <c:crossAx val="96814414"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -946,714 +1015,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:plotArea>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Desviación de Esfuerzo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>funcional</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>funcional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Funcional!$D$4:$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Entregables</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Control de cambios</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Línea base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Funcional!$D$17:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="97132714"/>
-        <c:axId val="50136831"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97132714"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="50136831"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50136831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="97132714"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$H$4:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>275000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>275000.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$J$4:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>179572.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134033.44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="65310341"/>
-        <c:axId val="29368385"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="65310341"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="29368385"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="29368385"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="65310341"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>satisfacción</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>satisfacción</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Indice de Satisfacción'!$C$5:$C$17</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Indice de Satisfacción'!$D$5:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>98.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.572</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.686</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="86870159"/>
-        <c:axId val="52863315"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="86870159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="52863315"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52863315"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="86870159"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1745,13 +1130,23 @@
             </a:ln>
           </c:spPr>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="26322778"/>
-        <c:axId val="97593934"/>
+        <c:axId val="28105241"/>
+        <c:axId val="56153898"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26322778"/>
+        <c:axId val="28105241"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,14 +1182,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97593934"/>
+        <c:crossAx val="56153898"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97593934"/>
+        <c:axId val="56153898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1234,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26322778"/>
+        <c:crossAx val="28105241"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1874,10 +1269,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Costos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2045,13 +1460,23 @@
             </a:ln>
           </c:spPr>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="66557972"/>
-        <c:axId val="3171250"/>
+        <c:axId val="61155153"/>
+        <c:axId val="83023922"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66557972"/>
+        <c:axId val="61155153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,14 +1512,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="3171250"/>
+        <c:crossAx val="83023922"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3171250"/>
+        <c:axId val="83023922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +1564,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66557972"/>
+        <c:crossAx val="61155153"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2174,10 +1599,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Desviación de costos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2269,13 +1714,23 @@
             </a:ln>
           </c:spPr>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="8235349"/>
-        <c:axId val="45216745"/>
+        <c:axId val="5971967"/>
+        <c:axId val="34751603"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8235349"/>
+        <c:axId val="5971967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,14 +1766,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="45216745"/>
+        <c:crossAx val="34751603"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45216745"/>
+        <c:axId val="34751603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +1818,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8235349"/>
+        <c:crossAx val="5971967"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2398,10 +1853,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Apego a productos proceso</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2481,11 +1956,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18344368"/>
-        <c:axId val="34614624"/>
+        <c:axId val="7155355"/>
+        <c:axId val="83148861"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18344368"/>
+        <c:axId val="7155355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,14 +1976,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="34614624"/>
+        <c:crossAx val="83148861"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34614624"/>
+        <c:axId val="83148861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,7 +2008,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18344368"/>
+        <c:crossAx val="7155355"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2568,10 +2043,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Apego a procesos organizacionales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2651,11 +2146,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="78201251"/>
-        <c:axId val="43785690"/>
+        <c:axId val="79535569"/>
+        <c:axId val="51999893"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78201251"/>
+        <c:axId val="79535569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,14 +2166,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43785690"/>
+        <c:crossAx val="51999893"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43785690"/>
+        <c:axId val="51999893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2198,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78201251"/>
+        <c:crossAx val="79535569"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2738,10 +2233,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Apego a productos entrega de servicio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2821,11 +2336,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18264643"/>
-        <c:axId val="62816361"/>
+        <c:axId val="43833675"/>
+        <c:axId val="59788129"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18264643"/>
+        <c:axId val="43833675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,14 +2356,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62816361"/>
+        <c:crossAx val="59788129"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62816361"/>
+        <c:axId val="59788129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,7 +2388,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18264643"/>
+        <c:crossAx val="43833675"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2908,10 +2423,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Auditoria productos organizacionales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3003,11 +2538,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="77506039"/>
-        <c:axId val="9764485"/>
+        <c:axId val="88689457"/>
+        <c:axId val="90490595"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77506039"/>
+        <c:axId val="88689457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,14 +2558,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9764485"/>
+        <c:crossAx val="90490595"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9764485"/>
+        <c:axId val="90490595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,7 +2590,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77506039"/>
+        <c:crossAx val="88689457"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3090,10 +2625,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Auditoría Física</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3173,11 +2728,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="99162137"/>
-        <c:axId val="32461032"/>
+        <c:axId val="23652454"/>
+        <c:axId val="91927656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99162137"/>
+        <c:axId val="23652454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,14 +2748,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32461032"/>
+        <c:crossAx val="91927656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32461032"/>
+        <c:axId val="91927656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +2780,962 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99162137"/>
+        <c:crossAx val="23652454"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Auditoría funcional</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>funcional</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>funcional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Funcional!$D$4:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Entregables</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Funcional!$D$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="3697499"/>
+        <c:axId val="5485395"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="3697499"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="5485395"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5485395"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="3697499"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Crecimiento anual de ventas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$H$4:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275000.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>179572.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134033.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="60807637"/>
+        <c:axId val="24844309"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="60807637"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="24844309"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="24844309"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="60807637"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Indice de satisfacció n</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>satisfacción</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>satisfacción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$C$5:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indice de Satisfacción'!$D$5:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="61791844"/>
+        <c:axId val="87188256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="61791844"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="87188256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87188256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="61791844"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Grafico de actividades</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Actividades!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Actividades!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Actividades!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="2810488"/>
+        <c:axId val="51014468"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2810488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="51014468"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51014468"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2810488"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3265,15 +3775,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>137520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3281,8 +3791,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="313560" y="3726720"/>
-        <a:ext cx="5752080" cy="3243240"/>
+        <a:off x="340560" y="3717720"/>
+        <a:ext cx="5751720" cy="3242880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3295,15 +3805,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>556560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>309960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3311,8 +3821,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6460920" y="3894840"/>
-        <a:ext cx="5755320" cy="3243600"/>
+        <a:off x="6487920" y="3885840"/>
+        <a:ext cx="5754960" cy="3243240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3330,15 +3840,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3346,8 +3856,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="477360" y="3646440"/>
-        <a:ext cx="5756760" cy="3236040"/>
+        <a:off x="504360" y="3637440"/>
+        <a:ext cx="5756400" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3360,15 +3870,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>624240</xdr:colOff>
+      <xdr:colOff>651240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3376,8 +3886,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6721200" y="3738240"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="6748200" y="3729240"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3395,15 +3905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400680</xdr:colOff>
+      <xdr:colOff>427680</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1608840</xdr:colOff>
+      <xdr:colOff>1635480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3411,8 +3921,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8691120" y="0"/>
-        <a:ext cx="5756040" cy="3236760"/>
+        <a:off x="8718120" y="0"/>
+        <a:ext cx="5755680" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3425,15 +3935,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>517320</xdr:colOff>
+      <xdr:colOff>544320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1723320</xdr:colOff>
+      <xdr:colOff>1749960</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3441,8 +3951,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8807760" y="3983760"/>
-        <a:ext cx="5753880" cy="3228480"/>
+        <a:off x="8834760" y="3974760"/>
+        <a:ext cx="5753520" cy="3228120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3460,15 +3970,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>379800</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>625680</xdr:colOff>
+      <xdr:colOff>652320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3476,8 +3986,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8851320" y="138600"/>
-        <a:ext cx="5757480" cy="3235680"/>
+        <a:off x="8878320" y="129600"/>
+        <a:ext cx="5757120" cy="3235320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3490,15 +4000,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>410040</xdr:colOff>
+      <xdr:colOff>437040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1024200</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3506,8 +4016,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11307240" y="4292280"/>
-        <a:ext cx="5757480" cy="3233880"/>
+        <a:off x="11334240" y="4283280"/>
+        <a:ext cx="5757120" cy="3233520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3524,16 +4034,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>865080</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>461160</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623160</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3541,8 +4051,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3848400" y="3560400"/>
-        <a:ext cx="5755320" cy="2994840"/>
+        <a:off x="6068160" y="4505040"/>
+        <a:ext cx="5754960" cy="2994480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3560,15 +4070,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>378360</xdr:colOff>
+      <xdr:colOff>405360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>616680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:colOff>643320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3576,8 +4086,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7424280" y="113400"/>
-        <a:ext cx="5749920" cy="3232440"/>
+        <a:off x="7451280" y="104400"/>
+        <a:ext cx="5749560" cy="3232080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3595,15 +4105,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>239040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>58320</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3611,8 +4121,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5772600" y="3119400"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:off x="5799600" y="3110400"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3630,15 +4140,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>629640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>191160</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3646,8 +4156,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4106520" y="647280"/>
-        <a:ext cx="5760720" cy="3232440"/>
+        <a:off x="4133520" y="638280"/>
+        <a:ext cx="5760360" cy="3232080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>557640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5627880" y="32760"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3668,7 +4213,7 @@
   <dimension ref="B1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4111,6 +4656,184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6113360323887"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8623481781377"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="39" t="e">
+        <f aca="false">C2/SUM(C2:D2)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="39" t="e">
+        <f aca="false">C3/SUM(C3:D3)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="39" t="e">
+        <f aca="false">C4/SUM(C4:D4)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="39" t="e">
+        <f aca="false">C5/SUM(C5:D5)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="39" t="e">
+        <f aca="false">C6/SUM(C6:D6)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="39" t="e">
+        <f aca="false">C7/SUM(C7:D7)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="e">
+        <f aca="false">C8/SUM(C8:D8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="39" t="e">
+        <f aca="false">C9/SUM(C9:D9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="39" t="e">
+        <f aca="false">C10/SUM(C10:D10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="39" t="e">
+        <f aca="false">C11/SUM(C11:D11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="39" t="e">
+        <f aca="false">C12/SUM(C12:D12)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="39" t="e">
+        <f aca="false">C13/SUM(C13:D13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4577,8 +5300,8 @@
   </sheetPr>
   <dimension ref="C1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5003,8 +5726,8 @@
   </sheetPr>
   <dimension ref="C1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5477,8 +6200,8 @@
   </sheetPr>
   <dimension ref="C1:G19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6442,8 +7165,8 @@
   </sheetPr>
   <dimension ref="C2:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6578,4 +7301,141 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8097165991903"/>
+    <col collapsed="false" hidden="false" max="14" min="2" style="0" width="18.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
@@ -837,7 +837,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1106,11 +1106,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="52587386"/>
-        <c:axId val="55192635"/>
+        <c:axId val="83608227"/>
+        <c:axId val="70359509"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52587386"/>
+        <c:axId val="83608227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,14 +1126,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55192635"/>
+        <c:crossAx val="70359509"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55192635"/>
+        <c:axId val="70359509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1158,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52587386"/>
+        <c:crossAx val="83608227"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1193,7 +1193,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1462,11 +1462,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="51495926"/>
-        <c:axId val="28433031"/>
+        <c:axId val="63813599"/>
+        <c:axId val="22954217"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51495926"/>
+        <c:axId val="63813599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,14 +1482,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28433031"/>
+        <c:crossAx val="22954217"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28433031"/>
+        <c:axId val="22954217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1514,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51495926"/>
+        <c:crossAx val="63813599"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1549,7 +1549,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1699,11 +1699,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="57964230"/>
-        <c:axId val="89995083"/>
+        <c:axId val="73814135"/>
+        <c:axId val="99773105"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57964230"/>
+        <c:axId val="73814135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,14 +1719,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89995083"/>
+        <c:crossAx val="99773105"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89995083"/>
+        <c:axId val="99773105"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +1751,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57964230"/>
+        <c:crossAx val="73814135"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1786,7 +1786,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1936,11 +1936,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91942258"/>
-        <c:axId val="96353394"/>
+        <c:axId val="31027127"/>
+        <c:axId val="31609572"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91942258"/>
+        <c:axId val="31027127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,14 +1956,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="96353394"/>
+        <c:crossAx val="31609572"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96353394"/>
+        <c:axId val="31609572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1988,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91942258"/>
+        <c:crossAx val="31027127"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2023,7 +2023,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2274,11 +2274,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="77904198"/>
-        <c:axId val="27294192"/>
+        <c:axId val="31235635"/>
+        <c:axId val="90843795"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77904198"/>
+        <c:axId val="31235635"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,14 +2295,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27294192"/>
+        <c:crossAx val="90843795"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27294192"/>
+        <c:axId val="90843795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,7 +2326,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77904198"/>
+        <c:crossAx val="31235635"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2362,7 +2362,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2482,11 +2482,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="84975712"/>
-        <c:axId val="64708621"/>
+        <c:axId val="1037796"/>
+        <c:axId val="64969534"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84975712"/>
+        <c:axId val="1037796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,14 +2503,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64708621"/>
+        <c:crossAx val="64969534"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64708621"/>
+        <c:axId val="64969534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +2534,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84975712"/>
+        <c:crossAx val="1037796"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2560,7 +2560,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2642,11 +2642,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="22472729"/>
-        <c:axId val="92153817"/>
+        <c:axId val="90178700"/>
+        <c:axId val="29711994"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22472729"/>
+        <c:axId val="90178700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,14 +2662,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92153817"/>
+        <c:crossAx val="29711994"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92153817"/>
+        <c:axId val="29711994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2694,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22472729"/>
+        <c:crossAx val="90178700"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2729,7 +2729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2800,11 +2800,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="51137712"/>
-        <c:axId val="19950501"/>
+        <c:axId val="55247589"/>
+        <c:axId val="49895277"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51137712"/>
+        <c:axId val="55247589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,14 +2820,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19950501"/>
+        <c:crossAx val="49895277"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19950501"/>
+        <c:axId val="49895277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2852,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51137712"/>
+        <c:crossAx val="55247589"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2887,7 +2887,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2969,11 +2969,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="57969521"/>
-        <c:axId val="93328663"/>
+        <c:axId val="43725350"/>
+        <c:axId val="64449001"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57969521"/>
+        <c:axId val="43725350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,14 +2989,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93328663"/>
+        <c:crossAx val="64449001"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93328663"/>
+        <c:axId val="64449001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +3021,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57969521"/>
+        <c:crossAx val="43725350"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3056,7 +3056,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3150,11 +3150,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="42201669"/>
-        <c:axId val="89145638"/>
+        <c:axId val="82608297"/>
+        <c:axId val="1170742"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42201669"/>
+        <c:axId val="82608297"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,14 +3170,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89145638"/>
+        <c:crossAx val="1170742"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89145638"/>
+        <c:axId val="1170742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,7 +3202,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42201669"/>
+        <c:crossAx val="82608297"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3237,7 +3237,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3313,11 +3313,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82537570"/>
-        <c:axId val="19842379"/>
+        <c:axId val="60792959"/>
+        <c:axId val="46405184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82537570"/>
+        <c:axId val="60792959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,14 +3333,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19842379"/>
+        <c:crossAx val="46405184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19842379"/>
+        <c:axId val="46405184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3365,7 +3365,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82537570"/>
+        <c:crossAx val="60792959"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3400,7 +3400,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3464,11 +3464,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="46802690"/>
-        <c:axId val="47360332"/>
+        <c:axId val="85944030"/>
+        <c:axId val="67095593"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46802690"/>
+        <c:axId val="85944030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,14 +3484,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="47360332"/>
+        <c:crossAx val="67095593"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47360332"/>
+        <c:axId val="67095593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,7 +3516,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46802690"/>
+        <c:crossAx val="85944030"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3551,7 +3551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3641,11 +3641,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="14397634"/>
-        <c:axId val="26864516"/>
+        <c:axId val="60503938"/>
+        <c:axId val="63134880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14397634"/>
+        <c:axId val="60503938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,14 +3661,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26864516"/>
+        <c:crossAx val="63134880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26864516"/>
+        <c:axId val="63134880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3693,7 +3693,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="14397634"/>
+        <c:crossAx val="60503938"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3728,7 +3728,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3812,11 +3812,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="96664211"/>
-        <c:axId val="9771586"/>
+        <c:axId val="44955864"/>
+        <c:axId val="24963501"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96664211"/>
+        <c:axId val="44955864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3832,14 +3832,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9771586"/>
+        <c:crossAx val="24963501"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9771586"/>
+        <c:axId val="24963501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,7 +3864,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="96664211"/>
+        <c:crossAx val="44955864"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3899,7 +3899,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4150,11 +4150,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="27991747"/>
-        <c:axId val="18838874"/>
+        <c:axId val="26035889"/>
+        <c:axId val="95607143"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27991747"/>
+        <c:axId val="26035889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,14 +4171,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18838874"/>
+        <c:crossAx val="95607143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18838874"/>
+        <c:axId val="95607143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4202,7 +4202,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27991747"/>
+        <c:crossAx val="26035889"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4238,7 +4238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4358,11 +4358,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="92361597"/>
-        <c:axId val="3893469"/>
+        <c:axId val="62333310"/>
+        <c:axId val="27820112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92361597"/>
+        <c:axId val="62333310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,14 +4379,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="3893469"/>
+        <c:crossAx val="27820112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3893469"/>
+        <c:axId val="27820112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4412,7 +4412,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92361597"/>
+        <c:crossAx val="62333310"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4438,7 +4438,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4720,11 +4720,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="70839024"/>
-        <c:axId val="37534261"/>
+        <c:axId val="97278312"/>
+        <c:axId val="99312559"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70839024"/>
+        <c:axId val="97278312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,14 +4741,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37534261"/>
+        <c:crossAx val="99312559"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37534261"/>
+        <c:axId val="99312559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4772,7 +4772,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70839024"/>
+        <c:crossAx val="97278312"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4798,7 +4798,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4858,11 +4858,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="79965542"/>
-        <c:axId val="11569208"/>
+        <c:axId val="30937790"/>
+        <c:axId val="83258305"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79965542"/>
+        <c:axId val="30937790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,14 +4879,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="11569208"/>
+        <c:crossAx val="83258305"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11569208"/>
+        <c:axId val="83258305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4910,7 +4910,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79965542"/>
+        <c:crossAx val="30937790"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4936,7 +4936,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5042,11 +5042,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="89118039"/>
-        <c:axId val="50983280"/>
+        <c:axId val="99452712"/>
+        <c:axId val="32144828"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89118039"/>
+        <c:axId val="99452712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,14 +5063,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50983280"/>
+        <c:crossAx val="32144828"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50983280"/>
+        <c:axId val="32144828"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5095,7 +5095,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89118039"/>
+        <c:crossAx val="99452712"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5121,7 +5121,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart90.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5192,11 +5192,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="80580657"/>
-        <c:axId val="94971326"/>
+        <c:axId val="55728048"/>
+        <c:axId val="79659580"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80580657"/>
+        <c:axId val="55728048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,14 +5212,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94971326"/>
+        <c:crossAx val="79659580"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94971326"/>
+        <c:axId val="79659580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,7 +5244,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80580657"/>
+        <c:crossAx val="55728048"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6336,8 +6336,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6543,8 +6543,8 @@
   </sheetPr>
   <dimension ref="B1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
@@ -417,7 +417,7 @@
     <numFmt numFmtId="168" formatCode="0%"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -439,11 +439,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -572,11 +567,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,7 +632,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -665,27 +660,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="5" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -713,23 +708,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -737,11 +732,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -761,7 +752,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,30 +828,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Esfuerzo Area de Ventas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -889,6 +860,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1008,6 +980,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1106,11 +1079,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="83608227"/>
-        <c:axId val="70359509"/>
+        <c:axId val="14842996"/>
+        <c:axId val="84684313"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83608227"/>
+        <c:axId val="14842996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,14 +1099,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70359509"/>
+        <c:crossAx val="84684313"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70359509"/>
+        <c:axId val="84684313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1131,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83608227"/>
+        <c:crossAx val="14842996"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1193,30 +1166,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Tickets de Soporte</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1245,6 +1198,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1364,6 +1318,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1462,11 +1417,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="63813599"/>
-        <c:axId val="22954217"/>
+        <c:axId val="48969380"/>
+        <c:axId val="19813901"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63813599"/>
+        <c:axId val="48969380"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,14 +1437,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22954217"/>
+        <c:crossAx val="19813901"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22954217"/>
+        <c:axId val="19813901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1469,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63813599"/>
+        <c:crossAx val="48969380"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1549,30 +1504,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Desviación Ventas Esfuerzo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1601,6 +1536,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1699,11 +1635,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="73814135"/>
-        <c:axId val="99773105"/>
+        <c:axId val="11538477"/>
+        <c:axId val="37343347"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73814135"/>
+        <c:axId val="11538477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,14 +1655,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99773105"/>
+        <c:crossAx val="37343347"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99773105"/>
+        <c:axId val="37343347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +1687,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73814135"/>
+        <c:crossAx val="11538477"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1786,30 +1722,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Desviacion Esfuerzo Soporte</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1838,6 +1754,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1936,11 +1853,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31027127"/>
-        <c:axId val="31609572"/>
+        <c:axId val="19902931"/>
+        <c:axId val="81934332"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31027127"/>
+        <c:axId val="19902931"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,14 +1873,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31609572"/>
+        <c:crossAx val="81934332"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31609572"/>
+        <c:axId val="81934332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1905,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31027127"/>
+        <c:crossAx val="19902931"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2023,7 +1940,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2274,11 +2191,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="31235635"/>
-        <c:axId val="90843795"/>
+        <c:axId val="9941800"/>
+        <c:axId val="46519358"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31235635"/>
+        <c:axId val="9941800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,14 +2212,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90843795"/>
+        <c:crossAx val="46519358"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90843795"/>
+        <c:axId val="46519358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,7 +2243,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31235635"/>
+        <c:crossAx val="9941800"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2362,7 +2279,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2482,11 +2399,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1037796"/>
-        <c:axId val="64969534"/>
+        <c:axId val="66204131"/>
+        <c:axId val="76880299"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1037796"/>
+        <c:axId val="66204131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,14 +2420,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64969534"/>
+        <c:crossAx val="76880299"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64969534"/>
+        <c:axId val="76880299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +2451,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1037796"/>
+        <c:crossAx val="66204131"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2560,7 +2477,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2592,6 +2509,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2642,11 +2560,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="90178700"/>
-        <c:axId val="29711994"/>
+        <c:axId val="7249732"/>
+        <c:axId val="81691523"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90178700"/>
+        <c:axId val="7249732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,14 +2580,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29711994"/>
+        <c:crossAx val="81691523"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29711994"/>
+        <c:axId val="81691523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2612,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90178700"/>
+        <c:crossAx val="7249732"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2729,7 +2647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2750,6 +2668,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2800,11 +2719,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55247589"/>
-        <c:axId val="49895277"/>
+        <c:axId val="87995092"/>
+        <c:axId val="655471"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55247589"/>
+        <c:axId val="87995092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,14 +2739,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49895277"/>
+        <c:crossAx val="655471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49895277"/>
+        <c:axId val="655471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2771,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55247589"/>
+        <c:crossAx val="87995092"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2887,7 +2806,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2919,6 +2838,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2969,11 +2889,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43725350"/>
-        <c:axId val="64449001"/>
+        <c:axId val="48942865"/>
+        <c:axId val="12785676"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43725350"/>
+        <c:axId val="48942865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,14 +2909,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64449001"/>
+        <c:crossAx val="12785676"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64449001"/>
+        <c:axId val="12785676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +2941,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43725350"/>
+        <c:crossAx val="48942865"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3056,7 +2976,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3088,6 +3008,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3150,11 +3071,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82608297"/>
-        <c:axId val="1170742"/>
+        <c:axId val="3955231"/>
+        <c:axId val="64416272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82608297"/>
+        <c:axId val="3955231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,14 +3091,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1170742"/>
+        <c:crossAx val="64416272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1170742"/>
+        <c:axId val="64416272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,7 +3123,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82608297"/>
+        <c:crossAx val="3955231"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3237,7 +3158,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3251,11 +3172,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Física!$E$4</c:f>
+              <c:f>Física!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Física Organizacional</c:v>
+                  <c:v>Elementos de configuración física</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3269,6 +3190,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3277,35 +3199,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Física!$E$6:$G$6</c:f>
+              <c:f>Física!$D$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Control de cambios organizacional</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Línea base</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Elementos de Configuración</c:v>
+                  <c:v>Elementos de configuración física</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Física!$E$19:$G$19</c:f>
+              <c:f>Física!$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3313,11 +3223,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="60792959"/>
-        <c:axId val="46405184"/>
+        <c:axId val="25455086"/>
+        <c:axId val="47058426"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60792959"/>
+        <c:axId val="25455086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,14 +3243,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46405184"/>
+        <c:crossAx val="47058426"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46405184"/>
+        <c:axId val="47058426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3365,7 +3275,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="60792959"/>
+        <c:crossAx val="25455086"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3400,7 +3310,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3414,11 +3324,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Física!$D$6</c:f>
+              <c:f>Física!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elementos de configuración física</c:v>
+                  <c:v>Física Organizacional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3432,6 +3342,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3440,23 +3351,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Física!$D$6</c:f>
+              <c:f>Física!$E$6:$G$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Elementos de configuración física</c:v>
+                  <c:v>Control de cambios organizacional</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Elementos de Configuración</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Física!$D$19</c:f>
+              <c:f>Física!$E$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3464,11 +3387,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="85944030"/>
-        <c:axId val="67095593"/>
+        <c:axId val="65356830"/>
+        <c:axId val="8673770"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85944030"/>
+        <c:axId val="65356830"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,14 +3407,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67095593"/>
+        <c:crossAx val="8673770"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67095593"/>
+        <c:axId val="8673770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,7 +3439,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85944030"/>
+        <c:crossAx val="65356830"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3551,30 +3474,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Auditorías Funcionales ORganizacionales</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3603,6 +3506,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3641,11 +3545,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="60503938"/>
-        <c:axId val="63134880"/>
+        <c:axId val="28340593"/>
+        <c:axId val="30644620"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60503938"/>
+        <c:axId val="28340593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,14 +3565,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63134880"/>
+        <c:crossAx val="30644620"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63134880"/>
+        <c:axId val="30644620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3693,7 +3597,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="60503938"/>
+        <c:crossAx val="28340593"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3728,30 +3632,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Auditorías Internas Funcionales</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3780,6 +3664,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3812,11 +3697,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="44955864"/>
-        <c:axId val="24963501"/>
+        <c:axId val="84332083"/>
+        <c:axId val="80661887"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44955864"/>
+        <c:axId val="84332083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3832,14 +3717,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24963501"/>
+        <c:crossAx val="80661887"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24963501"/>
+        <c:axId val="80661887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,7 +3749,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44955864"/>
+        <c:crossAx val="84332083"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3899,7 +3784,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4150,11 +4035,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="26035889"/>
-        <c:axId val="95607143"/>
+        <c:axId val="16437967"/>
+        <c:axId val="59370877"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26035889"/>
+        <c:axId val="16437967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,14 +4056,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95607143"/>
+        <c:crossAx val="59370877"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95607143"/>
+        <c:axId val="59370877"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4202,7 +4087,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26035889"/>
+        <c:crossAx val="16437967"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4238,7 +4123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4358,11 +4243,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="62333310"/>
-        <c:axId val="27820112"/>
+        <c:axId val="58352921"/>
+        <c:axId val="39262146"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62333310"/>
+        <c:axId val="58352921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,14 +4264,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27820112"/>
+        <c:crossAx val="39262146"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27820112"/>
+        <c:axId val="39262146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4412,7 +4297,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62333310"/>
+        <c:crossAx val="58352921"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4438,7 +4323,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4720,11 +4605,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="97278312"/>
-        <c:axId val="99312559"/>
+        <c:axId val="51554189"/>
+        <c:axId val="58979678"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97278312"/>
+        <c:axId val="51554189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,14 +4626,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99312559"/>
+        <c:crossAx val="58979678"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99312559"/>
+        <c:axId val="58979678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4772,7 +4657,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97278312"/>
+        <c:crossAx val="51554189"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4798,7 +4683,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4858,11 +4743,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="30937790"/>
-        <c:axId val="83258305"/>
+        <c:axId val="79584710"/>
+        <c:axId val="66814309"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30937790"/>
+        <c:axId val="79584710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,14 +4764,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83258305"/>
+        <c:crossAx val="66814309"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83258305"/>
+        <c:axId val="66814309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4910,7 +4795,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30937790"/>
+        <c:crossAx val="79584710"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4936,7 +4821,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5040,13 +4925,33 @@
             </a:ln>
           </c:spPr>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="99452712"/>
-        <c:axId val="32144828"/>
+        <c:axId val="69579817"/>
+        <c:axId val="43805942"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99452712"/>
+        <c:axId val="69579817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,14 +4968,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32144828"/>
+        <c:crossAx val="43805942"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32144828"/>
+        <c:axId val="43805942"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5095,7 +5000,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99452712"/>
+        <c:crossAx val="69579817"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5121,7 +5026,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5142,6 +5047,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5192,11 +5098,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55728048"/>
-        <c:axId val="79659580"/>
+        <c:axId val="33338162"/>
+        <c:axId val="44989774"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55728048"/>
+        <c:axId val="33338162"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,14 +5118,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79659580"/>
+        <c:crossAx val="44989774"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79659580"/>
+        <c:axId val="44989774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,7 +5150,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55728048"/>
+        <c:crossAx val="33338162"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5284,15 +5190,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>97920</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5300,8 +5206,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="273600" y="3462120"/>
-        <a:ext cx="5755680" cy="3243240"/>
+        <a:off x="327600" y="3444120"/>
+        <a:ext cx="5754960" cy="3242520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5314,15 +5220,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>819720</xdr:colOff>
+      <xdr:colOff>873720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
+      <xdr:colOff>569160</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5330,8 +5236,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8414640" y="3363840"/>
-        <a:ext cx="5766840" cy="3242880"/>
+        <a:off x="8468640" y="3345840"/>
+        <a:ext cx="5766120" cy="3242160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5344,15 +5250,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5360,8 +5266,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="234000" y="7026480"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="288000" y="7008480"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5374,15 +5280,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>202320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5390,8 +5296,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8988120" y="0"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="9042120" y="0"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5409,15 +5315,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>367920</xdr:colOff>
+      <xdr:colOff>421920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5425,8 +5331,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6400080" y="974880"/>
-        <a:ext cx="6299640" cy="2756520"/>
+        <a:off x="6454080" y="956880"/>
+        <a:ext cx="6298920" cy="2755800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5439,15 +5345,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>230400</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5455,8 +5361,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="230400" y="974880"/>
-        <a:ext cx="6062040" cy="2741760"/>
+        <a:off x="284400" y="956880"/>
+        <a:ext cx="6061320" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5474,15 +5380,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>172080</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5490,8 +5396,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7920720" y="794880"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="7974720" y="776880"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5509,15 +5415,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>236520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>720360</xdr:colOff>
+      <xdr:colOff>773640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5525,8 +5431,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="385560" y="3635640"/>
-        <a:ext cx="6583680" cy="3687120"/>
+        <a:off x="439560" y="3617640"/>
+        <a:ext cx="6582960" cy="3686400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5539,15 +5445,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>379440</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1005480</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>220680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5555,8 +5461,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7476120" y="3715200"/>
-        <a:ext cx="7304400" cy="3766680"/>
+        <a:off x="7530120" y="3697200"/>
+        <a:ext cx="7303680" cy="3765960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5574,15 +5480,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>406080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1565280</xdr:colOff>
+      <xdr:colOff>1618560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5590,8 +5496,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8645040" y="674280"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="8699040" y="656280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5604,15 +5510,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>549360</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>603360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1762560</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>1815840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5620,8 +5526,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8842320" y="4458600"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="8896320" y="4440600"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5639,15 +5545,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>339120</xdr:colOff>
+      <xdr:colOff>393120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>587160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>640440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5655,8 +5561,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8810640" y="457920"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="8864640" y="439920"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5668,16 +5574,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>213480</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371160</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>829800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1607400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5685,8 +5591,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11110680" y="4661280"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1069560" y="7979760"/>
+        <a:ext cx="7282080" cy="4060080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5703,16 +5609,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>339120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1125360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>955440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5720,8 +5626,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9484920" y="3079800"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1823760" y="4208400"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5733,16 +5639,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1071360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>669600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5750,8 +5656,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1769760" y="4226400"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="9209160" y="3632400"/>
+        <a:ext cx="6474240" cy="3577680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5769,15 +5675,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>787320</xdr:colOff>
+      <xdr:colOff>841320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>59760</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>225360</xdr:rowOff>
+      <xdr:rowOff>206640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5785,8 +5691,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7836120" y="735840"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="7890120" y="717840"/>
+        <a:ext cx="5758920" cy="3254040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5799,15 +5705,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1315440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:colOff>1369440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>724680</xdr:colOff>
+      <xdr:colOff>777960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5815,8 +5721,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2013840" y="3398040"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="2067840" y="3380040"/>
+        <a:ext cx="5758920" cy="3254040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5834,15 +5740,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>606240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5850,8 +5756,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4909320" y="3211920"/>
-        <a:ext cx="6216480" cy="2741400"/>
+        <a:off x="4963320" y="3193920"/>
+        <a:ext cx="6215760" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5869,15 +5775,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>354240</xdr:colOff>
+      <xdr:colOff>408240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>295200</xdr:colOff>
+      <xdr:colOff>348480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5885,8 +5791,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3859200" y="712080"/>
-        <a:ext cx="6113160" cy="2741760"/>
+        <a:off x="3913200" y="694080"/>
+        <a:ext cx="6112440" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5904,15 +5810,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:colOff>374040</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5920,8 +5826,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="54000" y="16776360"/>
-        <a:ext cx="14945760" cy="5814000"/>
+        <a:off x="108000" y="16758360"/>
+        <a:ext cx="14945040" cy="5813280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5941,7 +5847,7 @@
   </sheetPr>
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -6295,18 +6201,18 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="n">
+      <c r="A3" s="40" t="n">
         <f aca="false">B3/SUM(B3:C3)</f>
         <v>0.263157894736842</v>
       </c>
@@ -6322,8 +6228,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6511,7 +6417,7 @@
         <f aca="false">AVERAGE(C4:C15)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="46" t="n">
+      <c r="D16" s="45" t="n">
         <f aca="false">AVERAGE(D4:D15)</f>
         <v>1</v>
       </c>
@@ -6529,8 +6435,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6543,7 +6449,7 @@
   </sheetPr>
   <dimension ref="B1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -6989,7 +6895,7 @@
   </sheetPr>
   <dimension ref="C1:G38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -7408,8 +7314,8 @@
   </sheetPr>
   <dimension ref="C1:I39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L44" activeCellId="0" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7878,8 +7784,8 @@
   </sheetPr>
   <dimension ref="C1:G19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8828,7 +8734,7 @@
       <c r="B22" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="40" t="n">
+      <c r="C22" s="39" t="n">
         <f aca="false">((C21 * 100)/C20)-100</f>
         <v>-87.1595893939394</v>
       </c>
@@ -8898,7 +8804,7 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="41" t="n">
+      <c r="D5" s="40" t="n">
         <v>0.988</v>
       </c>
     </row>
@@ -8906,7 +8812,7 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="41" t="n">
+      <c r="D6" s="40" t="n">
         <v>0.9257</v>
       </c>
     </row>
@@ -8977,7 +8883,7 @@
       <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="41" t="n">
+      <c r="D17" s="40" t="n">
         <f aca="false">AVERAGE(D5:D16)</f>
         <v>0.961233333333333</v>
       </c>
@@ -9022,7 +8928,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="39" t="s">
@@ -9066,17 +8972,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="43" t="n">
+      <c r="B2" s="42" t="n">
         <f aca="false">SUM(C2:N2)</f>
         <v>31</v>
       </c>
-      <c r="C2" s="44" t="n">
+      <c r="C2" s="43" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="44" t="n">
+      <c r="D2" s="43" t="n">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="n">
@@ -9093,17 +8999,17 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="43" t="n">
+      <c r="B3" s="42" t="n">
         <f aca="false">SUM(C3:N3)</f>
         <v>28</v>
       </c>
-      <c r="C3" s="44" t="n">
+      <c r="C3" s="43" t="n">
         <v>19</v>
       </c>
-      <c r="D3" s="44" t="n">
+      <c r="D3" s="43" t="n">
         <v>9</v>
       </c>
       <c r="E3" s="4"/>
@@ -9118,17 +9024,17 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="43" t="n">
+      <c r="B4" s="42" t="n">
         <f aca="false">SUM(C4:N4)</f>
         <v>20</v>
       </c>
-      <c r="C4" s="44" t="n">
+      <c r="C4" s="43" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="44" t="n">
+      <c r="D4" s="43" t="n">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="n">
@@ -9145,17 +9051,17 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="43" t="n">
+      <c r="B5" s="42" t="n">
         <f aca="false">SUM(C5:N5)</f>
         <v>40</v>
       </c>
-      <c r="C5" s="44" t="n">
+      <c r="C5" s="43" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="44" t="n">
+      <c r="D5" s="43" t="n">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="n">
@@ -9172,17 +9078,17 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="43" t="n">
+      <c r="B6" s="42" t="n">
         <f aca="false">SUM(C6:N6)</f>
         <v>64</v>
       </c>
-      <c r="C6" s="44" t="n">
+      <c r="C6" s="43" t="n">
         <v>33</v>
       </c>
-      <c r="D6" s="44" t="n">
+      <c r="D6" s="43" t="n">
         <v>21</v>
       </c>
       <c r="E6" s="4" t="n">
@@ -9199,17 +9105,17 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="43" t="n">
+      <c r="B7" s="42" t="n">
         <f aca="false">SUM(C7:N7)</f>
         <v>25</v>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="44" t="n">
+      <c r="D7" s="43" t="n">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="n">
@@ -9226,17 +9132,17 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="43" t="n">
+      <c r="B8" s="42" t="n">
         <f aca="false">SUM(C8:N8)</f>
         <v>8</v>
       </c>
-      <c r="C8" s="44" t="n">
+      <c r="C8" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="44" t="n">
+      <c r="D8" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="n">
@@ -9253,17 +9159,17 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="43" t="n">
+      <c r="B9" s="42" t="n">
         <f aca="false">SUM(C9:N9)</f>
         <v>2</v>
       </c>
-      <c r="C9" s="44" t="n">
+      <c r="C9" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -9276,17 +9182,17 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="43" t="n">
+      <c r="B10" s="42" t="n">
         <f aca="false">SUM(C10:N10)</f>
         <v>3</v>
       </c>
-      <c r="C10" s="44" t="n">
+      <c r="C10" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
@@ -9301,17 +9207,17 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="43" t="n">
+      <c r="B11" s="42" t="n">
         <f aca="false">SUM(C11:N11)</f>
         <v>4</v>
       </c>
-      <c r="C11" s="44" t="n">
+      <c r="C11" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="44" t="n">
+      <c r="D11" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
@@ -9326,17 +9232,17 @@
       <c r="N11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="43" t="n">
+      <c r="B12" s="42" t="n">
         <f aca="false">SUM(C12:N12)</f>
         <v>4</v>
       </c>
-      <c r="C12" s="44" t="n">
+      <c r="C12" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="44" t="n">
+      <c r="D12" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="n">
@@ -9353,15 +9259,15 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="43" t="n">
+      <c r="B13" s="42" t="n">
         <f aca="false">SUM(C13:N13)</f>
         <v>1</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44" t="n">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
@@ -9376,17 +9282,17 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="43" t="n">
+      <c r="B14" s="42" t="n">
         <f aca="false">SUM(C14:N14)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="44" t="n">
+      <c r="C14" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="44" t="n">
+      <c r="D14" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="n">
@@ -9403,17 +9309,17 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="43" t="n">
+      <c r="B15" s="42" t="n">
         <f aca="false">SUM(C15:N15)</f>
         <v>8</v>
       </c>
-      <c r="C15" s="44" t="n">
+      <c r="C15" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="44" t="n">
+      <c r="D15" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="n">
@@ -9430,15 +9336,15 @@
       <c r="N15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="43" t="n">
+      <c r="B16" s="42" t="n">
         <f aca="false">SUM(C16:N16)</f>
         <v>3</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44" t="n">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="n">
@@ -9455,15 +9361,15 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="43" t="n">
+      <c r="B17" s="42" t="n">
         <f aca="false">SUM(C17:N17)</f>
         <v>1</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44" t="n">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="4"/>
@@ -9478,17 +9384,17 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="43" t="n">
+      <c r="B18" s="42" t="n">
         <f aca="false">SUM(C18:N18)</f>
         <v>3</v>
       </c>
-      <c r="C18" s="44" t="n">
+      <c r="C18" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="44" t="n">
+      <c r="D18" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4"/>
@@ -9503,17 +9409,17 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="43" t="n">
+      <c r="B19" s="42" t="n">
         <f aca="false">SUM(C19:N19)</f>
         <v>7</v>
       </c>
-      <c r="C19" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="44" t="n">
+      <c r="C19" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="43" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="4" t="n">
@@ -9530,17 +9436,17 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="43" t="n">
+      <c r="B20" s="42" t="n">
         <f aca="false">SUM(C20:N20)</f>
         <v>11</v>
       </c>
-      <c r="C20" s="44" t="n">
+      <c r="C20" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="D20" s="44" t="n">
+      <c r="D20" s="43" t="n">
         <v>4</v>
       </c>
       <c r="E20" s="4"/>
@@ -9555,17 +9461,17 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="43" t="n">
+      <c r="B21" s="42" t="n">
         <f aca="false">SUM(C21:N21)</f>
         <v>3</v>
       </c>
-      <c r="C21" s="44" t="n">
+      <c r="C21" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -9578,15 +9484,15 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="43" t="n">
+      <c r="B22" s="42" t="n">
         <f aca="false">SUM(C22:N22)</f>
         <v>1</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44" t="n">
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="4"/>
@@ -9601,15 +9507,15 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="43" t="n">
+      <c r="B23" s="42" t="n">
         <f aca="false">SUM(C23:N23)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -9622,17 +9528,17 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="43" t="n">
+      <c r="B24" s="42" t="n">
         <f aca="false">SUM(C24:N24)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="44" t="n">
+      <c r="C24" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -9645,17 +9551,17 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="43" t="n">
+      <c r="B25" s="42" t="n">
         <f aca="false">SUM(C25:N25)</f>
         <v>2</v>
       </c>
-      <c r="C25" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="44" t="n">
+      <c r="C25" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="4"/>
@@ -9670,17 +9576,17 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="43" t="n">
+      <c r="B26" s="42" t="n">
         <f aca="false">SUM(C26:N26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="44"/>
+      <c r="C26" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="43"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -9693,15 +9599,15 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="43" t="n">
+      <c r="B27" s="42" t="n">
         <f aca="false">SUM(C27:N27)</f>
         <v>1</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44" t="n">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
@@ -9716,17 +9622,17 @@
       <c r="N27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="42" t="n">
         <f aca="false">SUM(C28:N28)</f>
         <v>4</v>
       </c>
-      <c r="C28" s="44" t="n">
+      <c r="C28" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -9739,17 +9645,17 @@
       <c r="N28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="42" t="n">
         <f aca="false">SUM(C29:N29)</f>
         <v>3</v>
       </c>
-      <c r="C29" s="44" t="n">
+      <c r="C29" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -9762,15 +9668,15 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="42" t="n">
         <f aca="false">SUM(C30:N30)</f>
         <v>2</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="4" t="n">
         <v>2</v>
       </c>
@@ -9785,17 +9691,17 @@
       <c r="N30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="42" t="n">
         <f aca="false">SUM(C31:N31)</f>
         <v>7</v>
       </c>
-      <c r="C31" s="44" t="n">
+      <c r="C31" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="44" t="n">
+      <c r="D31" s="43" t="n">
         <v>3</v>
       </c>
       <c r="E31" s="4" t="n">
@@ -9812,15 +9718,15 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="42" t="n">
         <f aca="false">SUM(C32:N32)</f>
         <v>3</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="4" t="n">
         <v>3</v>
       </c>
@@ -9835,17 +9741,17 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="43" t="n">
+      <c r="B33" s="42" t="n">
         <f aca="false">SUM(C33:N33)</f>
         <v>4</v>
       </c>
-      <c r="C33" s="44" t="n">
+      <c r="C33" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D33" s="44" t="n">
+      <c r="D33" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E33" s="4"/>
@@ -9860,17 +9766,17 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="43" t="n">
+      <c r="B34" s="42" t="n">
         <f aca="false">SUM(C34:N34)</f>
         <v>1</v>
       </c>
-      <c r="C34" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="44"/>
+      <c r="C34" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="43"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -9883,15 +9789,15 @@
       <c r="N34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="43" t="n">
+      <c r="B35" s="42" t="n">
         <f aca="false">SUM(C35:N35)</f>
         <v>5</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44" t="n">
+      <c r="C35" s="43"/>
+      <c r="D35" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="4" t="n">
@@ -9908,15 +9814,15 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="43" t="n">
+      <c r="B36" s="42" t="n">
         <f aca="false">SUM(C36:N36)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -9929,15 +9835,15 @@
       <c r="N36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="43" t="n">
+      <c r="B37" s="42" t="n">
         <f aca="false">SUM(C37:N37)</f>
         <v>2</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44" t="n">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="n">
@@ -9954,15 +9860,15 @@
       <c r="N37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="43" t="n">
+      <c r="B38" s="42" t="n">
         <f aca="false">SUM(C38:N38)</f>
         <v>1</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44" t="n">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="4"/>
@@ -9977,17 +9883,17 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="43" t="n">
+      <c r="B39" s="42" t="n">
         <f aca="false">SUM(C39:N39)</f>
         <v>1</v>
       </c>
-      <c r="C39" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="44"/>
+      <c r="C39" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="43"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -10000,15 +9906,15 @@
       <c r="N39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="43" t="n">
+      <c r="B40" s="42" t="n">
         <f aca="false">SUM(C40:N40)</f>
         <v>1</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44" t="n">
+      <c r="C40" s="43"/>
+      <c r="D40" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="4"/>
@@ -10023,7 +9929,7 @@
       <c r="N40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
       <c r="E41" s="0" t="n">
@@ -10035,8 +9941,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -151,25 +151,10 @@
     <t>Solicitud de compra</t>
   </si>
   <si>
-    <t>Carta de aceptación</t>
-  </si>
-  <si>
-    <t>Tickets de servicio</t>
-  </si>
-  <si>
     <t>Productos Organizacionales</t>
   </si>
   <si>
-    <t>Catalogo de servicios</t>
-  </si>
-  <si>
     <t>Plan de calidad</t>
-  </si>
-  <si>
-    <t>Plan de Métricas</t>
-  </si>
-  <si>
-    <t>Plan de Configuración</t>
   </si>
   <si>
     <t>Plan de proyecto</t>
@@ -415,6 +400,24 @@
   </si>
   <si>
     <t>Contpaq i® Contabilidad U. Base Producto Nuevo Renta</t>
+  </si>
+  <si>
+    <t>Carta de agradecimiento</t>
+  </si>
+  <si>
+    <t>Plan de
+Métricas</t>
+  </si>
+  <si>
+    <t>Plan de
+Configuración</t>
+  </si>
+  <si>
+    <t>Catálogo de servicios</t>
+  </si>
+  <si>
+    <t>Tickets de
+servicio</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-80A]#,##0.00;[Red]\-[$$-80A]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -560,21 +563,6 @@
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,15 +649,15 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,6 +668,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,11 +1092,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287218048"/>
-        <c:axId val="287219616"/>
+        <c:axId val="290343456"/>
+        <c:axId val="290345808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287218048"/>
+        <c:axId val="290343456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1114,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287219616"/>
+        <c:crossAx val="290345808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,7 +1122,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287219616"/>
+        <c:axId val="290345808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1147,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287218048"/>
+        <c:crossAx val="290343456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,11 +1298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="287657264"/>
-        <c:axId val="287659224"/>
+        <c:axId val="292130768"/>
+        <c:axId val="292135080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287657264"/>
+        <c:axId val="292130768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1319,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287659224"/>
+        <c:crossAx val="292135080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1327,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287659224"/>
+        <c:axId val="292135080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1353,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287657264"/>
+        <c:crossAx val="292130768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1465,10 +1468,11 @@
                   <c:v>Solicitud de compra</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carta de aceptación</c:v>
+                  <c:v>Carta de agradecimiento</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tickets de servicio</c:v>
+                  <c:v>Tickets de
+servicio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1518,11 +1522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="287216480"/>
-        <c:axId val="287218832"/>
+        <c:axId val="292136256"/>
+        <c:axId val="292137040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287216480"/>
+        <c:axId val="292136256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1543,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287218832"/>
+        <c:crossAx val="292137040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1551,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287218832"/>
+        <c:axId val="292137040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1577,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287216480"/>
+        <c:crossAx val="292136256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,16 +1686,18 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Catalogo de servicios</c:v>
+                  <c:v>Catálogo de servicios</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Plan de calidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Plan de Métricas</c:v>
+                  <c:v>Plan de
+Métricas</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Plan de Configuración</c:v>
+                  <c:v>Plan de
+Configuración</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Plan de proyecto</c:v>
@@ -1753,11 +1759,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="287219224"/>
-        <c:axId val="287213344"/>
+        <c:axId val="292293216"/>
+        <c:axId val="292294392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287219224"/>
+        <c:axId val="292293216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1780,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287213344"/>
+        <c:crossAx val="292294392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1782,7 +1788,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287213344"/>
+        <c:axId val="292294392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1814,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287219224"/>
+        <c:crossAx val="292293216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1976,11 +1982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="287215696"/>
-        <c:axId val="287220792"/>
+        <c:axId val="292293608"/>
+        <c:axId val="292295960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287215696"/>
+        <c:axId val="292293608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2003,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287220792"/>
+        <c:crossAx val="292295960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2011,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287220792"/>
+        <c:axId val="292295960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2037,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287215696"/>
+        <c:crossAx val="292293608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,11 +2194,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="287214520"/>
-        <c:axId val="287215304"/>
+        <c:axId val="292296352"/>
+        <c:axId val="292295176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287214520"/>
+        <c:axId val="292296352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2215,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287215304"/>
+        <c:crossAx val="292295176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2217,7 +2223,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287215304"/>
+        <c:axId val="292295176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2249,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287214520"/>
+        <c:crossAx val="292296352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2577,11 +2583,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287659616"/>
-        <c:axId val="287662360"/>
+        <c:axId val="292297136"/>
+        <c:axId val="292291256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287659616"/>
+        <c:axId val="292297136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2605,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287662360"/>
+        <c:crossAx val="292291256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2607,7 +2613,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287662360"/>
+        <c:axId val="292291256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2638,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287659616"/>
+        <c:crossAx val="292297136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2812,11 +2818,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287658048"/>
-        <c:axId val="287661184"/>
+        <c:axId val="292297528"/>
+        <c:axId val="292292040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287658048"/>
+        <c:axId val="292297528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2840,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287661184"/>
+        <c:crossAx val="292292040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2842,7 +2848,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287661184"/>
+        <c:axId val="292292040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2869,7 +2875,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287658048"/>
+        <c:crossAx val="292297528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2955,27 +2961,123 @@
             <c:strRef>
               <c:f>Producto!$A$2:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Contpaq i® Nominas U. Base Renovación Renta</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Contpaq i® Factura Electrónica U. Base Monoempresa Renovación Renta</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Contpaq i® Factura Electrónica U. Base Multiempresa Renovación Renta</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Paquete de 2 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota (Incluye 2 horas gratis por ser cliente distinguido)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Servicio de Asesoría y Soporte Técnico Vía Remota</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Contpaq i® CFDI en linea+ Producto Nuevo Monoempresa Renta</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Contpaq i® Contabilidad U. Base Actualización Especial Tradicional</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>Contpaq i® Comercial U. Base Renovación Renta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Contpaq i® Contabilidad U. Base Actualización Normal Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Contpaq i® Nominas U. Base Actualización Especial Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Paquete de 5 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Contpaq i® Comercial U. Base Producto Nuevo Renta</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Contpaq i® Contabilidad U. Adicional Producto Nuevo Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Contpaq i® Nominas U. Adicional Renovación Renta</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Contpaq i® Contabilidad U. Base Producto Nuevo Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Paquete de 10 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Contpaq i® Bancos U. Base Actualización Especial Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Servicio Presencial</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Contpaq i® Contabilidad U. Adicional Actualización Especial Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Contpaq i® Comercial U. Adicional Renovación Renta</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Contpaq i® Bancos U. Base Producto Nuevo Renta</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Contpaq i® Nominas U. Base Producto Nuevo Renta</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Contpaq i® Nominas U. Adicional Actualización Especial Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Contpaq i® Factura Electrónica U. Base Multiempresa Producto Nuevo Renta</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Contpaq i® Factura Electrónica U. Base Actualización Especial Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Contpaq i® Comercial U. Adicional Producto Nuevo Renta</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Paquete de 500 timbres Contpaq i®</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Contpaq i® Factura Electrónica U. Adicional Multiempresa Renovación Renta</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Contpaq i® Contabilidad U. Adicional Producto Nuevo Renta</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Servicio por hora de Desarrollo Personalizado de JoinData</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Contpaq i® XML Línea + Multiempresa, Multiusuario Renta</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Contpaq i® Bancos U. Adicional Actualización Especial Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>XP/VS Terminal Server Lite Conexión a 1 servidor</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Contpaq i® CFDI Nóminas+ Producto Nuevo Monoempresa Renta</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Contpaq i® Nominas U. Adicional Producto Nuevo Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Contpaq i® Factura Electrónica U. Adicional Monoempresa Renovación Renta</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Servicio de Implementación, Activación y Capacitación de CFDI Facturación en linea +</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Servicio de Asesoría y Soporte Contpaqi Contabilidad Vía Remota</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Cargo por gastos administrativos por cancelación de pedido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2985,27 +3087,123 @@
               <c:f>Producto!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,11 +3233,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287662752"/>
-        <c:axId val="287660008"/>
+        <c:axId val="292297920"/>
+        <c:axId val="292290472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287662752"/>
+        <c:axId val="292297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3057,7 +3255,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287660008"/>
+        <c:crossAx val="292290472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3065,7 +3263,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287660008"/>
+        <c:axId val="292290472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3288,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287662752"/>
+        <c:crossAx val="292297920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3226,11 +3424,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287656872"/>
-        <c:axId val="287663928"/>
+        <c:axId val="292292824"/>
+        <c:axId val="292294000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287656872"/>
+        <c:axId val="292292824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3248,7 +3446,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287663928"/>
+        <c:crossAx val="292294000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3256,7 +3454,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287663928"/>
+        <c:axId val="292294000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3479,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287656872"/>
+        <c:crossAx val="292292824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3504,11 +3702,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="293389208"/>
-        <c:axId val="293389992"/>
+        <c:axId val="293107312"/>
+        <c:axId val="293103784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="293389208"/>
+        <c:axId val="293107312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,7 +3723,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293389992"/>
+        <c:crossAx val="293103784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3533,7 +3731,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293389992"/>
+        <c:axId val="293103784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3559,7 +3757,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293389208"/>
+        <c:crossAx val="293107312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3755,11 +3953,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287218440"/>
-        <c:axId val="287216088"/>
+        <c:axId val="290347768"/>
+        <c:axId val="290346592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287218440"/>
+        <c:axId val="290347768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,7 +3975,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287216088"/>
+        <c:crossAx val="290346592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3785,7 +3983,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287216088"/>
+        <c:axId val="290346592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3810,7 +4008,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287218440"/>
+        <c:crossAx val="290347768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3957,11 +4155,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="293389600"/>
-        <c:axId val="293390384"/>
+        <c:axId val="293104568"/>
+        <c:axId val="293104176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="293389600"/>
+        <c:axId val="293104568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +4176,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293390384"/>
+        <c:crossAx val="293104176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3986,7 +4184,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293390384"/>
+        <c:axId val="293104176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4012,7 +4210,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293389600"/>
+        <c:crossAx val="293104568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4329,11 +4527,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="285479248"/>
-        <c:axId val="285477680"/>
+        <c:axId val="290342280"/>
+        <c:axId val="290343064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285479248"/>
+        <c:axId val="290342280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,7 +4548,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285477680"/>
+        <c:crossAx val="290343064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4358,7 +4556,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285477680"/>
+        <c:axId val="290343064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,7 +4582,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285479248"/>
+        <c:crossAx val="290342280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4701,11 +4899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="285472192"/>
-        <c:axId val="285474152"/>
+        <c:axId val="290341888"/>
+        <c:axId val="290344632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285472192"/>
+        <c:axId val="290341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,7 +4920,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285474152"/>
+        <c:crossAx val="290344632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4730,7 +4928,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285474152"/>
+        <c:axId val="290344632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4756,7 +4954,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285472192"/>
+        <c:crossAx val="290341888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4972,11 +5170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="285475720"/>
-        <c:axId val="285473760"/>
+        <c:axId val="290345416"/>
+        <c:axId val="292136648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285475720"/>
+        <c:axId val="290345416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4993,7 +5191,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285473760"/>
+        <c:crossAx val="292136648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5001,7 +5199,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285473760"/>
+        <c:axId val="292136648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5027,7 +5225,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285475720"/>
+        <c:crossAx val="290345416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5243,11 +5441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="285475328"/>
-        <c:axId val="285477288"/>
+        <c:axId val="292131552"/>
+        <c:axId val="292132336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285475328"/>
+        <c:axId val="292131552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5264,7 +5462,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285477288"/>
+        <c:crossAx val="292132336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5272,7 +5470,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285477288"/>
+        <c:axId val="292132336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5298,7 +5496,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285475328"/>
+        <c:crossAx val="292131552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5448,11 +5646,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="287220400"/>
-        <c:axId val="287217656"/>
+        <c:axId val="292134688"/>
+        <c:axId val="292132728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287220400"/>
+        <c:axId val="292134688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,7 +5667,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287217656"/>
+        <c:crossAx val="292132728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5477,7 +5675,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287217656"/>
+        <c:axId val="292132728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,7 +5701,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287220400"/>
+        <c:crossAx val="292134688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5665,11 +5863,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="285473368"/>
-        <c:axId val="287658440"/>
+        <c:axId val="292138216"/>
+        <c:axId val="292131944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285473368"/>
+        <c:axId val="292138216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5686,7 +5884,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287658440"/>
+        <c:crossAx val="292131944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5694,7 +5892,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287658440"/>
+        <c:axId val="292131944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,7 +5918,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="285473368"/>
+        <c:crossAx val="292138216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5876,11 +6074,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="287661576"/>
-        <c:axId val="287660400"/>
+        <c:axId val="292135864"/>
+        <c:axId val="292133120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287661576"/>
+        <c:axId val="292135864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5897,7 +6095,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287660400"/>
+        <c:crossAx val="292133120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5905,7 +6103,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287660400"/>
+        <c:axId val="292133120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5931,7 +6129,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="287661576"/>
+        <c:crossAx val="292135864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6405,8 +6603,8 @@
       <xdr:rowOff>59040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>640440</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170540</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
@@ -6435,8 +6633,8 @@
       <xdr:rowOff>93240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1293075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111975</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
@@ -6895,8 +7093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6917,447 +7115,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>125</v>
+      <c r="J4" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="37">
         <v>63870.879999999997</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="37">
         <v>57896.127</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="37">
         <v>77119.94</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="37">
         <v>33931.980000000003</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="38">
         <f t="shared" ref="G7:G18" si="0">SUM(C7,E7)</f>
         <v>140990.82</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <f t="shared" ref="H7:H18" si="1">SUM(D7,F7)</f>
         <v>91828.107000000004</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="11">
         <f t="shared" ref="I7:I18" si="2">(H7 /G7)-1</f>
         <v>-0.34869442563707342</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="39">
         <v>88924.64</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="40">
         <f>SUM(J7,H7)</f>
         <v>180752.747</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="37">
         <v>63870.879999999997</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="37">
         <v>60118.7</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="37">
         <v>77119.94</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="37">
         <v>20939.25</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>140990.82</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>81057.95</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="11">
         <f t="shared" si="2"/>
         <v>-0.42508349125141631</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="39">
         <v>60762.1</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="40">
         <f>SUM(J8,H8)</f>
         <v>141820.04999999999</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="37">
         <v>77119.94</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="37">
         <v>64532.82</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="37">
         <v>77119.94</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="37">
         <v>7387</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>154239.88</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>71919.820000000007</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="11">
         <f t="shared" si="2"/>
         <v>-0.53371449718451536</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="39">
         <v>62622.27</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="40">
         <f>SUM(J9,H9)</f>
         <v>134542.09</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="37">
         <v>77119.94</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="37">
         <v>56506.11</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="37">
         <v>77119.94</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="37">
         <v>21096.97</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>154239.88</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="12">
         <f t="shared" si="1"/>
         <v>77603.08</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="11">
         <f t="shared" si="2"/>
         <v>-0.49686760648413364</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="41">
         <v>80354</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="40">
         <f t="shared" ref="K10:K18" si="3">SUM(J10,H10)</f>
         <v>157957.08000000002</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="16" t="e">
+      <c r="I11" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="45">
+      <c r="J11" s="41"/>
+      <c r="K11" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="16" t="e">
+      <c r="I12" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="45">
+      <c r="J12" s="41"/>
+      <c r="K12" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="16" t="e">
+      <c r="I13" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="45">
+      <c r="J13" s="41"/>
+      <c r="K13" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="16" t="e">
+      <c r="I14" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="45">
+      <c r="J14" s="41"/>
+      <c r="K14" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="16" t="e">
+      <c r="I15" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="45">
+      <c r="J15" s="41"/>
+      <c r="K15" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="16" t="e">
+      <c r="I16" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="45">
+      <c r="J16" s="41"/>
+      <c r="K16" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="16" t="e">
+      <c r="I17" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="45">
+      <c r="J17" s="41"/>
+      <c r="K17" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="16" t="e">
+      <c r="I18" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="45">
+      <c r="J18" s="41"/>
+      <c r="K18" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7370,7 +7568,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7381,25 +7579,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>119</v>
+      <c r="A2" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="31">
         <f>B3/SUM(B3:C3)</f>
         <v>0.48</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="3">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="3">
         <v>13</v>
       </c>
     </row>
@@ -7419,189 +7617,189 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125"/>
     <col min="3" max="3" width="18.140625"/>
-    <col min="4" max="4" width="16.140625"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>123</v>
+      <c r="C3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="16">
         <v>0.25</v>
       </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="16">
         <v>0.6</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <f>AVERAGE(B4:B15)</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="19">
         <f>AVERAGE(C4:C15)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="36">
         <f>AVERAGE(D4:D15)</f>
         <v>0.66664999999999996</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="19">
         <f>AVERAGE(E4:E15)</f>
         <v>0.72499999999999998</v>
       </c>
@@ -7625,8 +7823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7645,305 +7843,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>80</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>54</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <f t="shared" ref="E7:E18" si="0">(D7 /C7)-1</f>
         <v>-0.32499999999999996</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="4">
         <v>63</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="4">
         <v>76</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="5">
         <f t="shared" ref="H7:H18" si="1">(G7 /F7)-1</f>
         <v>0.20634920634920628</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>80</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>47</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>-0.41249999999999998</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
         <f>63 * 2</f>
         <v>126</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="4">
         <v>128</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>1.5873015873015817E-2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>80</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>41</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>-0.48750000000000004</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="4">
         <f>63 * 2</f>
         <v>126</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="4">
         <v>74</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>-0.41269841269841268</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>80</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>43</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>-0.46250000000000002</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="4">
         <v>126</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="4">
         <v>121</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <f t="shared" si="1"/>
         <v>-3.9682539682539653E-2</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="e">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="e">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="e">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="e">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="e">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10" t="e">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="e">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10" t="e">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="e">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10" t="e">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="e">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10" t="e">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="e">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10" t="e">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="e">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10" t="e">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -7966,8 +8164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7976,7 +8174,7 @@
     <col min="2" max="2" width="4.42578125"/>
     <col min="3" max="3" width="32.140625"/>
     <col min="4" max="4" width="18.5703125"/>
-    <col min="5" max="5" width="18.5703125" style="18"/>
+    <col min="5" max="5" width="18.5703125" style="13"/>
     <col min="6" max="6" width="11.5703125"/>
     <col min="7" max="7" width="14.140625"/>
     <col min="8" max="1025" width="11.5703125"/>
@@ -7992,179 +8190,179 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="3:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="48"/>
+      <c r="D6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>0.5</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="20">
         <f>AVERAGE(D7:D18)</f>
         <v>0.625</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="19">
         <f>AVERAGE(E7:E18)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="19">
         <f>AVERAGE(F7:F18)</f>
         <v>1</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="19">
         <f>AVERAGE(G7:G18)</f>
         <v>1</v>
       </c>
@@ -8185,8 +8383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A15" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8194,7 +8392,7 @@
     <col min="1" max="1" width="3.42578125"/>
     <col min="2" max="2" width="4.42578125"/>
     <col min="3" max="3" width="32.140625"/>
-    <col min="4" max="4" width="15.140625" style="18"/>
+    <col min="4" max="4" width="15.140625" style="13"/>
     <col min="5" max="5" width="11.7109375"/>
     <col min="6" max="6" width="12.42578125"/>
     <col min="7" max="7" width="11.5703125"/>
@@ -8203,161 +8401,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="D1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="3:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="F4" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="20">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>0.67</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="19">
         <f>AVERAGE(D5:D16)</f>
         <v>0.91749999999999998</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="19">
         <f>AVERAGE(E5:E16)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="19">
         <f>AVERAGE(F5:F16)</f>
         <v>1</v>
       </c>
@@ -8379,8 +8577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A38" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,12 +8586,12 @@
     <col min="1" max="1" width="3.42578125"/>
     <col min="2" max="2" width="4.42578125"/>
     <col min="3" max="3" width="32.140625"/>
-    <col min="4" max="4" width="11.7109375" style="18"/>
+    <col min="4" max="4" width="11.7109375" style="13"/>
     <col min="5" max="5" width="11.7109375"/>
-    <col min="6" max="6" width="12.42578125"/>
-    <col min="7" max="7" width="19.42578125"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125"/>
-    <col min="9" max="9" width="15.7109375"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
@@ -8401,195 +8599,195 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>41</v>
+      <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="20">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
         <v>0</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
         <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="19">
         <f>AVERAGE(D5:D16)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="19">
         <f>AVERAGE(E5:E16)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="20">
         <f>AVERAGE(F5:F16)</f>
         <v>0.75</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="19">
         <f>AVERAGE(G5:G16)</f>
         <v>0.95</v>
       </c>
@@ -8613,221 +8811,221 @@
       <c r="D23"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="48"/>
+      <c r="D26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
-      <c r="D26" s="12" t="s">
+      <c r="I26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1</v>
-      </c>
-      <c r="H27" s="20">
-        <v>1</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
         <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22">
+      <c r="D28" s="15"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22">
+      <c r="D29" s="15"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="19">
         <f t="shared" ref="D39:I39" si="0">AVERAGE(D27:D38)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="19">
         <f t="shared" si="0"/>
         <v>0.96300000000000008</v>
       </c>
@@ -8858,7 +9056,7 @@
     <col min="1" max="1" width="3.42578125"/>
     <col min="2" max="2" width="4.42578125"/>
     <col min="3" max="3" width="19.7109375"/>
-    <col min="4" max="4" width="13.42578125" style="18"/>
+    <col min="4" max="4" width="13.42578125" style="13"/>
     <col min="5" max="5" width="13.42578125"/>
     <col min="6" max="6" width="15.5703125"/>
     <col min="7" max="7" width="23.28515625"/>
@@ -8873,195 +9071,195 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="20">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
         <v>0.85709999999999997</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
         <v>0.71430000000000005</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
         <v>0.85709999999999997</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
         <v>0.85709999999999997</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <f>AVERAGE(D5:D16)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <f>AVERAGE(E5:E16)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="16">
         <f>AVERAGE(F5:F16)</f>
         <v>0.82140000000000002</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="15">
         <f>AVERAGE(G5:G16)</f>
         <v>1</v>
       </c>
@@ -9082,171 +9280,171 @@
       <c r="D22"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="20">
-        <v>1</v>
-      </c>
-      <c r="E26" s="20">
-        <v>1</v>
-      </c>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20">
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="18">
         <f>AVERAGE(D26:D37)</f>
         <v>1</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="18">
         <f>AVERAGE(E26:E37)</f>
         <v>1</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="18">
         <f>AVERAGE(F26:F37)</f>
         <v>1</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="18">
         <f>AVERAGE(G26:G37)</f>
         <v>1</v>
       </c>
@@ -9290,571 +9488,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="47"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="5"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="10">
         <f>275000/2</f>
         <v>137500</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="10">
         <v>26640.42</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="10">
         <f>275000/2</f>
         <v>137500</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="10">
         <v>18065.18</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="26">
         <f t="shared" ref="H4:H15" si="0">SUM(B4,F4,D4)</f>
         <v>275000</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="10">
         <f t="shared" ref="I4:I15" si="1">SUM(C4,G4,E4)</f>
         <v>44705.599999999999</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="27">
         <v>179572.48000000001</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="28">
         <f>((J4 * 100)/H4)-100</f>
         <v>-34.700916363636367</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="9">
         <f>J4-'Desviacion de costos'!K7</f>
         <v>-1180.2669999999925</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <v>91666.67</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>11997</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>91666.67</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>12722.43</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>91666.67</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <v>25179.75</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="26">
         <f t="shared" si="0"/>
         <v>275000.01</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <f t="shared" si="1"/>
         <v>49899.18</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="27">
         <v>134033.44</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="43">
         <f>(J5 /H5)-1</f>
         <v>-0.51260569045070215</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="9">
         <f>J5-'Desviacion de costos'!K8</f>
         <v>-7786.609999999986</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="10">
         <v>91666.67</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>28530</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>91666.67</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>31184.66</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>91666.67</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <v>46148</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="26">
         <f t="shared" si="0"/>
         <v>275000.01</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <f t="shared" si="1"/>
         <v>105862.66</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="27">
         <v>110127.63</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="44">
         <f t="shared" ref="K6:K16" si="2">((J6 * 100)/H6)-100</f>
         <v>-59.953590547142163</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="9">
         <f>J6-'Desviacion de costos'!K9</f>
         <v>-24414.459999999992</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="10">
         <v>91666.67</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>36780</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <v>91666.67</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>74144</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="10">
         <v>91666.67</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="10">
         <v>34596</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
         <v>275000.01</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
         <v>145520</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="27">
         <v>145519.6</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="42">
         <f t="shared" si="2"/>
         <v>-47.083783742407867</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="9">
         <f>J7-'Desviacion de costos'!K10</f>
         <v>-12437.48000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="31">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="34" t="e">
+      <c r="J8" s="27"/>
+      <c r="K8" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="9">
         <f>J8-'Desviacion de costos'!K11</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="31">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="34" t="e">
+      <c r="J9" s="27"/>
+      <c r="K9" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="9">
         <f>J9-'Desviacion de costos'!K12</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="31">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="34" t="e">
+      <c r="J10" s="27"/>
+      <c r="K10" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="9">
         <f>J10-'Desviacion de costos'!K13</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="31">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="34" t="e">
+      <c r="J11" s="27"/>
+      <c r="K11" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="9">
         <f>J11-'Desviacion de costos'!K14</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="31">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34" t="e">
+      <c r="J12" s="27"/>
+      <c r="K12" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="9">
         <f>J12-'Desviacion de costos'!K15</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="31">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="34" t="e">
+      <c r="J13" s="27"/>
+      <c r="K13" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="9">
         <f>J13-'Desviacion de costos'!K16</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="31">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="34" t="e">
+      <c r="J14" s="27"/>
+      <c r="K14" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="9">
         <f>J14-'Desviacion de costos'!K17</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="31">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="34" t="e">
+      <c r="J15" s="27"/>
+      <c r="K15" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="9">
         <f>J15-'Desviacion de costos'!K18</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10">
         <f t="shared" ref="B16:J16" si="3">SUM(B4:B15)</f>
         <v>275000.01</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <f t="shared" si="3"/>
         <v>77307</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="10">
         <f t="shared" si="3"/>
         <v>412500.00999999995</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="10">
         <f t="shared" si="3"/>
         <v>144691.51</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="10">
         <f t="shared" si="3"/>
         <v>412500.00999999995</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="10">
         <f t="shared" si="3"/>
         <v>123988.93</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="26">
         <f t="shared" si="3"/>
         <v>1100000.03</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="10">
         <f t="shared" si="3"/>
         <v>345987.44</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="27">
         <f t="shared" si="3"/>
         <v>569253.15</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="29">
         <f t="shared" si="2"/>
         <v>-48.249715047735044</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="9">
         <f>J16-'Desviacion de costos'!K19</f>
         <v>569253.15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="B18" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="10">
         <v>3300000</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="10">
         <f>J16</f>
         <v>569253.15</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="35">
+      <c r="B22" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="30">
         <f>((C21 * 100)/C20)-100</f>
         <v>-82.749904545454541</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9867,7 +10065,7 @@
   <dimension ref="C2:D17"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9880,105 +10078,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="31">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="31">
         <v>0.92569999999999997</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="17">
         <f>((94+100)/2)/100</f>
         <v>0.97</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="36">
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="31">
         <f>AVERAGE(D5:D16)</f>
         <v>0.96123333333333338</v>
       </c>
@@ -10000,7 +10198,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="T45" sqref="T45"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10013,1093 +10211,1093 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="38">
+      <c r="A2" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="33">
         <f t="shared" ref="B2:B40" si="0">SUM(C2:N2)</f>
         <v>40</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="34">
         <v>10</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="34">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="3">
         <v>12</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="3">
         <v>9</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="38">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="34">
         <v>19</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="34">
         <v>9</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="A4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="34">
         <v>10</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="34">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="A5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="33">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="34">
         <v>12</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="34">
         <v>15</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>13</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="3">
         <v>17</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="38">
+      <c r="A6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="33">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <v>33</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="34">
         <v>21</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="3">
         <v>9</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="38">
+      <c r="A7" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="34">
         <v>4</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="34">
         <v>10</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>11</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <v>7</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="38">
+      <c r="A8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <v>6</v>
       </c>
-      <c r="D8" s="39">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="38">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="34">
         <v>2</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="38">
+      <c r="D9" s="34"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="38">
+      <c r="D10" s="34"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="34">
         <v>3</v>
       </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="38">
+      <c r="A12" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <v>2</v>
       </c>
-      <c r="D12" s="39">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="D12" s="34">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="38">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="38">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="34">
         <v>3</v>
       </c>
-      <c r="D14" s="39">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="38">
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="34">
         <v>5</v>
       </c>
-      <c r="D15" s="39">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="34">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="38">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="38">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="38">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="34">
         <v>2</v>
       </c>
-      <c r="D18" s="39">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="38">
+      <c r="D18" s="34">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="39">
-        <v>1</v>
-      </c>
-      <c r="D19" s="39">
+      <c r="C19" s="34">
+        <v>1</v>
+      </c>
+      <c r="D19" s="34">
         <v>4</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="38">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="34">
         <v>7</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="34">
         <v>4</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="38">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="34">
         <v>3</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="38">
+      <c r="D21" s="34"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="38">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="38">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="34">
         <v>4</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="38">
+      <c r="D24" s="34"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C25" s="39">
-        <v>1</v>
-      </c>
-      <c r="D25" s="39">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="38">
+      <c r="C25" s="34">
+        <v>1</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C26" s="39">
-        <v>1</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="38">
+      <c r="C26" s="34">
+        <v>1</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="38">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="34">
         <v>4</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="38">
+      <c r="D28" s="34"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="34">
         <v>3</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="38">
+      <c r="D29" s="34"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="8">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="3">
         <v>2</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="38">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="34">
         <v>3</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="34">
         <v>3</v>
       </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="38">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="8">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="38">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="34">
         <v>2</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="34">
         <v>2</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="38">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C34" s="39">
-        <v>1</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="38">
+      <c r="C34" s="34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="C35" s="34"/>
+      <c r="D35" s="34">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
         <v>4</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="38">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="38">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="38">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="38">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C39" s="39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="38">
+      <c r="C39" s="34">
+        <v>1</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D40" s="39">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39">
-        <v>1</v>
-      </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
+      <c r="D40" s="34">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34">
+        <v>1</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39">
+      <c r="A42" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34">
         <v>3</v>
       </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39">
+      <c r="A43" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34">
         <v>17</v>
       </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
   <si>
     <t>Desviación de esfuerzo por proyectos planificados/reales</t>
   </si>
@@ -418,6 +418,9 @@
   <si>
     <t>Tickets de
 servicio</t>
+  </si>
+  <si>
+    <t>Contpaq i® Factura Electrónica U. Base Monoempresa Producto Nuevo Renta</t>
   </si>
 </sst>
 </file>
@@ -669,20 +672,20 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,7 +895,7 @@
                   <c:v>154239.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>154239.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1092,11 +1095,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="290343456"/>
-        <c:axId val="290345808"/>
+        <c:axId val="255540440"/>
+        <c:axId val="255541224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="290343456"/>
+        <c:axId val="255540440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1117,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290345808"/>
+        <c:crossAx val="255541224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1122,7 +1125,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290345808"/>
+        <c:axId val="255541224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1150,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290343456"/>
+        <c:crossAx val="255540440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1269,7 +1272,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.91749999999999998</c:v>
+                  <c:v>0.93399999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,11 +1301,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292130768"/>
-        <c:axId val="292135080"/>
+        <c:axId val="257157104"/>
+        <c:axId val="257162200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292130768"/>
+        <c:axId val="257157104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1322,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292135080"/>
+        <c:crossAx val="257162200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1330,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292135080"/>
+        <c:axId val="257162200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1356,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292130768"/>
+        <c:crossAx val="257157104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,11 +1525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292136256"/>
-        <c:axId val="292137040"/>
+        <c:axId val="257155144"/>
+        <c:axId val="257155536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292136256"/>
+        <c:axId val="257155144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1546,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292137040"/>
+        <c:crossAx val="257155536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1551,7 +1554,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292137040"/>
+        <c:axId val="257155536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1580,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292136256"/>
+        <c:crossAx val="257155144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1730,7 +1733,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96300000000000008</c:v>
+                  <c:v>0.97225000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,11 +1762,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292293216"/>
-        <c:axId val="292294392"/>
+        <c:axId val="255544360"/>
+        <c:axId val="255544752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292293216"/>
+        <c:axId val="255544360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1783,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292294392"/>
+        <c:crossAx val="255544752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1788,7 +1791,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292294392"/>
+        <c:axId val="255544752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1817,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292293216"/>
+        <c:crossAx val="255544360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,7 +1953,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.82140000000000002</c:v>
+                  <c:v>0.8571200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1982,11 +1985,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292293608"/>
-        <c:axId val="292295960"/>
+        <c:axId val="257586064"/>
+        <c:axId val="257588808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292293608"/>
+        <c:axId val="257586064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2006,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292295960"/>
+        <c:crossAx val="257588808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2011,7 +2014,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292295960"/>
+        <c:axId val="257588808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +2040,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292293608"/>
+        <c:crossAx val="257586064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2194,11 +2197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292296352"/>
-        <c:axId val="292295176"/>
+        <c:axId val="257590376"/>
+        <c:axId val="257590768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292296352"/>
+        <c:axId val="257590376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2218,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292295176"/>
+        <c:crossAx val="257590768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2226,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292295176"/>
+        <c:axId val="257590768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2252,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292296352"/>
+        <c:crossAx val="257590376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2415,7 +2418,7 @@
                   <c:v>275000.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>275000.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2583,11 +2586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="292297136"/>
-        <c:axId val="292291256"/>
+        <c:axId val="257588024"/>
+        <c:axId val="257592728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292297136"/>
+        <c:axId val="257588024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2608,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292291256"/>
+        <c:crossAx val="257592728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2613,7 +2616,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292291256"/>
+        <c:axId val="257592728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2641,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292297136"/>
+        <c:crossAx val="257588024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2818,11 +2821,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="292297528"/>
-        <c:axId val="292292040"/>
+        <c:axId val="257592336"/>
+        <c:axId val="257586456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292297528"/>
+        <c:axId val="257592336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2840,7 +2843,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292292040"/>
+        <c:crossAx val="257586456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2848,7 +2851,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292292040"/>
+        <c:axId val="257586456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2875,7 +2878,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292297528"/>
+        <c:crossAx val="257592336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2961,123 +2964,27 @@
             <c:strRef>
               <c:f>Producto!$A$2:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Contpaq i® Nominas U. Base Renovación Renta</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Contpaq i® Factura Electrónica U. Base Monoempresa Renovación Renta</c:v>
+                  <c:v>Paquete de 2 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota (Incluye 2 horas gratis por ser cliente distinguido)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Contpaq i® Factura Electrónica U. Base Multiempresa Renovación Renta</c:v>
+                  <c:v>Servicio de Asesoría y Soporte Técnico Vía Remota</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Paquete de 2 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota (Incluye 2 horas gratis por ser cliente distinguido)</c:v>
+                  <c:v>Contpaq i® CFDI en linea+ Producto Nuevo Monoempresa Renta</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Servicio de Asesoría y Soporte Técnico Vía Remota</c:v>
+                  <c:v>Contpaq i® Contabilidad U. Base Actualización Especial Tradicional</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Contpaq i® CFDI en linea+ Producto Nuevo Monoempresa Renta</c:v>
+                  <c:v>Paquete de 5 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Contpaq i® Contabilidad U. Base Actualización Especial Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Contpaq i® Comercial U. Base Renovación Renta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Contpaq i® Contabilidad U. Base Actualización Normal Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Contpaq i® Nominas U. Base Actualización Especial Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Paquete de 5 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Contpaq i® Comercial U. Base Producto Nuevo Renta</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Contpaq i® Contabilidad U. Adicional Producto Nuevo Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Contpaq i® Nominas U. Adicional Renovación Renta</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Contpaq i® Contabilidad U. Base Producto Nuevo Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Paquete de 10 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Contpaq i® Bancos U. Base Actualización Especial Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Servicio Presencial</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Contpaq i® Contabilidad U. Adicional Actualización Especial Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Contpaq i® Comercial U. Adicional Renovación Renta</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Contpaq i® Bancos U. Base Producto Nuevo Renta</c:v>
-                </c:pt>
-                <c:pt idx="21">
                   <c:v>Contpaq i® Nominas U. Base Producto Nuevo Renta</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Contpaq i® Nominas U. Adicional Actualización Especial Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Contpaq i® Factura Electrónica U. Base Multiempresa Producto Nuevo Renta</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Contpaq i® Factura Electrónica U. Base Actualización Especial Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Contpaq i® Comercial U. Adicional Producto Nuevo Renta</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Paquete de 500 timbres Contpaq i®</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Contpaq i® Factura Electrónica U. Adicional Multiempresa Renovación Renta</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Contpaq i® Contabilidad U. Adicional Producto Nuevo Renta</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Servicio por hora de Desarrollo Personalizado de JoinData</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Contpaq i® XML Línea + Multiempresa, Multiusuario Renta</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Contpaq i® Bancos U. Adicional Actualización Especial Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>XP/VS Terminal Server Lite Conexión a 1 servidor</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Contpaq i® CFDI Nóminas+ Producto Nuevo Monoempresa Renta</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Contpaq i® Nominas U. Adicional Producto Nuevo Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Contpaq i® Factura Electrónica U. Adicional Monoempresa Renovación Renta</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Servicio de Implementación, Activación y Capacitación de CFDI Facturación en linea +</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Servicio de Asesoría y Soporte Contpaqi Contabilidad Vía Remota</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Cargo por gastos administrativos por cancelación de pedido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3087,123 +2994,27 @@
               <c:f>Producto!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,11 +3044,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="292297920"/>
-        <c:axId val="292290472"/>
+        <c:axId val="257589592"/>
+        <c:axId val="257587632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292297920"/>
+        <c:axId val="257589592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,7 +3066,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292290472"/>
+        <c:crossAx val="257587632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3263,7 +3074,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292290472"/>
+        <c:axId val="257587632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,7 +3099,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292297920"/>
+        <c:crossAx val="257589592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3391,10 +3202,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,11 +3235,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="292292824"/>
-        <c:axId val="292294000"/>
+        <c:axId val="257591160"/>
+        <c:axId val="257591552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292292824"/>
+        <c:axId val="257591160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3257,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292294000"/>
+        <c:crossAx val="257591552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3454,7 +3265,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292294000"/>
+        <c:axId val="257591552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3290,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292292824"/>
+        <c:crossAx val="257591160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3579,7 +3390,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.48</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,11 +3513,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="293107312"/>
-        <c:axId val="293103784"/>
+        <c:axId val="257591944"/>
+        <c:axId val="257585672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="293107312"/>
+        <c:axId val="257591944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,7 +3534,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293103784"/>
+        <c:crossAx val="257585672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3731,7 +3542,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293103784"/>
+        <c:axId val="257585672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3757,7 +3568,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293107312"/>
+        <c:crossAx val="257591944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3902,7 +3713,7 @@
                   <c:v>-0.49686760648413364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3953,11 +3764,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="290347768"/>
-        <c:axId val="290346592"/>
+        <c:axId val="255541616"/>
+        <c:axId val="255547104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="290347768"/>
+        <c:axId val="255541616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,7 +3786,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290346592"/>
+        <c:crossAx val="255547104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3983,7 +3794,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290346592"/>
+        <c:axId val="255547104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +3819,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290347768"/>
+        <c:crossAx val="255541616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4117,16 +3928,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66664999999999996</c:v>
+                  <c:v>0.77776666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4155,11 +3966,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="293104568"/>
-        <c:axId val="293104176"/>
+        <c:axId val="316050704"/>
+        <c:axId val="316048352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="293104568"/>
+        <c:axId val="316050704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,7 +3987,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293104176"/>
+        <c:crossAx val="316048352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4184,7 +3995,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293104176"/>
+        <c:axId val="316048352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,7 +4021,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293104568"/>
+        <c:crossAx val="316050704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4375,6 +4186,9 @@
                 <c:pt idx="3">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4500,6 +4314,9 @@
                 <c:pt idx="3">
                   <c:v>43</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4527,11 +4344,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="290342280"/>
-        <c:axId val="290343064"/>
+        <c:axId val="255542008"/>
+        <c:axId val="255546712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="290342280"/>
+        <c:axId val="255542008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,7 +4365,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290343064"/>
+        <c:crossAx val="255546712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4556,7 +4373,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290343064"/>
+        <c:axId val="255546712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4582,7 +4399,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290342280"/>
+        <c:crossAx val="255542008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4747,6 +4564,9 @@
                 <c:pt idx="3">
                   <c:v>126</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4872,6 +4692,9 @@
                 <c:pt idx="3">
                   <c:v>121</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4899,11 +4722,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="290341888"/>
-        <c:axId val="290344632"/>
+        <c:axId val="255543968"/>
+        <c:axId val="255540048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="290341888"/>
+        <c:axId val="255543968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4920,7 +4743,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290344632"/>
+        <c:crossAx val="255540048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4928,7 +4751,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290344632"/>
+        <c:axId val="255540048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4954,7 +4777,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290341888"/>
+        <c:crossAx val="255543968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5120,7 +4943,7 @@
                   <c:v>-0.46250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.33750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5170,11 +4993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="290345416"/>
-        <c:axId val="292136648"/>
+        <c:axId val="257157888"/>
+        <c:axId val="257161416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="290345416"/>
+        <c:axId val="257157888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5191,7 +5014,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292136648"/>
+        <c:crossAx val="257161416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5199,7 +5022,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292136648"/>
+        <c:axId val="257161416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +5048,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="290345416"/>
+        <c:crossAx val="257157888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5391,7 +5214,7 @@
                   <c:v>-3.9682539682539653E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5441,11 +5264,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292131552"/>
-        <c:axId val="292132336"/>
+        <c:axId val="257156712"/>
+        <c:axId val="257158672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292131552"/>
+        <c:axId val="257156712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5462,7 +5285,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292132336"/>
+        <c:crossAx val="257158672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5470,7 +5293,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292132336"/>
+        <c:axId val="257158672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,7 +5319,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292131552"/>
+        <c:crossAx val="257156712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5617,7 +5440,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.625</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5646,11 +5469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292134688"/>
-        <c:axId val="292132728"/>
+        <c:axId val="257158280"/>
+        <c:axId val="257161808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292134688"/>
+        <c:axId val="257158280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5667,7 +5490,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292132728"/>
+        <c:crossAx val="257161808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5675,7 +5498,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292132728"/>
+        <c:axId val="257161808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5701,7 +5524,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292134688"/>
+        <c:crossAx val="257158280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5863,11 +5686,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292138216"/>
-        <c:axId val="292131944"/>
+        <c:axId val="257159848"/>
+        <c:axId val="257160240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292138216"/>
+        <c:axId val="257159848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5884,7 +5707,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292131944"/>
+        <c:crossAx val="257160240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5892,7 +5715,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292131944"/>
+        <c:axId val="257160240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5918,7 +5741,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292138216"/>
+        <c:crossAx val="257159848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6074,11 +5897,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292135864"/>
-        <c:axId val="292133120"/>
+        <c:axId val="257155928"/>
+        <c:axId val="257160632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292135864"/>
+        <c:axId val="257155928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6095,7 +5918,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292133120"/>
+        <c:crossAx val="257160632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6103,7 +5926,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292133120"/>
+        <c:axId val="257160632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6129,7 +5952,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="292135864"/>
+        <c:crossAx val="257155928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7093,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,65 +6938,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="45" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="49" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7186,11 +7009,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -7337,24 +7160,28 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>77119.94</v>
+      </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="37">
+        <v>77119.94</v>
+      </c>
       <c r="F11" s="37"/>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154239.88</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="11" t="e">
+      <c r="I11" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="40">
@@ -7546,16 +7373,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7568,7 +7395,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7592,13 +7419,13 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <f>B3/SUM(B3:C3)</f>
-        <v>0.48</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="B3" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7617,7 +7444,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7629,25 +7456,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7715,10 +7542,16 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>0.75</v>
+      </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -7789,7 +7622,7 @@
       </c>
       <c r="B16" s="20">
         <f>AVERAGE(B4:B15)</f>
-        <v>0.42499999999999999</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C16" s="19">
         <f>AVERAGE(C4:C15)</f>
@@ -7797,11 +7630,11 @@
       </c>
       <c r="D16" s="36">
         <f>AVERAGE(D4:D15)</f>
-        <v>0.66664999999999996</v>
+        <v>0.77776666666666661</v>
       </c>
       <c r="E16" s="19">
         <f>AVERAGE(E4:E15)</f>
-        <v>0.72499999999999998</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -7823,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7843,51 +7676,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8013,17 +7846,25 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="e">
+      <c r="C11" s="4">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5" t="e">
+        <v>-0.33750000000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <v>126</v>
+      </c>
+      <c r="G11" s="4">
+        <v>144</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -8164,8 +8005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8190,27 +8031,27 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="3:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="48"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="22" t="s">
         <v>46</v>
       </c>
@@ -8278,7 +8119,9 @@
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -8352,7 +8195,7 @@
       </c>
       <c r="D19" s="20">
         <f>AVERAGE(D7:D18)</f>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="E19" s="19">
         <f>AVERAGE(E7:E18)</f>
@@ -8383,8 +8226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8406,25 +8249,25 @@
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="3:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
@@ -8483,7 +8326,9 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
     </row>
@@ -8549,7 +8394,7 @@
       </c>
       <c r="D17" s="19">
         <f>AVERAGE(D5:D16)</f>
-        <v>0.91749999999999998</v>
+        <v>0.93399999999999994</v>
       </c>
       <c r="E17" s="19">
         <f>AVERAGE(E5:E16)</f>
@@ -8577,8 +8422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView topLeftCell="A18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8599,25 +8444,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
@@ -8811,29 +8656,29 @@
       <c r="D23"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="48" t="s">
+      <c r="C24" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="48"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="7" t="s">
         <v>126</v>
       </c>
@@ -8911,7 +8756,9 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
@@ -9027,7 +8874,7 @@
       </c>
       <c r="I39" s="19">
         <f t="shared" si="0"/>
-        <v>0.96300000000000008</v>
+        <v>0.97225000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -9047,8 +8894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9071,25 +8918,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
@@ -9175,10 +9022,18 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -9257,7 +9112,7 @@
       </c>
       <c r="F17" s="16">
         <f>AVERAGE(F5:F16)</f>
-        <v>0.82140000000000002</v>
+        <v>0.8571200000000001</v>
       </c>
       <c r="G17" s="15">
         <f>AVERAGE(G5:G16)</f>
@@ -9280,25 +9135,25 @@
       <c r="D22"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
@@ -9466,8 +9321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9488,55 +9343,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="45" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
@@ -9555,11 +9410,11 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9735,24 +9590,36 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44102</v>
+      </c>
+      <c r="D8" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="E8" s="10">
+        <v>62184</v>
+      </c>
+      <c r="F8" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="G8" s="10">
+        <v>27020</v>
+      </c>
       <c r="H8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>275000.01</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>133306</v>
       </c>
       <c r="J8" s="27"/>
-      <c r="K8" s="29" t="e">
+      <c r="K8" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="L8" s="9">
         <f>J8-'Desviacion de costos'!K11</f>
@@ -9961,35 +9828,35 @@
       </c>
       <c r="B16" s="10">
         <f t="shared" ref="B16:J16" si="3">SUM(B4:B15)</f>
-        <v>275000.01</v>
+        <v>366666.68</v>
       </c>
       <c r="C16" s="10">
         <f t="shared" si="3"/>
-        <v>77307</v>
+        <v>121409</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="3"/>
-        <v>412500.00999999995</v>
+        <v>504166.67999999993</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="3"/>
-        <v>144691.51</v>
+        <v>206875.51</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="3"/>
-        <v>412500.00999999995</v>
+        <v>504166.67999999993</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="3"/>
-        <v>123988.93</v>
+        <v>151008.93</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="3"/>
-        <v>1100000.03</v>
+        <v>1375000.04</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="3"/>
-        <v>345987.44</v>
+        <v>479293.44</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="3"/>
@@ -9997,7 +9864,7 @@
       </c>
       <c r="K16" s="29">
         <f t="shared" si="2"/>
-        <v>-48.249715047735044</v>
+        <v>-58.599772113461178</v>
       </c>
       <c r="L16" s="9">
         <f>J16-'Desviacion de costos'!K19</f>
@@ -10005,14 +9872,14 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="45"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
@@ -10042,17 +9909,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10065,7 +9932,7 @@
   <dimension ref="C2:D17"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10078,20 +9945,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
@@ -10197,8 +10064,8 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10260,7 +10127,7 @@
       </c>
       <c r="B2" s="33">
         <f t="shared" ref="B2:B40" si="0">SUM(C2:N2)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" s="34">
         <v>10</v>
@@ -10274,7 +10141,9 @@
       <c r="F2" s="3">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -10283,7 +10152,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>73</v>
       </c>
@@ -10308,7 +10177,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>74</v>
       </c>
@@ -10343,7 +10212,7 @@
       </c>
       <c r="B5" s="33">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C5" s="34">
         <v>12</v>
@@ -10357,7 +10226,9 @@
       <c r="F5" s="3">
         <v>17</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>20</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -10372,7 +10243,7 @@
       </c>
       <c r="B6" s="33">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="34">
         <v>33</v>
@@ -10386,7 +10257,9 @@
       <c r="F6" s="3">
         <v>9</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -10401,7 +10274,7 @@
       </c>
       <c r="B7" s="33">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C7" s="34">
         <v>4</v>
@@ -10415,7 +10288,9 @@
       <c r="F7" s="3">
         <v>7</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>9</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -10430,7 +10305,7 @@
       </c>
       <c r="B8" s="33">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="34">
         <v>6</v>
@@ -10444,7 +10319,9 @@
       <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -10453,7 +10330,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>79</v>
       </c>
@@ -10476,7 +10353,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>80</v>
       </c>
@@ -10501,7 +10378,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>81</v>
       </c>
@@ -10532,7 +10409,7 @@
       </c>
       <c r="B12" s="33">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="34">
         <v>2</v>
@@ -10546,7 +10423,9 @@
       <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -10555,7 +10434,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>83</v>
       </c>
@@ -10578,7 +10457,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>84</v>
       </c>
@@ -10605,7 +10484,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>85</v>
       </c>
@@ -10632,7 +10511,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>86</v>
       </c>
@@ -10657,7 +10536,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>87</v>
       </c>
@@ -10680,7 +10559,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>88</v>
       </c>
@@ -10705,7 +10584,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>89</v>
       </c>
@@ -10732,7 +10611,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>90</v>
       </c>
@@ -10757,7 +10636,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>91</v>
       </c>
@@ -10780,7 +10659,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>92</v>
       </c>
@@ -10809,13 +10688,15 @@
       </c>
       <c r="B23" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -10824,7 +10705,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>94</v>
       </c>
@@ -10847,7 +10728,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>95</v>
       </c>
@@ -10872,7 +10753,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>96</v>
       </c>
@@ -10895,7 +10776,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>97</v>
       </c>
@@ -10918,7 +10799,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>98</v>
       </c>
@@ -10941,7 +10822,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>99</v>
       </c>
@@ -10964,7 +10845,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>100</v>
       </c>
@@ -10987,7 +10868,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>101</v>
       </c>
@@ -11014,7 +10895,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>102</v>
       </c>
@@ -11037,7 +10918,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>103</v>
       </c>
@@ -11062,7 +10943,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>104</v>
       </c>
@@ -11085,7 +10966,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>105</v>
       </c>
@@ -11110,7 +10991,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>106</v>
       </c>
@@ -11131,7 +11012,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>107</v>
       </c>
@@ -11156,7 +11037,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>108</v>
       </c>
@@ -11179,7 +11060,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>109</v>
       </c>
@@ -11202,7 +11083,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>110</v>
       </c>
@@ -11224,7 +11105,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>111</v>
       </c>
@@ -11255,7 +11136,9 @@
       <c r="F42" s="34">
         <v>3</v>
       </c>
-      <c r="G42" s="34"/>
+      <c r="G42" s="34">
+        <v>4</v>
+      </c>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
       <c r="J42" s="34"/>
@@ -11264,7 +11147,7 @@
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
     </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>121</v>
       </c>
@@ -11284,8 +11167,25 @@
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34">
+        <v>3</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="130">
   <si>
     <t>Desviación de esfuerzo por proyectos planificados/reales</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Contpaq i® Factura Electrónica U. Base Monoempresa Producto Nuevo Renta</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,20 +675,23 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1095,11 +1101,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="255540440"/>
-        <c:axId val="255541224"/>
+        <c:axId val="251523792"/>
+        <c:axId val="251525360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255540440"/>
+        <c:axId val="251523792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1123,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255541224"/>
+        <c:crossAx val="251525360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1131,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255541224"/>
+        <c:axId val="251525360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1156,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255540440"/>
+        <c:crossAx val="251523792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1163,7 +1169,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1301,11 +1306,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257157104"/>
-        <c:axId val="257162200"/>
+        <c:axId val="253407824"/>
+        <c:axId val="253411352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257157104"/>
+        <c:axId val="253407824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1327,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257162200"/>
+        <c:crossAx val="253411352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1330,7 +1335,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257162200"/>
+        <c:axId val="253411352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1361,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257157104"/>
+        <c:crossAx val="253407824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1525,11 +1530,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257155144"/>
-        <c:axId val="257155536"/>
+        <c:axId val="253408216"/>
+        <c:axId val="253408608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257155144"/>
+        <c:axId val="253408216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1551,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257155536"/>
+        <c:crossAx val="253408608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1554,7 +1559,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257155536"/>
+        <c:axId val="253408608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1585,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257155144"/>
+        <c:crossAx val="253408216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,11 +1767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="255544360"/>
-        <c:axId val="255544752"/>
+        <c:axId val="253865784"/>
+        <c:axId val="253866568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255544360"/>
+        <c:axId val="253865784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1788,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255544752"/>
+        <c:crossAx val="253866568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1791,7 +1796,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255544752"/>
+        <c:axId val="253866568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1822,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255544360"/>
+        <c:crossAx val="253865784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1985,11 +1990,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257586064"/>
-        <c:axId val="257588808"/>
+        <c:axId val="253870880"/>
+        <c:axId val="253867744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257586064"/>
+        <c:axId val="253870880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,7 +2011,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257588808"/>
+        <c:crossAx val="253867744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2014,7 +2019,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257588808"/>
+        <c:axId val="253867744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2045,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257586064"/>
+        <c:crossAx val="253870880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2197,11 +2202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257590376"/>
-        <c:axId val="257590768"/>
+        <c:axId val="253869312"/>
+        <c:axId val="253868920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257590376"/>
+        <c:axId val="253869312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,7 +2223,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257590768"/>
+        <c:crossAx val="253868920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2226,7 +2231,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257590768"/>
+        <c:axId val="253868920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2257,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257590376"/>
+        <c:crossAx val="253869312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2558,6 +2563,9 @@
                 <c:pt idx="3">
                   <c:v>145519.6</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>133306.70000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2586,11 +2594,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257588024"/>
-        <c:axId val="257592728"/>
+        <c:axId val="253871664"/>
+        <c:axId val="253866960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257588024"/>
+        <c:axId val="253871664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +2616,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257592728"/>
+        <c:crossAx val="253866960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2616,7 +2624,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257592728"/>
+        <c:axId val="253866960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2649,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257588024"/>
+        <c:crossAx val="253871664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2793,6 +2801,12 @@
                 <c:pt idx="2" formatCode="0%">
                   <c:v>0.97</c:v>
                 </c:pt>
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2821,11 +2835,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257592336"/>
-        <c:axId val="257586456"/>
+        <c:axId val="253865000"/>
+        <c:axId val="253865392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257592336"/>
+        <c:axId val="253865000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2857,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257586456"/>
+        <c:crossAx val="253865392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2851,7 +2865,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257586456"/>
+        <c:axId val="253865392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2878,7 +2892,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257592336"/>
+        <c:crossAx val="253865000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3044,11 +3058,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257589592"/>
-        <c:axId val="257587632"/>
+        <c:axId val="253868136"/>
+        <c:axId val="253869704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257589592"/>
+        <c:axId val="253868136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3066,7 +3080,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257587632"/>
+        <c:crossAx val="253869704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3074,7 +3088,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257587632"/>
+        <c:axId val="253869704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3113,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257589592"/>
+        <c:crossAx val="253868136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3235,11 +3249,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257591160"/>
-        <c:axId val="257591552"/>
+        <c:axId val="253868528"/>
+        <c:axId val="253870096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257591160"/>
+        <c:axId val="253868528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,7 +3271,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257591552"/>
+        <c:crossAx val="253870096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3265,7 +3279,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257591552"/>
+        <c:axId val="253870096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3304,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257591160"/>
+        <c:crossAx val="253868528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,11 +3527,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257591944"/>
-        <c:axId val="257585672"/>
+        <c:axId val="308331416"/>
+        <c:axId val="308333376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257591944"/>
+        <c:axId val="308331416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3548,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257585672"/>
+        <c:crossAx val="308333376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3542,7 +3556,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257585672"/>
+        <c:axId val="308333376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3568,7 +3582,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257591944"/>
+        <c:crossAx val="308331416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3764,11 +3778,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="255541616"/>
-        <c:axId val="255547104"/>
+        <c:axId val="251526144"/>
+        <c:axId val="251525752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255541616"/>
+        <c:axId val="251526144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3800,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255547104"/>
+        <c:crossAx val="251525752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3794,7 +3808,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255547104"/>
+        <c:axId val="251525752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3833,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255541616"/>
+        <c:crossAx val="251526144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3966,11 +3980,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="316050704"/>
-        <c:axId val="316048352"/>
+        <c:axId val="308336120"/>
+        <c:axId val="308337296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316050704"/>
+        <c:axId val="308336120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +4001,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="316048352"/>
+        <c:crossAx val="308337296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3995,7 +4009,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316048352"/>
+        <c:axId val="308337296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4021,7 +4035,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="316050704"/>
+        <c:crossAx val="308336120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4344,11 +4358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="255542008"/>
-        <c:axId val="255546712"/>
+        <c:axId val="251522224"/>
+        <c:axId val="251526928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255542008"/>
+        <c:axId val="251522224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,7 +4379,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255546712"/>
+        <c:crossAx val="251526928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4373,7 +4387,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255546712"/>
+        <c:axId val="251526928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,7 +4413,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255542008"/>
+        <c:crossAx val="251522224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4722,11 +4736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="255543968"/>
-        <c:axId val="255540048"/>
+        <c:axId val="251521832"/>
+        <c:axId val="251522616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255543968"/>
+        <c:axId val="251521832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4757,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255540048"/>
+        <c:crossAx val="251522616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4751,7 +4765,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255540048"/>
+        <c:axId val="251522616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,7 +4791,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="255543968"/>
+        <c:crossAx val="251521832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4993,11 +5007,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257157888"/>
-        <c:axId val="257161416"/>
+        <c:axId val="251523008"/>
+        <c:axId val="253412920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257157888"/>
+        <c:axId val="251523008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +5028,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257161416"/>
+        <c:crossAx val="253412920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5022,7 +5036,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257161416"/>
+        <c:axId val="253412920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5062,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257157888"/>
+        <c:crossAx val="251523008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5264,11 +5278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257156712"/>
-        <c:axId val="257158672"/>
+        <c:axId val="253409784"/>
+        <c:axId val="253413312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257156712"/>
+        <c:axId val="253409784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5285,7 +5299,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257158672"/>
+        <c:crossAx val="253413312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5293,7 +5307,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257158672"/>
+        <c:axId val="253413312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5319,7 +5333,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257156712"/>
+        <c:crossAx val="253409784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5469,11 +5483,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257158280"/>
-        <c:axId val="257161808"/>
+        <c:axId val="253410176"/>
+        <c:axId val="253411744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257158280"/>
+        <c:axId val="253410176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5490,7 +5504,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257161808"/>
+        <c:crossAx val="253411744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5498,7 +5512,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257161808"/>
+        <c:axId val="253411744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5524,7 +5538,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257158280"/>
+        <c:crossAx val="253410176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5686,11 +5700,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257159848"/>
-        <c:axId val="257160240"/>
+        <c:axId val="253413704"/>
+        <c:axId val="253410568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257159848"/>
+        <c:axId val="253413704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5707,7 +5721,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257160240"/>
+        <c:crossAx val="253410568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5715,7 +5729,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257160240"/>
+        <c:axId val="253410568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5755,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257159848"/>
+        <c:crossAx val="253413704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5897,11 +5911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="257155928"/>
-        <c:axId val="257160632"/>
+        <c:axId val="253414096"/>
+        <c:axId val="253414488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257155928"/>
+        <c:axId val="253414096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5918,7 +5932,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257160632"/>
+        <c:crossAx val="253414488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5926,7 +5940,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257160632"/>
+        <c:axId val="253414488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5952,7 +5966,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257155928"/>
+        <c:crossAx val="253414096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6938,65 +6952,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="46" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7009,11 +7023,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -7373,16 +7387,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7456,25 +7470,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7656,7 +7670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -7676,51 +7690,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8031,27 +8045,27 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="3:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="47"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="22" t="s">
         <v>46</v>
       </c>
@@ -8249,25 +8263,25 @@
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="3:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
@@ -8422,8 +8436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A24" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8444,25 +8458,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
@@ -8656,29 +8670,29 @@
       <c r="D23"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="47"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="7" t="s">
         <v>126</v>
       </c>
@@ -8894,7 +8908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8918,25 +8932,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
@@ -9135,25 +9149,25 @@
       <c r="D22"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="47"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
@@ -9338,60 +9352,60 @@
     <col min="9" max="9" width="14.28515625"/>
     <col min="10" max="10" width="27.28515625"/>
     <col min="11" max="11" width="17.42578125"/>
-    <col min="12" max="12" width="17.140625"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="45"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
@@ -9410,11 +9424,11 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9616,14 +9630,16 @@
         <f t="shared" si="1"/>
         <v>133306</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="27">
+        <v>133306.70000000001</v>
+      </c>
       <c r="K8" s="29">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>-51.524838126369517</v>
       </c>
       <c r="L8" s="9">
         <f>J8-'Desviacion de costos'!K11</f>
-        <v>0</v>
+        <v>133306.70000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -9860,26 +9876,26 @@
       </c>
       <c r="J16" s="27">
         <f t="shared" si="3"/>
-        <v>569253.15</v>
+        <v>702559.85000000009</v>
       </c>
       <c r="K16" s="29">
         <f t="shared" si="2"/>
-        <v>-58.599772113461178</v>
+        <v>-48.904739668225744</v>
       </c>
       <c r="L16" s="9">
         <f>J16-'Desviacion de costos'!K19</f>
-        <v>569253.15</v>
+        <v>702559.85000000009</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
@@ -9895,7 +9911,7 @@
       </c>
       <c r="C21" s="10">
         <f>J16</f>
-        <v>569253.15</v>
+        <v>702559.85000000009</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -9904,22 +9920,22 @@
       </c>
       <c r="C22" s="30">
         <f>((C21 * 100)/C20)-100</f>
-        <v>-82.749904545454541</v>
+        <v>-78.710307575757568</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9932,7 +9948,7 @@
   <dimension ref="C2:D17"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9945,20 +9961,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
@@ -9989,13 +10005,17 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="50" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -10045,7 +10065,7 @@
       </c>
       <c r="D17" s="31">
         <f>AVERAGE(D5:D16)</f>
-        <v>0.96123333333333338</v>
+        <v>0.97092500000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de costos" sheetId="2" r:id="rId1"/>
@@ -434,7 +434,7 @@
     <numFmt numFmtId="164" formatCode="[$$-80A]#,##0.00;[Red]\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,6 +457,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -666,14 +673,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -681,17 +694,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,7 +1057,7 @@
                   <c:v>77603.08</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>0</c:v>
+                  <c:v>82510.92</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.00">
                   <c:v>0</c:v>
@@ -1101,11 +1108,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="251523792"/>
-        <c:axId val="251525360"/>
+        <c:axId val="252741464"/>
+        <c:axId val="252734016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="251523792"/>
+        <c:axId val="252741464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1130,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251525360"/>
+        <c:crossAx val="252734016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1131,7 +1138,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251525360"/>
+        <c:axId val="252734016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1163,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251523792"/>
+        <c:crossAx val="252741464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1169,6 +1176,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1306,11 +1314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253407824"/>
-        <c:axId val="253411352"/>
+        <c:axId val="254550480"/>
+        <c:axId val="254550872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253407824"/>
+        <c:axId val="254550480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1335,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253411352"/>
+        <c:crossAx val="254550872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1335,7 +1343,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253411352"/>
+        <c:axId val="254550872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1369,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253407824"/>
+        <c:crossAx val="254550480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,7 +1384,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1530,11 +1537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253408216"/>
-        <c:axId val="253408608"/>
+        <c:axId val="254551264"/>
+        <c:axId val="254548128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253408216"/>
+        <c:axId val="254551264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1558,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253408608"/>
+        <c:crossAx val="254548128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1559,7 +1566,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253408608"/>
+        <c:axId val="254548128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +1592,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253408216"/>
+        <c:crossAx val="254551264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1600,7 +1607,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1767,11 +1773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253865784"/>
-        <c:axId val="253866568"/>
+        <c:axId val="254550088"/>
+        <c:axId val="254552832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253865784"/>
+        <c:axId val="254550088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,7 +1794,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253866568"/>
+        <c:crossAx val="254552832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1796,7 +1802,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253866568"/>
+        <c:axId val="254552832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1828,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253865784"/>
+        <c:crossAx val="254550088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,7 +1843,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1990,11 +1995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253870880"/>
-        <c:axId val="253867744"/>
+        <c:axId val="254548520"/>
+        <c:axId val="254555184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253870880"/>
+        <c:axId val="254548520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2016,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253867744"/>
+        <c:crossAx val="254555184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2019,7 +2024,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253867744"/>
+        <c:axId val="254555184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2050,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253870880"/>
+        <c:crossAx val="254548520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2060,7 +2065,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2202,11 +2206,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253869312"/>
-        <c:axId val="253868920"/>
+        <c:axId val="254551656"/>
+        <c:axId val="254554400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253869312"/>
+        <c:axId val="254551656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2227,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253868920"/>
+        <c:crossAx val="254554400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2231,7 +2235,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253868920"/>
+        <c:axId val="254554400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2261,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253869312"/>
+        <c:crossAx val="254551656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2272,7 +2276,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2594,11 +2597,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253871664"/>
-        <c:axId val="253866960"/>
+        <c:axId val="254549696"/>
+        <c:axId val="254552440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253871664"/>
+        <c:axId val="254549696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2619,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253866960"/>
+        <c:crossAx val="254552440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2624,7 +2627,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253866960"/>
+        <c:axId val="254552440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +2652,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253871664"/>
+        <c:crossAx val="254549696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2835,11 +2838,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253865000"/>
-        <c:axId val="253865392"/>
+        <c:axId val="254554792"/>
+        <c:axId val="254555576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253865000"/>
+        <c:axId val="254554792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +2860,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253865392"/>
+        <c:crossAx val="254555576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2865,7 +2868,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253865392"/>
+        <c:axId val="254555576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2892,7 +2895,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253865000"/>
+        <c:crossAx val="254554792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,11 +3061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253868136"/>
-        <c:axId val="253869704"/>
+        <c:axId val="314210984"/>
+        <c:axId val="314206280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253868136"/>
+        <c:axId val="314210984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3083,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253869704"/>
+        <c:crossAx val="314206280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3088,7 +3091,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253869704"/>
+        <c:axId val="314206280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,7 +3116,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253868136"/>
+        <c:crossAx val="314210984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3249,11 +3252,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253868528"/>
-        <c:axId val="253870096"/>
+        <c:axId val="314205104"/>
+        <c:axId val="314204320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253868528"/>
+        <c:axId val="314205104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,7 +3274,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253870096"/>
+        <c:crossAx val="314204320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3279,7 +3282,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253870096"/>
+        <c:axId val="314204320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,7 +3307,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253868528"/>
+        <c:crossAx val="314205104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3527,11 +3530,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="308331416"/>
-        <c:axId val="308333376"/>
+        <c:axId val="314208632"/>
+        <c:axId val="314210592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="308331416"/>
+        <c:axId val="314208632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,7 +3551,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="308333376"/>
+        <c:crossAx val="314210592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3556,7 +3559,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308333376"/>
+        <c:axId val="314210592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3582,7 +3585,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="308331416"/>
+        <c:crossAx val="314208632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3727,7 +3730,7 @@
                   <c:v>-0.49686760648413364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-0.46504807965358896</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3778,11 +3781,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="251526144"/>
-        <c:axId val="251525752"/>
+        <c:axId val="252734408"/>
+        <c:axId val="252734800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="251526144"/>
+        <c:axId val="252734408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3803,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251525752"/>
+        <c:crossAx val="252734800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3808,7 +3811,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251525752"/>
+        <c:axId val="252734800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +3836,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251526144"/>
+        <c:crossAx val="252734408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3980,11 +3983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="308336120"/>
-        <c:axId val="308337296"/>
+        <c:axId val="314204712"/>
+        <c:axId val="314205888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="308336120"/>
+        <c:axId val="314204712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4001,7 +4004,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="308337296"/>
+        <c:crossAx val="314205888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4009,7 +4012,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308337296"/>
+        <c:axId val="314205888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +4038,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="308336120"/>
+        <c:crossAx val="314204712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4358,11 +4361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="251522224"/>
-        <c:axId val="251526928"/>
+        <c:axId val="252735976"/>
+        <c:axId val="254269624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="251522224"/>
+        <c:axId val="252735976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,7 +4382,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251526928"/>
+        <c:crossAx val="254269624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4387,7 +4390,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251526928"/>
+        <c:axId val="254269624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4413,7 +4416,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251522224"/>
+        <c:crossAx val="252735976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4736,11 +4739,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="251521832"/>
-        <c:axId val="251522616"/>
+        <c:axId val="254263744"/>
+        <c:axId val="254263352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="251521832"/>
+        <c:axId val="254263744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4760,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251522616"/>
+        <c:crossAx val="254263352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4765,7 +4768,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251522616"/>
+        <c:axId val="254263352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,7 +4794,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251521832"/>
+        <c:crossAx val="254263744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5007,11 +5010,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="251523008"/>
-        <c:axId val="253412920"/>
+        <c:axId val="254265704"/>
+        <c:axId val="254270800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="251523008"/>
+        <c:axId val="254265704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5031,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253412920"/>
+        <c:crossAx val="254270800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5036,7 +5039,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253412920"/>
+        <c:axId val="254270800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +5065,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="251523008"/>
+        <c:crossAx val="254265704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5278,11 +5281,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253409784"/>
-        <c:axId val="253413312"/>
+        <c:axId val="254267272"/>
+        <c:axId val="254264920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253409784"/>
+        <c:axId val="254267272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5299,7 +5302,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253413312"/>
+        <c:crossAx val="254264920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5307,7 +5310,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253413312"/>
+        <c:axId val="254264920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,7 +5336,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253409784"/>
+        <c:crossAx val="254267272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5483,11 +5486,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253410176"/>
-        <c:axId val="253411744"/>
+        <c:axId val="254266488"/>
+        <c:axId val="254264528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253410176"/>
+        <c:axId val="254266488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5504,7 +5507,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253411744"/>
+        <c:crossAx val="254264528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5512,7 +5515,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253411744"/>
+        <c:axId val="254264528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5538,7 +5541,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253410176"/>
+        <c:crossAx val="254266488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5553,7 +5556,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5700,11 +5702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253413704"/>
-        <c:axId val="253410568"/>
+        <c:axId val="254266880"/>
+        <c:axId val="254267664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253413704"/>
+        <c:axId val="254266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5721,7 +5723,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253410568"/>
+        <c:crossAx val="254267664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5729,7 +5731,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253410568"/>
+        <c:axId val="254267664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5755,7 +5757,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253413704"/>
+        <c:crossAx val="254266880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5770,7 +5772,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5911,11 +5912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="253414096"/>
-        <c:axId val="253414488"/>
+        <c:axId val="254268840"/>
+        <c:axId val="254270016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253414096"/>
+        <c:axId val="254268840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,7 +5933,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253414488"/>
+        <c:crossAx val="254270016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5940,7 +5941,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253414488"/>
+        <c:axId val="254270016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5966,7 +5967,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="253414096"/>
+        <c:crossAx val="254268840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5981,7 +5982,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6931,7 +6931,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6952,65 +6952,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="45" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7023,11 +7023,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -7180,27 +7180,33 @@
       <c r="C11" s="37">
         <v>77119.94</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="37">
+        <v>49870.09</v>
+      </c>
       <c r="E11" s="37">
         <v>77119.94</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37">
+        <v>32640.83</v>
+      </c>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>154239.88</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82510.92</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="J11" s="41"/>
+        <v>-0.46504807965358896</v>
+      </c>
+      <c r="J11" s="41">
+        <v>75102.05</v>
+      </c>
       <c r="K11" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>157612.97</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -7387,16 +7393,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7457,7 +7463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -7470,25 +7476,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7690,51 +7696,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8045,27 +8051,27 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="3:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="48"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="22" t="s">
         <v>46</v>
       </c>
@@ -8263,25 +8269,25 @@
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="3:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
@@ -8458,25 +8464,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
@@ -8670,29 +8676,29 @@
       <c r="D23"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="48" t="s">
+      <c r="C24" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="48"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="7" t="s">
         <v>126</v>
       </c>
@@ -8932,25 +8938,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
@@ -9149,25 +9155,25 @@
       <c r="D22"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
@@ -9335,8 +9341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9357,55 +9363,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="45" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="47"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
@@ -9424,11 +9430,11 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9507,7 +9513,7 @@
       <c r="J5" s="27">
         <v>134033.44</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="42">
         <f>(J5 /H5)-1</f>
         <v>-0.51260569045070215</v>
       </c>
@@ -9549,7 +9555,7 @@
       <c r="J6" s="27">
         <v>110127.63</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="49">
         <f t="shared" ref="K6:K16" si="2">((J6 * 100)/H6)-100</f>
         <v>-59.953590547142163</v>
       </c>
@@ -9591,7 +9597,7 @@
       <c r="J7" s="27">
         <v>145519.6</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="50">
         <f t="shared" si="2"/>
         <v>-47.083783742407867</v>
       </c>
@@ -9633,13 +9639,13 @@
       <c r="J8" s="27">
         <v>133306.70000000001</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="50">
         <f t="shared" si="2"/>
         <v>-51.524838126369517</v>
       </c>
       <c r="L8" s="9">
         <f>J8-'Desviacion de costos'!K11</f>
-        <v>133306.70000000001</v>
+        <v>-24306.26999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -9888,14 +9894,14 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="44"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
@@ -9925,21 +9931,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9961,20 +9967,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
@@ -10005,7 +10011,7 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="43" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de costos" sheetId="2" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>Planeadas</t>
   </si>
   <si>
-    <t>Apegó</t>
-  </si>
-  <si>
     <t>Promedio Mensual</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Apego</t>
   </si>
 </sst>
 </file>
@@ -679,14 +679,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -694,11 +691,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1108,11 +1108,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="252741464"/>
-        <c:axId val="252734016"/>
+        <c:axId val="250538480"/>
+        <c:axId val="250535344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="252741464"/>
+        <c:axId val="250538480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1130,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="252734016"/>
+        <c:crossAx val="250535344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1138,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252734016"/>
+        <c:axId val="250535344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1163,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="252741464"/>
+        <c:crossAx val="250538480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,11 +1314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254550480"/>
-        <c:axId val="254550872"/>
+        <c:axId val="252638736"/>
+        <c:axId val="252641872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254550480"/>
+        <c:axId val="252638736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1335,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254550872"/>
+        <c:crossAx val="252641872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1343,7 +1343,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254550872"/>
+        <c:axId val="252641872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1369,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254550480"/>
+        <c:crossAx val="252638736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,11 +1537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254551264"/>
-        <c:axId val="254548128"/>
+        <c:axId val="252640304"/>
+        <c:axId val="252640696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254551264"/>
+        <c:axId val="252640304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1558,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254548128"/>
+        <c:crossAx val="252640696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1566,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254548128"/>
+        <c:axId val="252640696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1592,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254551264"/>
+        <c:crossAx val="252640304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,11 +1773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254550088"/>
-        <c:axId val="254552832"/>
+        <c:axId val="252198664"/>
+        <c:axId val="252197096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254550088"/>
+        <c:axId val="252198664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1794,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254552832"/>
+        <c:crossAx val="252197096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1802,7 +1802,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254552832"/>
+        <c:axId val="252197096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254550088"/>
+        <c:crossAx val="252198664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,11 +1995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254548520"/>
-        <c:axId val="254555184"/>
+        <c:axId val="252196312"/>
+        <c:axId val="252198272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254548520"/>
+        <c:axId val="252196312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2016,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254555184"/>
+        <c:crossAx val="252198272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2024,7 +2024,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254555184"/>
+        <c:axId val="252198272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2050,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254548520"/>
+        <c:crossAx val="252196312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2206,11 +2206,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254551656"/>
-        <c:axId val="254554400"/>
+        <c:axId val="252201408"/>
+        <c:axId val="252199840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254551656"/>
+        <c:axId val="252201408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2227,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254554400"/>
+        <c:crossAx val="252199840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2235,7 +2235,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254554400"/>
+        <c:axId val="252199840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2261,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254551656"/>
+        <c:crossAx val="252201408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2597,11 +2597,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="254549696"/>
-        <c:axId val="254552440"/>
+        <c:axId val="252200232"/>
+        <c:axId val="252202192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254549696"/>
+        <c:axId val="252200232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,7 +2619,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254552440"/>
+        <c:crossAx val="252202192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2627,7 +2627,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254552440"/>
+        <c:axId val="252202192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2652,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254549696"/>
+        <c:crossAx val="252200232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2838,11 +2838,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="254554792"/>
-        <c:axId val="254555576"/>
+        <c:axId val="252195920"/>
+        <c:axId val="252200624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254554792"/>
+        <c:axId val="252195920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2860,7 +2860,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254555576"/>
+        <c:crossAx val="252200624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2868,7 +2868,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254555576"/>
+        <c:axId val="252200624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2895,7 +2895,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254554792"/>
+        <c:crossAx val="252195920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3061,11 +3061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314210984"/>
-        <c:axId val="314206280"/>
+        <c:axId val="252201800"/>
+        <c:axId val="252195136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314210984"/>
+        <c:axId val="252201800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3083,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314206280"/>
+        <c:crossAx val="252195136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3091,7 +3091,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314206280"/>
+        <c:axId val="252195136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,7 +3116,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314210984"/>
+        <c:crossAx val="252201800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3252,11 +3252,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314205104"/>
-        <c:axId val="314204320"/>
+        <c:axId val="252197488"/>
+        <c:axId val="252197880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314205104"/>
+        <c:axId val="252197488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3274,7 +3274,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314204320"/>
+        <c:crossAx val="252197880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3282,7 +3282,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314204320"/>
+        <c:axId val="252197880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,7 +3307,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314205104"/>
+        <c:crossAx val="252197488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3530,11 +3530,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314208632"/>
-        <c:axId val="314210592"/>
+        <c:axId val="303667456"/>
+        <c:axId val="303661184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314208632"/>
+        <c:axId val="303667456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3551,7 +3551,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314210592"/>
+        <c:crossAx val="303661184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3559,7 +3559,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314210592"/>
+        <c:axId val="303661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3585,7 +3585,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314208632"/>
+        <c:crossAx val="303667456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3781,11 +3781,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="252734408"/>
-        <c:axId val="252734800"/>
+        <c:axId val="250539656"/>
+        <c:axId val="250540440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="252734408"/>
+        <c:axId val="250539656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3803,7 +3803,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="252734800"/>
+        <c:crossAx val="250540440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3811,7 +3811,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252734800"/>
+        <c:axId val="250540440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,7 +3836,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="252734408"/>
+        <c:crossAx val="250539656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3983,11 +3983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="314204712"/>
-        <c:axId val="314205888"/>
+        <c:axId val="303664712"/>
+        <c:axId val="303666280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314204712"/>
+        <c:axId val="303664712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4004,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314205888"/>
+        <c:crossAx val="303666280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4012,7 +4012,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314205888"/>
+        <c:axId val="303666280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,7 +4038,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314204712"/>
+        <c:crossAx val="303664712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4053,7 +4053,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4361,11 +4360,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="252735976"/>
-        <c:axId val="254269624"/>
+        <c:axId val="250540832"/>
+        <c:axId val="250541224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="252735976"/>
+        <c:axId val="250540832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,7 +4381,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254269624"/>
+        <c:crossAx val="250541224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4390,7 +4389,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254269624"/>
+        <c:axId val="250541224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4416,7 +4415,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="252735976"/>
+        <c:crossAx val="250540832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4739,11 +4738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254263744"/>
-        <c:axId val="254263352"/>
+        <c:axId val="250534168"/>
+        <c:axId val="250534560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254263744"/>
+        <c:axId val="250534168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,7 +4759,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254263352"/>
+        <c:crossAx val="250534560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4768,7 +4767,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254263352"/>
+        <c:axId val="250534560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4794,7 +4793,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254263744"/>
+        <c:crossAx val="250534168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5010,11 +5009,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254265704"/>
-        <c:axId val="254270800"/>
+        <c:axId val="250536912"/>
+        <c:axId val="252634424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254265704"/>
+        <c:axId val="250536912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5031,7 +5030,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254270800"/>
+        <c:crossAx val="252634424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5039,7 +5038,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254270800"/>
+        <c:axId val="252634424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5065,7 +5064,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254265704"/>
+        <c:crossAx val="250536912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5281,11 +5280,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254267272"/>
-        <c:axId val="254264920"/>
+        <c:axId val="252635600"/>
+        <c:axId val="252639912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254267272"/>
+        <c:axId val="252635600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5302,7 +5301,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254264920"/>
+        <c:crossAx val="252639912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5310,7 +5309,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254264920"/>
+        <c:axId val="252639912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5336,7 +5335,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254267272"/>
+        <c:crossAx val="252635600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5486,11 +5485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254266488"/>
-        <c:axId val="254264528"/>
+        <c:axId val="252635992"/>
+        <c:axId val="252636384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254266488"/>
+        <c:axId val="252635992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5507,7 +5506,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254264528"/>
+        <c:crossAx val="252636384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5515,7 +5514,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254264528"/>
+        <c:axId val="252636384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,7 +5540,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254266488"/>
+        <c:crossAx val="252635992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5702,11 +5701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254266880"/>
-        <c:axId val="254267664"/>
+        <c:axId val="252641088"/>
+        <c:axId val="252639128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254266880"/>
+        <c:axId val="252641088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5723,7 +5722,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254267664"/>
+        <c:crossAx val="252639128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5731,7 +5730,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254267664"/>
+        <c:axId val="252639128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5757,7 +5756,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254266880"/>
+        <c:crossAx val="252641088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5912,11 +5911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254268840"/>
-        <c:axId val="254270016"/>
+        <c:axId val="252637560"/>
+        <c:axId val="252638344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254268840"/>
+        <c:axId val="252637560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5933,7 +5932,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254270016"/>
+        <c:crossAx val="252638344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5941,7 +5940,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254270016"/>
+        <c:axId val="252638344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,7 +5966,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="254268840"/>
+        <c:crossAx val="252637560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6952,65 +6951,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="48" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7023,11 +7022,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -7393,16 +7392,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7427,13 +7426,13 @@
   <sheetData>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7476,36 +7475,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7676,8 +7675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7696,51 +7695,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8051,27 +8050,27 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="3:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="46"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="22" t="s">
         <v>46</v>
       </c>
@@ -8269,25 +8268,25 @@
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="3:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="46"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
@@ -8464,25 +8463,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="46"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
@@ -8490,10 +8489,10 @@
         <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -8676,40 +8675,40 @@
       <c r="D23"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="46" t="s">
+      <c r="C24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="46"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>42</v>
@@ -8938,25 +8937,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="46"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
@@ -9155,25 +9154,25 @@
       <c r="D22"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="46"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
@@ -9341,8 +9340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9363,55 +9362,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="48" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="44"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
@@ -9430,11 +9429,11 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="44"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9555,7 +9554,7 @@
       <c r="J6" s="27">
         <v>110127.63</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="44">
         <f t="shared" ref="K6:K16" si="2">((J6 * 100)/H6)-100</f>
         <v>-59.953590547142163</v>
       </c>
@@ -9597,7 +9596,7 @@
       <c r="J7" s="27">
         <v>145519.6</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="45">
         <f t="shared" si="2"/>
         <v>-47.083783742407867</v>
       </c>
@@ -9639,7 +9638,7 @@
       <c r="J8" s="27">
         <v>133306.70000000001</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="45">
         <f t="shared" si="2"/>
         <v>-51.524838126369517</v>
       </c>
@@ -9894,14 +9893,14 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="48"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
@@ -9922,7 +9921,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C22" s="30">
         <f>((C21 * 100)/C20)-100</f>
@@ -9931,17 +9930,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -9967,20 +9966,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>69</v>
+      <c r="C2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
@@ -10012,7 +10011,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -10067,7 +10066,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="31">
         <f>AVERAGE(D5:D16)</f>
@@ -10105,7 +10104,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>65</v>
@@ -10149,7 +10148,7 @@
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="33">
         <f t="shared" ref="B2:B40" si="0">SUM(C2:N2)</f>
@@ -10180,7 +10179,7 @@
     </row>
     <row r="3" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="33">
         <f t="shared" si="0"/>
@@ -10205,7 +10204,7 @@
     </row>
     <row r="4" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="33">
         <f t="shared" si="0"/>
@@ -10234,7 +10233,7 @@
     </row>
     <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="33">
         <f t="shared" si="0"/>
@@ -10265,7 +10264,7 @@
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="33">
         <f t="shared" si="0"/>
@@ -10296,7 +10295,7 @@
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="33">
         <f t="shared" si="0"/>
@@ -10327,7 +10326,7 @@
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="33">
         <f t="shared" si="0"/>
@@ -10358,7 +10357,7 @@
     </row>
     <row r="9" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="33">
         <f t="shared" si="0"/>
@@ -10381,7 +10380,7 @@
     </row>
     <row r="10" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="33">
         <f t="shared" si="0"/>
@@ -10406,7 +10405,7 @@
     </row>
     <row r="11" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="33">
         <f t="shared" si="0"/>
@@ -10431,7 +10430,7 @@
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="33">
         <f t="shared" si="0"/>
@@ -10462,7 +10461,7 @@
     </row>
     <row r="13" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="33">
         <f t="shared" si="0"/>
@@ -10485,7 +10484,7 @@
     </row>
     <row r="14" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="33">
         <f t="shared" si="0"/>
@@ -10512,7 +10511,7 @@
     </row>
     <row r="15" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="33">
         <f t="shared" si="0"/>
@@ -10539,7 +10538,7 @@
     </row>
     <row r="16" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="33">
         <f t="shared" si="0"/>
@@ -10564,7 +10563,7 @@
     </row>
     <row r="17" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="33">
         <f t="shared" si="0"/>
@@ -10587,7 +10586,7 @@
     </row>
     <row r="18" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="33">
         <f t="shared" si="0"/>
@@ -10612,7 +10611,7 @@
     </row>
     <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="33">
         <f t="shared" si="0"/>
@@ -10639,7 +10638,7 @@
     </row>
     <row r="20" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="33">
         <f t="shared" si="0"/>
@@ -10664,7 +10663,7 @@
     </row>
     <row r="21" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="33">
         <f t="shared" si="0"/>
@@ -10687,7 +10686,7 @@
     </row>
     <row r="22" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="33">
         <f t="shared" si="0"/>
@@ -10710,7 +10709,7 @@
     </row>
     <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="33">
         <f t="shared" si="0"/>
@@ -10733,7 +10732,7 @@
     </row>
     <row r="24" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="33">
         <f t="shared" si="0"/>
@@ -10756,7 +10755,7 @@
     </row>
     <row r="25" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="33">
         <f t="shared" si="0"/>
@@ -10781,7 +10780,7 @@
     </row>
     <row r="26" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="33">
         <f t="shared" si="0"/>
@@ -10804,7 +10803,7 @@
     </row>
     <row r="27" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="33">
         <f t="shared" si="0"/>
@@ -10827,7 +10826,7 @@
     </row>
     <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="33">
         <f t="shared" si="0"/>
@@ -10850,7 +10849,7 @@
     </row>
     <row r="29" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="33">
         <f t="shared" si="0"/>
@@ -10873,7 +10872,7 @@
     </row>
     <row r="30" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="33">
         <f t="shared" si="0"/>
@@ -10896,7 +10895,7 @@
     </row>
     <row r="31" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" si="0"/>
@@ -10923,7 +10922,7 @@
     </row>
     <row r="32" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="33">
         <f t="shared" si="0"/>
@@ -10946,7 +10945,7 @@
     </row>
     <row r="33" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" si="0"/>
@@ -10971,7 +10970,7 @@
     </row>
     <row r="34" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="33">
         <f t="shared" si="0"/>
@@ -10994,7 +10993,7 @@
     </row>
     <row r="35" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="33">
         <f t="shared" si="0"/>
@@ -11019,7 +11018,7 @@
     </row>
     <row r="36" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="33">
         <f t="shared" si="0"/>
@@ -11040,7 +11039,7 @@
     </row>
     <row r="37" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="33">
         <f t="shared" si="0"/>
@@ -11065,7 +11064,7 @@
     </row>
     <row r="38" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="33">
         <f t="shared" si="0"/>
@@ -11088,7 +11087,7 @@
     </row>
     <row r="39" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="33">
         <f t="shared" si="0"/>
@@ -11111,7 +11110,7 @@
     </row>
     <row r="40" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="33">
         <f t="shared" si="0"/>
@@ -11133,7 +11132,7 @@
     </row>
     <row r="41" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="34"/>
@@ -11153,7 +11152,7 @@
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="34"/>
@@ -11175,7 +11174,7 @@
     </row>
     <row r="43" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="34"/>
@@ -11195,7 +11194,7 @@
     </row>
     <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="34"/>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de costos" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="151">
   <si>
     <t>Desviación de esfuerzo por proyectos planificados/reales</t>
   </si>
@@ -443,6 +443,57 @@
     <t>Fuera de
 tiempo</t>
   </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Acceso Remoto SparkView 3 conexiones licencia Anual</t>
+  </si>
+  <si>
+    <t>Contpaq i® Contabilidad U. Base Renovación Renta</t>
+  </si>
+  <si>
+    <t>Contpaq i® Factura Electrónica U. Adicional Producto Nuevo Tradicional</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial U. Adicional Actualización Especial Tradicional</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial U. Base Actualización Especial Tradicional</t>
+  </si>
+  <si>
+    <t>Easy Invoice Multi - Empresa Usuario Base Producto Nuevo Renta</t>
+  </si>
+  <si>
+    <t>Join Data</t>
+  </si>
+  <si>
+    <t>Plan Básico Marketing por Internet (Suscripción)</t>
+  </si>
+  <si>
+    <t>Póliza mensual de asesoría y soporte técnico vía remota Easy Retail
+Admin</t>
+  </si>
+  <si>
+    <t>Póliza de Servicio para Implementación, Activación y Capacitación Easy
+Retail Invoice</t>
+  </si>
+  <si>
+    <t>Paquete de 1000 Timbres Ecodex</t>
+  </si>
+  <si>
+    <t>Paquete de 4 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio
+vía Remota (Incluye 2 horas gratis por ser cliente distinguido)</t>
+  </si>
+  <si>
+    <t>Paquete de 500 Timbres Ecodex</t>
+  </si>
+  <si>
+    <t>XP/VS Terminal Server "STANDARD" 5 conexiones paquete de 1 servidor</t>
+  </si>
 </sst>
 </file>
 
@@ -673,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,9 +825,6 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -800,19 +848,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,7 +999,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>ENE-JUN, 16</a:t>
+              <a:t>ENE-JUL, 16</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1074,7 +1128,7 @@
                   <c:v>154239.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>154239.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1223,7 +1277,7 @@
                   <c:v>71878.259999999995</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.00">
-                  <c:v>0</c:v>
+                  <c:v>104383.91</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0.00">
                   <c:v>0</c:v>
@@ -1268,11 +1322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="289689392"/>
-        <c:axId val="289687824"/>
+        <c:axId val="296738648"/>
+        <c:axId val="296739040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289689392"/>
+        <c:axId val="296738648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1344,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289687824"/>
+        <c:crossAx val="296739040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1352,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289687824"/>
+        <c:axId val="296739040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1377,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289689392"/>
+        <c:crossAx val="296738648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,11 +1534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291244688"/>
-        <c:axId val="291245864"/>
+        <c:axId val="298713752"/>
+        <c:axId val="298715320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291244688"/>
+        <c:axId val="298713752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1555,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291245864"/>
+        <c:crossAx val="298715320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +1563,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291245864"/>
+        <c:axId val="298715320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,7 +1589,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291244688"/>
+        <c:crossAx val="298713752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1550,6 +1604,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1567,7 +1622,9 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -1655,7 +1712,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.94499999999999995</c:v>
+                  <c:v>0.95285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,11 +1741,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291246648"/>
-        <c:axId val="289685472"/>
+        <c:axId val="298714536"/>
+        <c:axId val="298716888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291246648"/>
+        <c:axId val="298714536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,7 +1762,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289685472"/>
+        <c:crossAx val="298716888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1713,7 +1770,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289685472"/>
+        <c:axId val="298716888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1796,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291246648"/>
+        <c:crossAx val="298714536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,6 +1811,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1771,7 +1829,9 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -1797,6 +1857,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1838,11 +1899,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Funcional!$C$10</c:f>
+              <c:f>Funcional!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Junio</c:v>
+                  <c:v>Julio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1876,7 +1937,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Funcional!$D$10:$F$10</c:f>
+              <c:f>Funcional!$D$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1897,11 +1958,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="289686256"/>
-        <c:axId val="291357248"/>
+        <c:axId val="298717280"/>
+        <c:axId val="298902768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289686256"/>
+        <c:axId val="298717280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +2005,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291357248"/>
+        <c:crossAx val="298902768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1952,7 +2013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291357248"/>
+        <c:axId val="298902768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2064,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289686256"/>
+        <c:crossAx val="298717280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2145,10 +2206,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96666666666666667</c:v>
+                  <c:v>0.97142857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,11 +2238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291351760"/>
-        <c:axId val="291350976"/>
+        <c:axId val="298898064"/>
+        <c:axId val="298900808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291351760"/>
+        <c:axId val="298898064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,7 +2259,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291350976"/>
+        <c:crossAx val="298900808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2206,7 +2267,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291350976"/>
+        <c:axId val="298900808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2293,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291351760"/>
+        <c:crossAx val="298898064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2247,6 +2308,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2384,7 +2446,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9778</c:v>
+                  <c:v>0.98414285714285721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,11 +2475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291350192"/>
-        <c:axId val="291354896"/>
+        <c:axId val="298897672"/>
+        <c:axId val="298901200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291350192"/>
+        <c:axId val="298897672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,7 +2496,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291354896"/>
+        <c:crossAx val="298901200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2442,7 +2504,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291354896"/>
+        <c:axId val="298901200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2530,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291350192"/>
+        <c:crossAx val="298897672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2483,6 +2545,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2526,6 +2589,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2567,11 +2631,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$10</c:f>
+              <c:f>'Apego a Productos'!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Junio</c:v>
+                  <c:v>Julio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2609,7 +2673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$D$10:$G$10</c:f>
+              <c:f>'Apego a Productos'!$D$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2639,11 +2703,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="291352544"/>
-        <c:axId val="291355288"/>
+        <c:axId val="298899632"/>
+        <c:axId val="298901592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291352544"/>
+        <c:axId val="298899632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +2750,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291355288"/>
+        <c:crossAx val="298901592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2694,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291355288"/>
+        <c:axId val="298901592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2809,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291352544"/>
+        <c:crossAx val="298899632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2809,6 +2873,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2850,11 +2915,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$46</c:f>
+              <c:f>'Apego a Productos'!$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mayo</c:v>
+                  <c:v>Julio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2899,7 +2964,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$D$46:$I$46</c:f>
+              <c:f>'Apego a Productos'!$D$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2920,11 +2985,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="291352936"/>
-        <c:axId val="291356072"/>
+        <c:axId val="298901984"/>
+        <c:axId val="298900416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291352936"/>
+        <c:axId val="298901984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +3032,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291356072"/>
+        <c:crossAx val="298900416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2975,7 +3040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291356072"/>
+        <c:axId val="298900416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3091,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291352936"/>
+        <c:crossAx val="298901984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3167,7 +3232,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.88093333333333346</c:v>
+                  <c:v>0.89794285714285726</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3199,11 +3264,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291356856"/>
-        <c:axId val="291353328"/>
+        <c:axId val="298902376"/>
+        <c:axId val="298903552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291356856"/>
+        <c:axId val="298902376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3220,7 +3285,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291353328"/>
+        <c:crossAx val="298903552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3228,7 +3293,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291353328"/>
+        <c:axId val="298903552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,7 +3319,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291356856"/>
+        <c:crossAx val="298902376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3269,6 +3334,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3410,11 +3476,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291350584"/>
-        <c:axId val="291354112"/>
+        <c:axId val="298898848"/>
+        <c:axId val="298896888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291350584"/>
+        <c:axId val="298898848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,7 +3497,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291354112"/>
+        <c:crossAx val="298896888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3439,7 +3505,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291354112"/>
+        <c:axId val="298896888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3465,7 +3531,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291350584"/>
+        <c:crossAx val="298898848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3480,6 +3546,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3523,6 +3590,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3564,11 +3632,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$C$10</c:f>
+              <c:f>'Apego a Procesos'!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Junio</c:v>
+                  <c:v>Julio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3605,7 +3673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$D$10:$G$10</c:f>
+              <c:f>'Apego a Procesos'!$D$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3635,11 +3703,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298138200"/>
-        <c:axId val="298133496"/>
+        <c:axId val="312495040"/>
+        <c:axId val="312493080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298138200"/>
+        <c:axId val="312495040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3682,7 +3750,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298133496"/>
+        <c:crossAx val="312493080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3690,7 +3758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298133496"/>
+        <c:axId val="312493080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,7 +3809,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298138200"/>
+        <c:crossAx val="312495040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3821,7 +3889,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" baseline="0"/>
-              <a:t>ENE-JUN, 16</a:t>
+              <a:t>ENE-JUL, 16</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3945,7 +4013,7 @@
                   <c:v>-0.53398394760161905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.323236571501482</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3990,11 +4058,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="289688608"/>
-        <c:axId val="289683512"/>
+        <c:axId val="296734728"/>
+        <c:axId val="296736688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289688608"/>
+        <c:axId val="296734728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4012,7 +4080,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289683512"/>
+        <c:crossAx val="296736688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4020,7 +4088,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289683512"/>
+        <c:axId val="296736688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,7 +4113,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289688608"/>
+        <c:crossAx val="296734728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4207,7 +4275,7 @@
                   <c:v>275000.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>275000.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4347,6 +4415,9 @@
                 <c:pt idx="5">
                   <c:v>134522</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>282548.76</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4375,11 +4446,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298135064"/>
-        <c:axId val="298133888"/>
+        <c:axId val="312488768"/>
+        <c:axId val="312489944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298135064"/>
+        <c:axId val="312488768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4397,7 +4468,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298133888"/>
+        <c:crossAx val="312489944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4405,7 +4476,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298133888"/>
+        <c:axId val="312489944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4430,7 +4501,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298135064"/>
+        <c:crossAx val="312488768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4591,6 +4662,9 @@
                 <c:pt idx="5" formatCode="0%">
                   <c:v>0.73329999999999995</c:v>
                 </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4619,11 +4693,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298132320"/>
-        <c:axId val="298136240"/>
+        <c:axId val="312487984"/>
+        <c:axId val="312489552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298132320"/>
+        <c:axId val="312487984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4641,7 +4715,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298136240"/>
+        <c:crossAx val="312489552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4649,7 +4723,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298136240"/>
+        <c:axId val="312489552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4676,7 +4750,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298132320"/>
+        <c:crossAx val="312487984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4717,7 +4791,26 @@
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Julio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4760,59 +4853,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Producto!$B$8:$B$46</c:f>
+              <c:f>Producto!$B$6:$B$60</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Contpaq i® CFDI en linea+ Producto Nuevo Monoempresa Renta</c:v>
+                  <c:v>Paquete de 2 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota (Incluye 2 horas gratis por ser cliente distinguido)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Contpaq i® Contabilidad U. Base Actualización Especial Tradicional</c:v>
+                  <c:v>Servicio de Asesoría y Soporte Técnico Vía Remota</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Contpaq i® Nominas U. Base Actualización Especial Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Paquete de 5 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Contpaq i® Nominas U. Base Producto Nuevo Renta</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>Contpaq i® Comercial U. Adicional Producto Nuevo Renta</c:v>
+                  <c:v>Contpaq i® Nominas U. Adicional Producto Nuevo Renta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Servicio de Asesoría y Soporte Contpaqi Contabilidad Vía Remota</c:v>
+                  <c:v>Contpaq i® Comercial U. Adicional Actualización Especial Tradicional</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Contpaq i® Nominas U. Adicional Producto Nuevo Renta</c:v>
+                  <c:v>Contpaq i® Comercial U. Base Actualización Especial Tradicional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Producto!$C$8:$C$46</c:f>
+              <c:f>Producto!$J$6:$J$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4842,11 +4935,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298136632"/>
-        <c:axId val="298137024"/>
+        <c:axId val="312495432"/>
+        <c:axId val="312488376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298136632"/>
+        <c:axId val="312495432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4864,7 +4957,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298137024"/>
+        <c:crossAx val="312488376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4872,7 +4965,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298137024"/>
+        <c:axId val="312488376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4897,10 +4990,16 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298136632"/>
+        <c:crossAx val="312495432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5085,6 +5184,9 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5167,6 +5269,9 @@
                 <c:pt idx="5">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5181,11 +5286,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298133104"/>
-        <c:axId val="298137416"/>
+        <c:axId val="312492296"/>
+        <c:axId val="312489160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298133104"/>
+        <c:axId val="312492296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5228,7 +5333,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298137416"/>
+        <c:crossAx val="312489160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5236,7 +5341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298137416"/>
+        <c:axId val="312489160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5287,7 +5392,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298133104"/>
+        <c:crossAx val="312492296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5522,6 +5627,9 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5604,6 +5712,9 @@
                 <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5618,11 +5729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298137808"/>
-        <c:axId val="298138592"/>
+        <c:axId val="312492688"/>
+        <c:axId val="312491120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298137808"/>
+        <c:axId val="312492688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5665,7 +5776,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298138592"/>
+        <c:crossAx val="312491120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5673,7 +5784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298138592"/>
+        <c:axId val="312491120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5724,7 +5835,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298137808"/>
+        <c:crossAx val="312492688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5850,6 +5961,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5946,6 +6058,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -5976,35 +6102,53 @@
                 <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Monitoreo de Actividades'!$C$4:$F$4</c:f>
+              <c:f>'Monitoreo de Actividades'!$C$4:$G$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Planeación Anual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Organizacionales</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Compras</c:v>
                 </c:pt>
               </c:strCache>
@@ -6012,21 +6156,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Monitoreo de Actividades'!$C$17:$F$17</c:f>
+              <c:f>'Monitoreo de Actividades'!$C$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77776666666666661</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56666666666666665</c:v>
+                  <c:v>0.83332499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6034,8 +6181,9 @@
           <c:extLst/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -6043,11 +6191,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298131536"/>
-        <c:axId val="298132712"/>
+        <c:axId val="312491904"/>
+        <c:axId val="312493864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298131536"/>
+        <c:axId val="312491904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,7 +6238,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298132712"/>
+        <c:crossAx val="312493864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6098,7 +6246,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298132712"/>
+        <c:axId val="312493864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6149,7 +6297,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298131536"/>
+        <c:crossAx val="312491904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6163,6 +6311,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6195,6 +6344,620 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Julio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monitoreo de Actividades'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monitoreo de Actividades'!$C$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Planeación Anual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organizacionales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Compras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monitoreo de Actividades'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monitoreo de Actividades'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monitoreo de Actividades'!$C$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Planeación Anual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organizacionales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Compras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monitoreo de Actividades'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monitoreo de Actividades'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Julio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monitoreo de Actividades'!$C$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Planeación Anual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organizacionales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Compras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monitoreo de Actividades'!$C$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="318311440"/>
+        <c:axId val="318310656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="318311440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318310656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="318310656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318311440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6380,6 +7143,9 @@
                 <c:pt idx="5">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6511,6 +7277,9 @@
                 <c:pt idx="5">
                   <c:v>54</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6538,11 +7307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="289686648"/>
-        <c:axId val="289684296"/>
+        <c:axId val="296735512"/>
+        <c:axId val="296735904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289686648"/>
+        <c:axId val="296735512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6559,7 +7328,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289684296"/>
+        <c:crossAx val="296735904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6567,7 +7336,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289684296"/>
+        <c:axId val="296735904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6593,7 +7362,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289686648"/>
+        <c:crossAx val="296735512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6783,6 +7552,9 @@
                 <c:pt idx="5">
                   <c:v>126</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>126</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6914,6 +7686,9 @@
                 <c:pt idx="5">
                   <c:v>143</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6941,11 +7716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="289690176"/>
-        <c:axId val="289684688"/>
+        <c:axId val="296740216"/>
+        <c:axId val="296740608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289690176"/>
+        <c:axId val="296740216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6962,7 +7737,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289684688"/>
+        <c:crossAx val="296740608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6970,7 +7745,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289684688"/>
+        <c:axId val="296740608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6996,7 +7771,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="289690176"/>
+        <c:crossAx val="296740216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7192,7 +7967,7 @@
                   <c:v>-0.32499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.2499999999999956E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -7236,11 +8011,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291249000"/>
-        <c:axId val="291241552"/>
+        <c:axId val="296733552"/>
+        <c:axId val="296734336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291249000"/>
+        <c:axId val="296733552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7257,7 +8032,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291241552"/>
+        <c:crossAx val="296734336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7265,7 +8040,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291241552"/>
+        <c:axId val="296734336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7291,7 +8066,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291249000"/>
+        <c:crossAx val="296733552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7482,7 +8257,7 @@
                   <c:v>0.13492063492063489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.47619047619047628</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -7526,11 +8301,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291243904"/>
-        <c:axId val="291244296"/>
+        <c:axId val="298714928"/>
+        <c:axId val="298716104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291243904"/>
+        <c:axId val="298714928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7547,7 +8322,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291244296"/>
+        <c:crossAx val="298716104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7555,7 +8330,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291244296"/>
+        <c:axId val="298716104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7581,7 +8356,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291243904"/>
+        <c:crossAx val="298714928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7702,7 +8477,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,11 +8506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291242336"/>
-        <c:axId val="291246256"/>
+        <c:axId val="298718064"/>
+        <c:axId val="298716496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291242336"/>
+        <c:axId val="298718064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7752,7 +8527,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291246256"/>
+        <c:crossAx val="298716496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7760,7 +8535,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291246256"/>
+        <c:axId val="298716496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7786,7 +8561,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291242336"/>
+        <c:crossAx val="298718064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7801,6 +8576,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7947,11 +8723,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="291247824"/>
-        <c:axId val="291242728"/>
+        <c:axId val="298717672"/>
+        <c:axId val="298719240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291247824"/>
+        <c:axId val="298717672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7968,7 +8744,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291242728"/>
+        <c:crossAx val="298719240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7976,7 +8752,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291242728"/>
+        <c:axId val="298719240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8002,7 +8778,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="291247824"/>
+        <c:crossAx val="298717672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8017,6 +8793,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8060,6 +8837,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8101,11 +8879,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Física!$C$12</c:f>
+              <c:f>Física!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Junio</c:v>
+                  <c:v>Julio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8170,7 +8948,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Física!$D$12:$G$12</c:f>
+              <c:f>Física!$D$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8191,11 +8969,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="291248216"/>
-        <c:axId val="291248608"/>
+        <c:axId val="298712184"/>
+        <c:axId val="298712576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291248216"/>
+        <c:axId val="298712184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8238,7 +9016,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291248608"/>
+        <c:crossAx val="298712576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8246,7 +9024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291248608"/>
+        <c:axId val="298712576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8297,7 +9075,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291248216"/>
+        <c:crossAx val="298712184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8666,6 +9444,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -12210,6 +13025,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12846,13 +14164,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>461040</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>79300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>530160</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>64540</xdr:rowOff>
@@ -12869,6 +14187,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13102,15 +14450,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304745</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>173260</xdr:rowOff>
+      <xdr:colOff>266645</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>364560</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>143140</xdr:rowOff>
+      <xdr:colOff>326460</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>105040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13132,15 +14480,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1369440</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:colOff>874140</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768435</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:colOff>273135</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13488,13 +14836,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>565200</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>41600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>221640</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13782,8 +15130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13804,23 +15152,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -13829,24 +15177,24 @@
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="58" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>25</v>
       </c>
@@ -13855,14 +15203,14 @@
         <v>26</v>
       </c>
       <c r="F5" s="56"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -13875,11 +15223,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -14098,29 +15446,39 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="35">
+        <v>77119.94</v>
+      </c>
+      <c r="D13" s="35">
+        <v>42181.83</v>
+      </c>
+      <c r="E13" s="35">
+        <v>77119.94</v>
+      </c>
+      <c r="F13" s="35">
+        <v>62202.080000000002</v>
+      </c>
       <c r="G13" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154239.88</v>
       </c>
       <c r="H13" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11" t="e">
+        <v>104383.91</v>
+      </c>
+      <c r="I13" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="39"/>
+        <v>-0.323236571501482</v>
+      </c>
+      <c r="J13" s="39">
+        <v>104298.63</v>
+      </c>
       <c r="K13" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>208682.54</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -14255,16 +15613,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14277,7 +15635,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14300,20 +15658,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-    </row>
-    <row r="3" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="59"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="60"/>
       <c r="C3" s="56" t="s">
         <v>128</v>
       </c>
@@ -14326,23 +15684,23 @@
       <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>133</v>
       </c>
     </row>
@@ -14367,8 +15725,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -14380,8 +15738,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -14393,8 +15751,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -14406,8 +15764,8 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -14433,27 +15791,35 @@
         <f t="shared" ref="H10:H16" si="0">F10/(F10+G10+X19+Y19)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="e">
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" ref="E11:E16" si="1">C11/(C11+D11+F11+G11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5" t="e">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -14471,8 +15837,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -14490,8 +15856,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -14509,8 +15875,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -14528,8 +15894,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -14547,18 +15913,18 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14579,21 +15945,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125"/>
-    <col min="4" max="4" width="18.140625"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24"/>
+    <col min="5" max="5" width="18.140625"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
@@ -14603,113 +15969,175 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="56"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="16">
         <v>0.25</v>
       </c>
-      <c r="D7" s="16">
-        <v>1</v>
+      <c r="D7" s="53" t="s">
+        <v>136</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
       </c>
       <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="16">
         <v>0.6</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16">
+      <c r="D8" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="16">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F8" s="16">
+      <c r="G8" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="16">
         <v>0.75</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16">
+      <c r="D9" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="16">
+      <c r="G9" s="16">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -14717,8 +16145,9 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
@@ -14726,8 +16155,9 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -14735,8 +16165,9 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -14744,8 +16175,9 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
@@ -14753,32 +16185,37 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="20">
         <f>AVERAGE(C5:C16)</f>
-        <v>0.53333333333333333</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D17" s="19">
         <f>AVERAGE(D5:D16)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="19">
         <f>AVERAGE(E5:E16)</f>
-        <v>0.77776666666666661</v>
-      </c>
-      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="34">
         <f>AVERAGE(F5:F16)</f>
-        <v>0.56666666666666665</v>
+        <v>0.83332499999999998</v>
+      </c>
+      <c r="G17" s="19">
+        <f>AVERAGE(G5:G16)</f>
+        <v>0.67500000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="C2:G3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14794,8 +16231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14814,22 +16251,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="56" t="s">
@@ -15035,17 +16472,25 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="e">
+      <c r="C13" s="4">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5" t="e">
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>126</v>
+      </c>
+      <c r="G13" s="4">
+        <v>186</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.47619047619047628</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -15151,8 +16596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15183,18 +16628,18 @@
       <c r="D4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="56"/>
@@ -15287,7 +16732,9 @@
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -15343,7 +16790,7 @@
       </c>
       <c r="D19" s="20">
         <f>AVERAGE(D7:D18)</f>
-        <v>0.75</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E19" s="19">
         <f>AVERAGE(E7:E18)</f>
@@ -15375,7 +16822,7 @@
   <dimension ref="C1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15400,19 +16847,19 @@
       <c r="C2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="56"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="56"/>
@@ -15494,7 +16941,9 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
@@ -15544,7 +16993,7 @@
       </c>
       <c r="D17" s="19">
         <f>AVERAGE(D5:D16)</f>
-        <v>0.94499999999999995</v>
+        <v>0.95285714285714285</v>
       </c>
       <c r="E17" s="19">
         <f>AVERAGE(E5:E16)</f>
@@ -15572,8 +17021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A48" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15732,10 +17181,18 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
@@ -15794,13 +17251,13 @@
         <f>AVERAGE(E5:E16)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f>AVERAGE(F5:F16)</f>
-        <v>0.83333333333333337</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G17" s="19">
         <f>AVERAGE(G5:G16)</f>
-        <v>0.96666666666666667</v>
+        <v>0.97142857142857142</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -15993,7 +17450,9 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="I47" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
@@ -16004,7 +17463,9 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="I48" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
@@ -16087,7 +17548,7 @@
       </c>
       <c r="I54" s="19">
         <f t="shared" si="0"/>
-        <v>0.9778</v>
+        <v>0.98414285714285721</v>
       </c>
     </row>
   </sheetData>
@@ -16107,8 +17568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16269,10 +17730,18 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
@@ -16333,7 +17802,7 @@
       </c>
       <c r="F17" s="16">
         <f>AVERAGE(F5:F16)</f>
-        <v>0.88093333333333346</v>
+        <v>0.89794285714285726</v>
       </c>
       <c r="G17" s="15">
         <f>AVERAGE(G5:G16)</f>
@@ -16590,8 +18059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16623,19 +18092,19 @@
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="54" t="s">
         <v>58</v>
       </c>
     </row>
@@ -16653,11 +18122,11 @@
         <v>61</v>
       </c>
       <c r="H3" s="56"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="55"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="56"/>
@@ -16679,11 +18148,11 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="55"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -16762,9 +18231,9 @@
       <c r="K6" s="27">
         <v>134033.44</v>
       </c>
-      <c r="L6" s="44">
-        <f>(K6 /I6)-1</f>
-        <v>-0.51260569045070215</v>
+      <c r="L6" s="43">
+        <f>((K6 * 100)/I6)-100</f>
+        <v>-51.26056904507022</v>
       </c>
       <c r="M6" s="9">
         <f>K6-'Desviacion de costos'!K8</f>
@@ -16804,7 +18273,7 @@
       <c r="K7" s="27">
         <v>110127.63</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="44">
         <f t="shared" ref="L7:L17" si="2">((K7 * 100)/I7)-100</f>
         <v>-59.953590547142163</v>
       </c>
@@ -16846,7 +18315,7 @@
       <c r="K8" s="27">
         <v>145519.6</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="45">
         <f t="shared" si="2"/>
         <v>-47.083783742407867</v>
       </c>
@@ -16888,7 +18357,7 @@
       <c r="K9" s="27">
         <v>133306.70000000001</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="45">
         <f t="shared" si="2"/>
         <v>-51.524838126369517</v>
       </c>
@@ -16930,7 +18399,7 @@
       <c r="K10" s="27">
         <v>134522</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="45">
         <f t="shared" si="2"/>
         <v>-51.082910869712336</v>
       </c>
@@ -16943,28 +18412,42 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="D11" s="10">
+        <v>41955</v>
+      </c>
+      <c r="E11" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="F11" s="10">
+        <v>127174</v>
+      </c>
+      <c r="G11" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="H11" s="10">
+        <v>73002</v>
+      </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>275000.01</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="47" t="e">
+        <v>242131</v>
+      </c>
+      <c r="K11" s="27">
+        <v>282548.76</v>
+      </c>
+      <c r="L11" s="46">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.7449999001818242</v>
       </c>
       <c r="M11" s="9">
         <f>K11-'Desviacion de costos'!K13</f>
-        <v>0</v>
+        <v>73866.22</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -16986,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="27"/>
-      <c r="L12" s="47" t="e">
+      <c r="L12" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -17014,7 +18497,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="27"/>
-      <c r="L13" s="47" t="e">
+      <c r="L13" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -17042,7 +18525,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="L14" s="47" t="e">
+      <c r="L14" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -17070,7 +18553,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="27"/>
-      <c r="L15" s="47" t="e">
+      <c r="L15" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -17098,7 +18581,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="27"/>
-      <c r="L16" s="47" t="e">
+      <c r="L16" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -17113,58 +18596,58 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" ref="C17:K17" si="3">SUM(C5:C16)</f>
-        <v>458333.35</v>
+        <v>550000.02</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="3"/>
-        <v>145422</v>
+        <v>187377</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="3"/>
-        <v>595833.35</v>
+        <v>687500.02</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="3"/>
-        <v>262667.51</v>
+        <v>389841.51</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="3"/>
-        <v>595833.35</v>
+        <v>687500.02</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="3"/>
-        <v>197260.93</v>
+        <v>270262.93</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="3"/>
-        <v>1650000.05</v>
+        <v>1925000.06</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="3"/>
-        <v>605350.43999999994</v>
+        <v>847481.44</v>
       </c>
       <c r="K17" s="27">
         <f t="shared" si="3"/>
-        <v>837081.85000000009</v>
-      </c>
-      <c r="L17" s="46">
+        <v>1119630.6100000001</v>
+      </c>
+      <c r="L17" s="45">
         <f t="shared" si="2"/>
-        <v>-49.26776820400702</v>
+        <v>-41.837372721952015</v>
       </c>
       <c r="M17" s="9">
         <f>K17-'Desviacion de costos'!K19</f>
-        <v>837081.85000000009</v>
+        <v>1119630.6100000001</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" s="28" t="s">
@@ -17180,7 +18663,7 @@
       </c>
       <c r="D22" s="10">
         <f>K17</f>
-        <v>837081.85000000009</v>
+        <v>1119630.6100000001</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -17189,7 +18672,7 @@
       </c>
       <c r="D23" s="42">
         <f>((D22 * 100)/D21)-100</f>
-        <v>-74.63388333333333</v>
+        <v>-66.071799696969691</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -17198,22 +18681,22 @@
       </c>
       <c r="D24" s="41">
         <f>D22/D21</f>
-        <v>0.25366116666666672</v>
+        <v>0.33928200303030304</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -17226,7 +18709,7 @@
   <dimension ref="C2:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17242,7 +18725,7 @@
       <c r="C2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="57" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17252,7 +18735,7 @@
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="56"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
@@ -17307,7 +18790,9 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
@@ -17345,7 +18830,7 @@
       </c>
       <c r="D17" s="29">
         <f>AVERAGE(D5:D16)</f>
-        <v>0.9234</v>
+        <v>0.9361666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -17361,11 +18846,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O50"/>
+  <dimension ref="B2:O64"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17421,13 +18906,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="31">
         <f t="shared" ref="C3:C45" si="0">SUM(D3:O3)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="32">
         <v>10</v>
@@ -17447,20 +18932,22 @@
       <c r="I3" s="3">
         <v>4</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="31">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="32">
         <v>19</v>
@@ -17474,7 +18961,9 @@
       <c r="I4" s="3">
         <v>4</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -17487,7 +18976,7 @@
       </c>
       <c r="C5" s="31">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="32">
         <v>10</v>
@@ -17503,7 +18992,9 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -17516,7 +19007,7 @@
       </c>
       <c r="C6" s="31">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D6" s="32">
         <v>12</v>
@@ -17536,20 +19027,22 @@
       <c r="I6" s="3">
         <v>22</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>34</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="31">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D7" s="32">
         <v>33</v>
@@ -17567,20 +19060,22 @@
         <v>10</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>24</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="31">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="32">
         <v>4</v>
@@ -17600,14 +19095,16 @@
       <c r="I8" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>76</v>
       </c>
@@ -17688,13 +19185,13 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" s="32">
         <v>3</v>
@@ -17706,7 +19203,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <v>8</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -17719,7 +19218,7 @@
       </c>
       <c r="C13" s="31">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="32">
         <v>2</v>
@@ -17739,7 +19238,9 @@
       <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>5</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -17902,7 +19403,7 @@
       </c>
       <c r="C20" s="31">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="32">
         <v>1</v>
@@ -17916,7 +19417,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -17994,13 +19497,13 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -18012,7 +19515,9 @@
       <c r="I24" s="3">
         <v>3</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -18025,7 +19530,7 @@
       </c>
       <c r="C25" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="32">
         <v>4</v>
@@ -18035,7 +19540,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -18048,7 +19555,7 @@
       </c>
       <c r="C26" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="32">
         <v>1</v>
@@ -18060,7 +19567,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -18090,7 +19599,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>95</v>
       </c>
@@ -18376,7 +19885,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="31" t="s">
         <v>107</v>
       </c>
@@ -18452,7 +19961,7 @@
       </c>
       <c r="C43" s="31">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
@@ -18464,7 +19973,9 @@
         <v>4</v>
       </c>
       <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="J43" s="32">
+        <v>2</v>
+      </c>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
@@ -18500,7 +20011,7 @@
       </c>
       <c r="C45" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -18510,44 +20021,326 @@
       <c r="I45" s="32">
         <v>3</v>
       </c>
-      <c r="J45" s="32"/>
+      <c r="J45" s="32">
+        <v>5</v>
+      </c>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
     </row>
-    <row r="46" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C46" s="31"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
-      <c r="H46" s="32">
-        <v>3</v>
-      </c>
+      <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
+      <c r="J46" s="32">
+        <v>1</v>
+      </c>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="33"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
+    <row r="47" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32">
+        <v>2</v>
+      </c>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+    </row>
+    <row r="48" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32">
+        <v>1</v>
+      </c>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+    </row>
+    <row r="49" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32">
+        <v>12</v>
+      </c>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+    </row>
+    <row r="50" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32">
+        <v>8</v>
+      </c>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+    </row>
+    <row r="51" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32">
+        <v>1</v>
+      </c>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+    </row>
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32">
+        <v>1</v>
+      </c>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+    </row>
+    <row r="53" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32">
+        <v>1</v>
+      </c>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+    </row>
+    <row r="54" spans="2:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32">
+        <v>1</v>
+      </c>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+    </row>
+    <row r="55" spans="2:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32">
+        <v>1</v>
+      </c>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+    </row>
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32">
+        <v>2</v>
+      </c>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+    </row>
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32">
+        <v>1</v>
+      </c>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+    </row>
+    <row r="58" spans="2:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32">
+        <v>1</v>
+      </c>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+    </row>
+    <row r="59" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32">
+        <v>1</v>
+      </c>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+    </row>
+    <row r="60" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32">
+        <v>3</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="33"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="33"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_Métricas_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de costos" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,15 @@
     <sheet name="Actividades" sheetId="10" r:id="rId10"/>
     <sheet name="Monitoreo de Actividades" sheetId="11" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Producto!$K$2:$K$65</definedName>
+  </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
   <si>
     <t>Desviación de esfuerzo por proyectos planificados/reales</t>
   </si>
@@ -494,6 +497,12 @@
   <si>
     <t>XP/VS Terminal Server "STANDARD" 5 conexiones paquete de 1 servidor</t>
   </si>
+  <si>
+    <t>Hora de Desarrollo SOS Software</t>
+  </si>
+  <si>
+    <t>Indice de Satisfaccion</t>
+  </si>
 </sst>
 </file>
 
@@ -724,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,6 +862,12 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,11 +895,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,7 +1017,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>ENE-JUL, 16</a:t>
+              <a:t>ENE-AGO, 16</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1037,28 +1055,6 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Desviacion de costos'!$B$7:$B$18</c:f>
@@ -1131,7 +1127,7 @@
                   <c:v>154239.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>154239.88</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1186,28 +1182,6 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Desviacion de costos'!$B$7:$B$18</c:f>
@@ -1280,7 +1254,7 @@
                   <c:v>104383.91</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0.00">
-                  <c:v>0</c:v>
+                  <c:v>102436.16</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0.00">
                   <c:v>0</c:v>
@@ -1322,11 +1296,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="296738648"/>
-        <c:axId val="296739040"/>
+        <c:axId val="286837056"/>
+        <c:axId val="286837840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296738648"/>
+        <c:axId val="286837056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1318,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296739040"/>
+        <c:crossAx val="286837840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1326,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296739040"/>
+        <c:axId val="286837840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1351,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296738648"/>
+        <c:crossAx val="286837056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,17 +1441,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1526,19 +1501,20 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298713752"/>
-        <c:axId val="298715320"/>
+        <c:axId val="290605952"/>
+        <c:axId val="290604384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298713752"/>
+        <c:axId val="290605952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1531,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298715320"/>
+        <c:crossAx val="290604384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1563,7 +1539,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298715320"/>
+        <c:axId val="290604384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1565,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298713752"/>
+        <c:crossAx val="290605952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1680,17 +1656,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1712,7 +1689,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.95285714285714285</c:v>
+                  <c:v>0.95874999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,19 +1710,20 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298714536"/>
-        <c:axId val="298716888"/>
+        <c:axId val="290604776"/>
+        <c:axId val="290605168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298714536"/>
+        <c:axId val="290604776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1740,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298716888"/>
+        <c:crossAx val="290605168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1770,7 +1748,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298716888"/>
+        <c:axId val="290605168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1774,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298714536"/>
+        <c:crossAx val="290604776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1899,11 +1877,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Funcional!$C$11</c:f>
+              <c:f>Funcional!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Julio</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1918,6 +1896,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Funcional!$D$4:$F$4</c:f>
@@ -1937,7 +1974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Funcional!$D$11:$F$11</c:f>
+              <c:f>Funcional!$D$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1949,8 +1986,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1958,11 +1996,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298717280"/>
-        <c:axId val="298902768"/>
+        <c:axId val="290600072"/>
+        <c:axId val="290606344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298717280"/>
+        <c:axId val="290600072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2043,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298902768"/>
+        <c:crossAx val="290606344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2013,7 +2051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298902768"/>
+        <c:axId val="290606344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,7 +2102,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298717280"/>
+        <c:crossAx val="290600072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2158,17 +2196,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2206,10 +2245,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97142857142857142</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,11 +2277,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298898064"/>
-        <c:axId val="298900808"/>
+        <c:axId val="290606736"/>
+        <c:axId val="290597328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298898064"/>
+        <c:axId val="290606736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2298,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298900808"/>
+        <c:crossAx val="290597328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,9 +2306,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298900808"/>
+        <c:axId val="290597328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2293,7 +2333,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298898064"/>
+        <c:crossAx val="290606736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2382,17 +2422,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2446,7 +2487,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98414285714285721</c:v>
+                  <c:v>0.98612500000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,19 +2508,20 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298897672"/>
-        <c:axId val="298901200"/>
+        <c:axId val="290609088"/>
+        <c:axId val="290607128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298897672"/>
+        <c:axId val="290609088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2538,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298901200"/>
+        <c:crossAx val="290607128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,9 +2546,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298901200"/>
+        <c:axId val="290607128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2530,7 +2573,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298897672"/>
+        <c:crossAx val="290609088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2631,11 +2674,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$11</c:f>
+              <c:f>'Apego a Productos'!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Julio</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2650,6 +2693,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Apego a Productos'!$D$4:$G$4</c:f>
@@ -2673,7 +2775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$D$11:$G$11</c:f>
+              <c:f>'Apego a Productos'!$D$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2703,11 +2805,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298899632"/>
-        <c:axId val="298901592"/>
+        <c:axId val="290597720"/>
+        <c:axId val="290598112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298899632"/>
+        <c:axId val="290597720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2852,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298901592"/>
+        <c:crossAx val="290598112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298901592"/>
+        <c:axId val="290598112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2911,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298899632"/>
+        <c:crossAx val="290597720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,11 +3017,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$48</c:f>
+              <c:f>'Apego a Productos'!$C$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Julio</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2964,7 +3066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$D$48:$I$48</c:f>
+              <c:f>'Apego a Productos'!$D$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2985,11 +3087,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="298901984"/>
-        <c:axId val="298900416"/>
+        <c:axId val="290611440"/>
+        <c:axId val="290612616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298901984"/>
+        <c:axId val="290611440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3134,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298900416"/>
+        <c:crossAx val="290612616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3040,7 +3142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298900416"/>
+        <c:axId val="290612616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,7 +3193,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298901984"/>
+        <c:crossAx val="290611440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3185,17 +3287,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3232,7 +3335,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.89794285714285726</c:v>
+                  <c:v>0.91070000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3256,19 +3359,20 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298902376"/>
-        <c:axId val="298903552"/>
+        <c:axId val="290610656"/>
+        <c:axId val="290612224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298902376"/>
+        <c:axId val="290610656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,7 +3389,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298903552"/>
+        <c:crossAx val="290612224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3293,9 +3397,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298903552"/>
+        <c:axId val="290612224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3319,7 +3424,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298902376"/>
+        <c:crossAx val="290610656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3397,17 +3502,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3468,19 +3574,20 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298898848"/>
-        <c:axId val="298896888"/>
+        <c:axId val="290609480"/>
+        <c:axId val="290609872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298898848"/>
+        <c:axId val="290609480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +3604,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298896888"/>
+        <c:crossAx val="290609872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3505,7 +3612,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298896888"/>
+        <c:axId val="290609872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +3638,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298898848"/>
+        <c:crossAx val="290609480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3632,11 +3739,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$C$11</c:f>
+              <c:f>'Apego a Procesos'!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Julio</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3651,6 +3758,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Apego a Procesos'!$D$4:$G$4</c:f>
@@ -3673,7 +3839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$D$11:$G$11</c:f>
+              <c:f>'Apego a Procesos'!$D$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3694,8 +3860,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3703,11 +3870,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312495040"/>
-        <c:axId val="312493080"/>
+        <c:axId val="410567488"/>
+        <c:axId val="410565920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312495040"/>
+        <c:axId val="410567488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +3917,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312493080"/>
+        <c:crossAx val="410565920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3758,7 +3925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312493080"/>
+        <c:axId val="410565920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,7 +3976,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312495040"/>
+        <c:crossAx val="410567488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3889,7 +4056,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" baseline="0"/>
-              <a:t>ENE-JUL, 16</a:t>
+              <a:t>ENE-AGO, 16</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3930,17 +4097,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -4016,7 +4184,7 @@
                   <c:v>-0.323236571501482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.33586462852538523</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4058,11 +4226,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="296734728"/>
-        <c:axId val="296736688"/>
+        <c:axId val="286831960"/>
+        <c:axId val="286833528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296734728"/>
+        <c:axId val="286831960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4080,7 +4248,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296736688"/>
+        <c:crossAx val="286833528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4088,7 +4256,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296736688"/>
+        <c:axId val="286833528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4281,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296734728"/>
+        <c:crossAx val="286831960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4278,7 +4446,7 @@
                   <c:v>275000.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>275000.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4418,6 +4586,9 @@
                 <c:pt idx="6">
                   <c:v>282548.76</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>185202.39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4446,11 +4617,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312488768"/>
-        <c:axId val="312489944"/>
+        <c:axId val="410571800"/>
+        <c:axId val="410568272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312488768"/>
+        <c:axId val="410571800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,7 +4639,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312489944"/>
+        <c:crossAx val="410568272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4476,7 +4647,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312489944"/>
+        <c:axId val="410568272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4501,7 +4672,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312488768"/>
+        <c:crossAx val="410571800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4580,23 +4751,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$C$5:$C$16</c:f>
+              <c:f>'Indice de Satisfacción'!$C$6:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4640,7 +4812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Indice de Satisfacción'!$D$5:$D$16</c:f>
+              <c:f>'Indice de Satisfacción'!$D$6:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4663,6 +4835,9 @@
                   <c:v>0.73329999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4684,8 +4859,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4693,11 +4869,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312487984"/>
-        <c:axId val="312489552"/>
+        <c:axId val="410572976"/>
+        <c:axId val="410568664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312487984"/>
+        <c:axId val="410572976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4715,7 +4891,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312489552"/>
+        <c:crossAx val="410568664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4723,7 +4899,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312489552"/>
+        <c:axId val="410568664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4750,7 +4926,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312487984"/>
+        <c:crossAx val="410572976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4802,7 +4978,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Julio</a:t>
+              <a:t>Agosto</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4837,75 +5013,88 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Producto!$B$6:$B$60</c:f>
+              <c:f>Producto!$B$3:$B$58</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Servicio de Asesoría y Soporte Técnico Vía Remota</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hora de Desarrollo SOS Software</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Easy Retail Admin Usuario Adicional Producto Nuevo Tradicional</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Paquete de 2 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota (Incluye 2 horas gratis por ser cliente distinguido)</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Servicio de Asesoría y Soporte Técnico Vía Remota</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Contpaq i® Nominas U. Base Actualización Especial Tradicional</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Paquete de 5 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>Contpaq i® Nominas U. Adicional Producto Nuevo Renta</c:v>
+                  <c:v>Contpaq i® Contabilidad U. Adicional Producto Nuevo Renta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Contpaq i® Comercial U. Adicional Actualización Especial Tradicional</c:v>
+                  <c:v>Contpaq i® XML Línea + Multiempresa, Multiusuario Renta</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Contpaq i® Comercial U. Base Actualización Especial Tradicional</c:v>
+                  <c:v>Contpaq i® Nominas U. Base Producto Nuevo Renta</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Contpaq i® Contabilidad U. Base Producto Nuevo Renta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Join Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Producto!$J$6:$J$60</c:f>
+              <c:f>Producto!$K$3:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4926,8 +5115,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4935,11 +5125,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312495432"/>
-        <c:axId val="312488376"/>
+        <c:axId val="410562784"/>
+        <c:axId val="410563568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312495432"/>
+        <c:axId val="410562784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4957,7 +5147,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312488376"/>
+        <c:crossAx val="410563568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4965,7 +5155,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312488376"/>
+        <c:axId val="410563568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4990,16 +5180,10 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312495432"/>
+        <c:crossAx val="410562784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5131,6 +5315,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Actividades!$B$5:$B$16</c:f>
@@ -5186,6 +5429,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5216,6 +5462,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Actividades!$B$5:$B$16</c:f>
@@ -5272,13 +5577,17 @@
                 <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5286,11 +5595,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312492296"/>
-        <c:axId val="312489160"/>
+        <c:axId val="410569056"/>
+        <c:axId val="410566312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312492296"/>
+        <c:axId val="410569056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,7 +5642,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312489160"/>
+        <c:crossAx val="410566312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5341,7 +5650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312489160"/>
+        <c:axId val="410566312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5392,9 +5701,10 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312492296"/>
+        <c:crossAx val="410569056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5574,6 +5884,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Actividades!$B$5:$B$16</c:f>
@@ -5629,6 +5998,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5659,6 +6031,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Actividades!$B$5:$B$16</c:f>
@@ -5715,13 +6146,17 @@
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5729,11 +6164,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312492688"/>
-        <c:axId val="312491120"/>
+        <c:axId val="410571408"/>
+        <c:axId val="410569448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312492688"/>
+        <c:axId val="410571408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5776,7 +6211,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312491120"/>
+        <c:crossAx val="410569448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5784,9 +6219,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312491120"/>
+        <c:axId val="410569448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5835,9 +6271,10 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312492688"/>
+        <c:crossAx val="410571408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6161,7 +6598,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -6170,10 +6607,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83332499999999998</c:v>
+                  <c:v>0.86665999999999987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6191,11 +6628,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312491904"/>
-        <c:axId val="312493864"/>
+        <c:axId val="410561216"/>
+        <c:axId val="410563960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312491904"/>
+        <c:axId val="410561216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6238,7 +6675,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312493864"/>
+        <c:crossAx val="410563960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6246,7 +6683,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312493864"/>
+        <c:axId val="410563960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6297,7 +6734,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312491904"/>
+        <c:crossAx val="410561216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6413,7 +6850,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Julio</a:t>
+              <a:t>Agosto</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6700,11 +7137,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Monitoreo de Actividades'!$B$11</c:f>
+              <c:f>'Monitoreo de Actividades'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Julio</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6803,18 +7240,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Monitoreo de Actividades'!$C$11:$G$11</c:f>
+              <c:f>'Monitoreo de Actividades'!$C$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -6837,11 +7271,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="318311440"/>
-        <c:axId val="318310656"/>
+        <c:axId val="410571016"/>
+        <c:axId val="410566704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="318311440"/>
+        <c:axId val="410571016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6884,15 +7318,15 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318310656"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="410566704"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318310656"/>
+        <c:axId val="410566704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6912,7 +7346,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6943,7 +7377,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318311440"/>
+        <c:crossAx val="410571016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7053,31 +7487,9 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$7:$B$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$8:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7121,7 +7533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$C$7:$C$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$C$8:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7144,6 +7556,9 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -7195,23 +7610,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$7:$B$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$8:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7255,7 +7671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$D$7:$D$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$D$8:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7279,6 +7695,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7307,11 +7726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="296735512"/>
-        <c:axId val="296735904"/>
+        <c:axId val="286832352"/>
+        <c:axId val="286832744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296735512"/>
+        <c:axId val="286832352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7328,7 +7747,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296735904"/>
+        <c:crossAx val="286832744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7336,7 +7755,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296735904"/>
+        <c:axId val="286832744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7362,7 +7781,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296735512"/>
+        <c:crossAx val="286832352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7434,7 +7853,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2766687725716876E-2"/>
+          <c:y val="0.1161793604140829"/>
+          <c:w val="0.69857827837549857"/>
+          <c:h val="0.68669577479145782"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -7470,23 +7899,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$7:$B$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$8:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7530,7 +7960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$F$7:$F$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$F$8:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7553,6 +7983,9 @@
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
@@ -7578,11 +8011,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$G$6</c:f>
+              <c:f>'Desviacion de esfuerzo'!$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reales</c:v>
+                  <c:v>Soporte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7604,23 +8037,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$7:$B$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$8:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7664,7 +8098,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$G$7:$G$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$G$8:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7688,6 +8122,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7707,20 +8144,116 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Garantía</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$8:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$H$8:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="296740216"/>
-        <c:axId val="296740608"/>
+        <c:axId val="286834312"/>
+        <c:axId val="286834704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296740216"/>
+        <c:axId val="286834312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7737,7 +8270,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296740608"/>
+        <c:crossAx val="286834704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7745,7 +8278,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296740608"/>
+        <c:axId val="286834704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7771,9 +8304,10 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296740216"/>
+        <c:crossAx val="286834312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7884,23 +8418,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$7:$B$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$8:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7944,7 +8479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$E$7:$E$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$E$8:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7970,7 +8505,7 @@
                   <c:v>1.2499999999999956E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.36250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -8011,11 +8546,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="296733552"/>
-        <c:axId val="296734336"/>
+        <c:axId val="286825688"/>
+        <c:axId val="290607912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296733552"/>
+        <c:axId val="286825688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8032,7 +8567,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296734336"/>
+        <c:crossAx val="290607912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8040,7 +8575,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296734336"/>
+        <c:axId val="290607912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8066,7 +8601,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296733552"/>
+        <c:crossAx val="286825688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8148,7 +8683,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$H$6</c:f>
+              <c:f>'Desviacion de esfuerzo'!$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8174,23 +8709,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$7:$B$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$8:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8234,7 +8770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$H$7:$H$18</c:f>
+              <c:f>'Desviacion de esfuerzo'!$I$8:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8260,7 +8796,7 @@
                   <c:v>0.47619047619047628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.35714285714285721</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -8301,11 +8837,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298714928"/>
-        <c:axId val="298716104"/>
+        <c:axId val="290598504"/>
+        <c:axId val="290602032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298714928"/>
+        <c:axId val="290598504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8322,7 +8858,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298716104"/>
+        <c:crossAx val="290602032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8330,7 +8866,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298716104"/>
+        <c:axId val="290602032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8356,7 +8892,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298714928"/>
+        <c:crossAx val="290598504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8445,17 +8981,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -8477,7 +9014,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7857142857142857</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8498,19 +9035,20 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298718064"/>
-        <c:axId val="298716496"/>
+        <c:axId val="290602424"/>
+        <c:axId val="290602816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298718064"/>
+        <c:axId val="290602424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8527,7 +9065,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298716496"/>
+        <c:crossAx val="290602816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8535,7 +9073,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298716496"/>
+        <c:axId val="290602816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8561,7 +9099,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298718064"/>
+        <c:crossAx val="290602424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8650,17 +9188,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -8715,19 +9254,20 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="298717672"/>
-        <c:axId val="298719240"/>
+        <c:axId val="290600856"/>
+        <c:axId val="290603600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298717672"/>
+        <c:axId val="290600856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8744,7 +9284,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298719240"/>
+        <c:crossAx val="290603600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8752,7 +9292,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298719240"/>
+        <c:axId val="290603600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8778,9 +9318,10 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="298717672"/>
+        <c:crossAx val="290600856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8879,11 +9420,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Física!$C$13</c:f>
+              <c:f>Física!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Julio</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8926,6 +9467,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Física!$D$6:$G$6</c:f>
@@ -8948,7 +9547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Física!$D$13:$G$13</c:f>
+              <c:f>Física!$D$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8960,8 +9559,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -8969,11 +9569,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="298712184"/>
-        <c:axId val="298712576"/>
+        <c:axId val="290603992"/>
+        <c:axId val="290608304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298712184"/>
+        <c:axId val="290603992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9016,7 +9616,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298712576"/>
+        <c:crossAx val="290608304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9024,7 +9624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298712576"/>
+        <c:axId val="290608304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9075,9 +9675,10 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298712184"/>
+        <c:crossAx val="290603992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -14231,13 +14832,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>124560</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>151200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14259,15 +14860,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>873720</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>569160</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14291,13 +14892,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>84960</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14319,15 +14920,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>938920</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>929395</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14801,13 +15402,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>408240</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>348480</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14836,13 +15437,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>565200</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>41600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>221640</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15131,7 +15732,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15152,65 +15753,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -15223,11 +15824,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -15482,29 +16083,39 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="35">
+        <v>77119.94</v>
+      </c>
+      <c r="D14" s="35">
+        <v>50677.86</v>
+      </c>
+      <c r="E14" s="35">
+        <v>77119.94</v>
+      </c>
+      <c r="F14" s="35">
+        <v>51758.3</v>
+      </c>
       <c r="G14" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154239.88</v>
       </c>
       <c r="H14" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11" t="e">
+        <v>102436.16</v>
+      </c>
+      <c r="I14" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="39"/>
+        <v>-0.33586462852538523</v>
+      </c>
+      <c r="J14" s="39">
+        <v>42884.45</v>
+      </c>
       <c r="K14" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>145320.60999999999</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -15635,7 +16246,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15658,33 +16269,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="60"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="48" t="s">
         <v>130</v>
       </c>
@@ -15710,10 +16321,16 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="e">
+        <f t="shared" ref="E5:E11" si="0">C5/(C5+D5)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="e">
+        <f t="shared" ref="H5:H16" si="1">F5/(F5+G5)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -15721,10 +16338,16 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
     </row>
@@ -15734,10 +16357,16 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I7" s="51"/>
       <c r="J7" s="51"/>
     </row>
@@ -15747,10 +16376,16 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
     </row>
@@ -15760,10 +16395,16 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
     </row>
@@ -15778,8 +16419,8 @@
         <v>19</v>
       </c>
       <c r="E10" s="5">
-        <f>C10/(C10+D10+F10+G10)</f>
-        <v>3.7037037037037035E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -15788,7 +16429,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" ref="H10:H16" si="0">F10/(F10+G10+X19+Y19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="51"/>
@@ -15805,8 +16446,8 @@
         <v>12</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ref="E11:E16" si="1">C11/(C11+D11+F11+G11)</f>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -15815,7 +16456,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="51"/>
@@ -15825,17 +16466,25 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C12" s="4">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <f>C12/(C12+D12)</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <f>F12/(F12+G12)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -15847,13 +16496,13 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E13:E16" si="2">C13/(C13+D13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="51"/>
@@ -15866,13 +16515,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="51"/>
@@ -15885,13 +16534,13 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I15" s="51"/>
@@ -15904,13 +16553,13 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="51"/>
@@ -15947,8 +16596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15960,27 +16609,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -16141,11 +16790,19 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -16193,7 +16850,7 @@
       </c>
       <c r="C17" s="20">
         <f>AVERAGE(C5:C16)</f>
-        <v>0.52500000000000002</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="D17" s="19">
         <f>AVERAGE(D5:D16)</f>
@@ -16205,11 +16862,11 @@
       </c>
       <c r="F17" s="34">
         <f>AVERAGE(F5:F16)</f>
-        <v>0.83332499999999998</v>
+        <v>0.86665999999999987</v>
       </c>
       <c r="G17" s="19">
         <f>AVERAGE(G5:G16)</f>
-        <v>0.67500000000000004</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -16229,10 +16886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16243,293 +16900,315 @@
     <col min="4" max="4" width="9.7109375"/>
     <col min="5" max="6" width="10.140625"/>
     <col min="7" max="7" width="8.5703125"/>
-    <col min="8" max="8" width="14"/>
-    <col min="9" max="9" width="11.42578125"/>
-    <col min="10" max="15" width="10.7109375"/>
-    <col min="16" max="16" width="13"/>
-    <col min="17" max="1025" width="11.42578125"/>
+    <col min="9" max="9" width="14"/>
+    <col min="10" max="10" width="11.42578125"/>
+    <col min="11" max="16" width="10.7109375"/>
+    <col min="17" max="17" width="13"/>
+    <col min="18" max="1026" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="54" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-    </row>
-    <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="62"/>
+      <c r="C5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="56"/>
-      <c r="C6" s="1" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="62"/>
+      <c r="C6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="65"/>
+      <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>80</v>
-      </c>
-      <c r="D7" s="4">
-        <v>54</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" ref="E7:E18" si="0">(D7 /C7)-1</f>
-        <v>-0.32499999999999996</v>
-      </c>
-      <c r="F7" s="4">
-        <v>63</v>
-      </c>
-      <c r="G7" s="4">
-        <v>76</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" ref="H7:H18" si="1">(G7 /F7)-1</f>
-        <v>0.20634920634920628</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>80</v>
       </c>
       <c r="D8" s="4">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:E19" si="0">(D8 /C8)-1</f>
+        <v>-0.32499999999999996</v>
+      </c>
+      <c r="F8" s="4">
+        <v>63</v>
+      </c>
+      <c r="G8" s="4">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:I19" si="1">(G8 /F8)-1</f>
+        <v>0.20634920634920628</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4">
         <v>47</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>-0.41249999999999998</v>
-      </c>
-      <c r="F8" s="4">
-        <f>63 * 2</f>
-        <v>126</v>
-      </c>
-      <c r="G8" s="4">
-        <v>128</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5873015873015817E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>80</v>
-      </c>
-      <c r="D9" s="4">
-        <v>41</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.48750000000000004</v>
       </c>
       <c r="F9" s="4">
         <f>63 * 2</f>
         <v>126</v>
       </c>
       <c r="G9" s="4">
+        <v>128</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5873015873015817E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.48750000000000004</v>
+      </c>
+      <c r="F10" s="4">
+        <f>63 * 2</f>
+        <v>126</v>
+      </c>
+      <c r="G10" s="4">
         <v>74</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>-0.41269841269841268</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>80</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>43</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>-0.46250000000000002</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>126</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>121</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>-3.9682539682539653E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>80</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="4">
         <v>53</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>-0.33750000000000002</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>126</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>144</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5">
         <f t="shared" si="1"/>
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>80</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>54</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>-0.32499999999999996</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>126</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>143</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="4"/>
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>0.13492063492063489</v>
       </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>80</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>81</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>1.2499999999999956E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>126</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>186</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>0.47619047619047628</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="e">
+      <c r="C15" s="4">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5" t="e">
+        <v>-0.36250000000000004</v>
+      </c>
+      <c r="F15" s="4">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4">
+        <v>171</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+        <v>0.35714285714285721</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -16539,14 +17218,15 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5" t="e">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -16556,14 +17236,15 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="5" t="e">
+      <c r="H17" s="4"/>
+      <c r="I17" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -16573,18 +17254,41 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="5" t="e">
+      <c r="H18" s="4"/>
+      <c r="I18" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:H4"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:I2"/>
+    <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -16597,7 +17301,7 @@
   <dimension ref="C1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16622,27 +17326,27 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="3:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="22" t="s">
         <v>46</v>
       </c>
@@ -16743,7 +17447,9 @@
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -16790,7 +17496,7 @@
       </c>
       <c r="D19" s="20">
         <f>AVERAGE(D7:D18)</f>
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
       <c r="E19" s="19">
         <f>AVERAGE(E7:E18)</f>
@@ -16821,8 +17527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16844,25 +17550,25 @@
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="3:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
@@ -16951,7 +17657,9 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
     </row>
@@ -16993,7 +17701,7 @@
       </c>
       <c r="D17" s="19">
         <f>AVERAGE(D5:D16)</f>
-        <v>0.95285714285714285</v>
+        <v>0.95874999999999999</v>
       </c>
       <c r="E17" s="19">
         <f>AVERAGE(E5:E16)</f>
@@ -17021,8 +17729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" topLeftCell="A35" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17043,25 +17751,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
@@ -17198,10 +17906,18 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -17253,11 +17969,11 @@
       </c>
       <c r="F17" s="19">
         <f>AVERAGE(F5:F16)</f>
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="G17" s="19">
         <f>AVERAGE(G5:G16)</f>
-        <v>0.97142857142857142</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -17324,29 +18040,29 @@
       <c r="D38"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="56"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="7" t="s">
         <v>121</v>
       </c>
@@ -17476,7 +18192,9 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="I49" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
@@ -17548,7 +18266,7 @@
       </c>
       <c r="I54" s="19">
         <f t="shared" si="0"/>
-        <v>0.98414285714285721</v>
+        <v>0.98612500000000003</v>
       </c>
     </row>
   </sheetData>
@@ -17568,8 +18286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17592,25 +18310,25 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
@@ -17747,10 +18465,18 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -17802,7 +18528,7 @@
       </c>
       <c r="F17" s="16">
         <f>AVERAGE(F5:F16)</f>
-        <v>0.89794285714285726</v>
+        <v>0.91070000000000007</v>
       </c>
       <c r="G17" s="15">
         <f>AVERAGE(G5:G16)</f>
@@ -17873,25 +18599,25 @@
       <c r="D38"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
     </row>
     <row r="41" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="56"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="1" t="s">
         <v>33</v>
       </c>
@@ -18060,7 +18786,7 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18081,55 +18807,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="56" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="54"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
@@ -18148,11 +18874,11 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="54"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -18454,28 +19180,42 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="D12" s="10">
+        <v>56491</v>
+      </c>
+      <c r="E12" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="F12" s="10">
+        <v>70313</v>
+      </c>
+      <c r="G12" s="10">
+        <v>91666.67</v>
+      </c>
+      <c r="H12" s="10">
+        <v>33812</v>
+      </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>275000.01</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="46" t="e">
+        <f>SUM(D12,H12,F12)*1.16</f>
+        <v>186314.56</v>
+      </c>
+      <c r="K12" s="27">
+        <v>185202.39</v>
+      </c>
+      <c r="L12" s="45">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-32.653678812593498</v>
       </c>
       <c r="M12" s="9">
         <f>K12-'Desviacion de costos'!K14</f>
-        <v>0</v>
+        <v>39881.780000000028</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -18596,58 +19336,58 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" ref="C17:K17" si="3">SUM(C5:C16)</f>
-        <v>550000.02</v>
+        <v>641666.69000000006</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="3"/>
-        <v>187377</v>
+        <v>243868</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="3"/>
-        <v>687500.02</v>
+        <v>779166.69000000006</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="3"/>
-        <v>389841.51</v>
+        <v>460154.51</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="3"/>
-        <v>687500.02</v>
+        <v>779166.69000000006</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="3"/>
-        <v>270262.93</v>
+        <v>304074.93</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="3"/>
-        <v>1925000.06</v>
+        <v>2200000.0700000003</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="3"/>
-        <v>847481.44</v>
+        <v>1033796</v>
       </c>
       <c r="K17" s="27">
         <f t="shared" si="3"/>
-        <v>1119630.6100000001</v>
+        <v>1304833</v>
       </c>
       <c r="L17" s="45">
         <f t="shared" si="2"/>
-        <v>-41.837372721952015</v>
+        <v>-40.689410978064203</v>
       </c>
       <c r="M17" s="9">
         <f>K17-'Desviacion de costos'!K19</f>
-        <v>1119630.6100000001</v>
+        <v>1304833</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="54"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" s="28" t="s">
@@ -18663,7 +19403,7 @@
       </c>
       <c r="D22" s="10">
         <f>K17</f>
-        <v>1119630.6100000001</v>
+        <v>1304833</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -18672,7 +19412,7 @@
       </c>
       <c r="D23" s="42">
         <f>((D22 * 100)/D21)-100</f>
-        <v>-66.071799696969691</v>
+        <v>-60.459606060606063</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -18681,7 +19421,7 @@
       </c>
       <c r="D24" s="41">
         <f>D22/D21</f>
-        <v>0.33928200303030304</v>
+        <v>0.39540393939393942</v>
       </c>
     </row>
   </sheetData>
@@ -18706,10 +19446,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D17"/>
+  <dimension ref="C2:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18721,122 +19461,131 @@
     <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="65"/>
+    </row>
+    <row r="3" spans="3:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D3" s="59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-    </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0.98799999999999999</v>
-      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="29">
-        <v>0.92569999999999997</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.92569999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="17">
         <f>((94+100)/2)/100</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="17">
-        <v>0.73329999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="17">
-        <v>1</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="29">
-        <f>AVERAGE(D5:D16)</f>
-        <v>0.9361666666666667</v>
+      <c r="D18" s="29">
+        <f>AVERAGE(D6:D17)</f>
+        <v>0.94528571428571428</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18846,11 +19595,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O64"/>
+  <dimension ref="B2:O65"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18906,22 +19655,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="31">
-        <f t="shared" ref="C3:C45" si="0">SUM(D3:O3)</f>
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="C3" s="32">
+        <f>SUM(D3:O3)</f>
+        <v>138.5</v>
       </c>
       <c r="D3" s="32">
+        <v>33</v>
+      </c>
+      <c r="E3" s="32">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
-      </c>
-      <c r="E3" s="32">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
@@ -18929,85 +19678,70 @@
       <c r="H3" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="3">
-        <v>4</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K3" s="3">
+        <v>31.5</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="31">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D4" s="32">
-        <v>19</v>
-      </c>
-      <c r="E4" s="32">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32">
+        <v>30</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="31">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D5" s="32">
-        <v>10</v>
-      </c>
-      <c r="E5" s="32">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="C5" s="32">
+        <f>SUM(D5:O5)</f>
+        <v>40</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32">
+        <v>17</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32">
+        <v>23</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
     </row>
     <row r="6" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="31">
-        <f t="shared" si="0"/>
-        <v>133</v>
+      <c r="C6" s="32">
+        <f>SUM(D6:O6)</f>
+        <v>150</v>
       </c>
       <c r="D6" s="32">
         <v>12</v>
@@ -19030,7 +19764,9 @@
       <c r="J6" s="3">
         <v>34</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>17</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -19038,173 +19774,162 @@
     </row>
     <row r="7" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="31">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="D7" s="32">
-        <v>33</v>
-      </c>
-      <c r="E7" s="32">
-        <v>21</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C7" s="32">
+        <f>SUM(D7:O7)</f>
+        <v>9</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>24</v>
-      </c>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>7</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="31">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D8" s="32">
-        <v>4</v>
-      </c>
-      <c r="E8" s="32">
+        <v>100</v>
+      </c>
+      <c r="C8" s="32">
+        <f>SUM(D8:O8)</f>
         <v>10</v>
       </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="3">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="3">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="31">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D9" s="32">
-        <v>6</v>
-      </c>
-      <c r="E9" s="32">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
+        <v>91</v>
+      </c>
+      <c r="C9" s="32">
+        <f>SUM(D9:O9)</f>
+        <v>14</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="31">
-        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C10" s="32">
+        <f>SUM(D10:O10)</f>
+        <v>13</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32">
+        <v>3</v>
+      </c>
+      <c r="H10" s="32">
+        <v>4</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32">
         <v>2</v>
       </c>
-      <c r="D10" s="32">
-        <v>2</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="32">
+        <v>4</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="31">
-        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32">
+        <v>1</v>
+      </c>
+      <c r="K11" s="32">
         <v>3</v>
       </c>
-      <c r="D11" s="32">
-        <v>2</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="3">
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+    </row>
+    <row r="12" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="31">
+        <f>SUM(D12:O12)</f>
+        <v>55</v>
+      </c>
+      <c r="D12" s="32">
+        <v>10</v>
+      </c>
+      <c r="E12" s="32">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>1</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D12" s="32">
-        <v>3</v>
-      </c>
-      <c r="E12" s="32">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <v>8</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -19212,34 +19937,28 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C13" s="31">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(D13:O13)</f>
+        <v>35</v>
       </c>
       <c r="D13" s="32">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E13" s="32">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
         <v>3</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -19249,21 +19968,29 @@
     </row>
     <row r="14" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C14" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D14" s="32"/>
+        <f>SUM(D14:O14)</f>
+        <v>28</v>
+      </c>
+      <c r="D14" s="32">
+        <v>10</v>
+      </c>
       <c r="E14" s="32">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -19272,25 +19999,33 @@
     </row>
     <row r="15" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C15" s="31">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(D15:O15)</f>
+        <v>51</v>
       </c>
       <c r="D15" s="32">
+        <v>4</v>
+      </c>
+      <c r="E15" s="32">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7</v>
+      </c>
+      <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -19299,24 +20034,30 @@
     </row>
     <row r="16" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C16" s="31">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(D16:O16)</f>
+        <v>19</v>
       </c>
       <c r="D16" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="32">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -19326,19 +20067,17 @@
     </row>
     <row r="17" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C17" s="31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+        <f>SUM(D17:O17)</f>
         <v>2</v>
       </c>
+      <c r="D17" s="32">
+        <v>2</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -19351,17 +20090,19 @@
     </row>
     <row r="18" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C18" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:O18)</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="32">
+        <v>2</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -19374,14 +20115,14 @@
     </row>
     <row r="19" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C19" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:O19)</f>
+        <v>12</v>
+      </c>
+      <c r="D19" s="32">
         <v>3</v>
-      </c>
-      <c r="D19" s="32">
-        <v>2</v>
       </c>
       <c r="E19" s="32">
         <v>1</v>
@@ -19390,7 +20131,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <v>8</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -19399,26 +20142,32 @@
     </row>
     <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(D20:O20)</f>
+        <v>18</v>
       </c>
       <c r="D20" s="32">
+        <v>2</v>
+      </c>
+      <c r="E20" s="32">
         <v>1</v>
       </c>
-      <c r="E20" s="32">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -19428,17 +20177,15 @@
     </row>
     <row r="21" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C21" s="31">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D21" s="32">
-        <v>7</v>
-      </c>
+        <f>SUM(D21:O21)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="32"/>
       <c r="E21" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -19453,17 +20200,21 @@
     </row>
     <row r="22" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C22" s="31">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(D22:O22)</f>
+        <v>5</v>
       </c>
       <c r="D22" s="32">
         <v>3</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -19476,17 +20227,21 @@
     </row>
     <row r="23" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C23" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D23" s="32"/>
+        <f>SUM(D23:O23)</f>
+        <v>8</v>
+      </c>
+      <c r="D23" s="32">
+        <v>5</v>
+      </c>
       <c r="E23" s="32">
         <v>1</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -19499,25 +20254,23 @@
     </row>
     <row r="24" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C24" s="31">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(D24:O24)</f>
+        <v>3</v>
       </c>
       <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2</v>
-      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -19526,23 +20279,21 @@
     </row>
     <row r="25" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C25" s="31">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D25" s="32">
-        <v>4</v>
-      </c>
-      <c r="E25" s="32"/>
+        <f>SUM(D25:O25)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32">
+        <v>1</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -19551,14 +20302,14 @@
     </row>
     <row r="26" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C26" s="31">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(D26:O26)</f>
+        <v>3</v>
       </c>
       <c r="D26" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="32">
         <v>1</v>
@@ -19567,9 +20318,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -19578,21 +20327,27 @@
     </row>
     <row r="27" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C27" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(D27:O27)</f>
+        <v>8</v>
       </c>
       <c r="D27" s="32">
         <v>1</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="32">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -19601,22 +20356,22 @@
     </row>
     <row r="28" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C28" s="31">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D28" s="32"/>
+        <f>SUM(D28:O28)</f>
+        <v>11</v>
+      </c>
+      <c r="D28" s="32">
+        <v>7</v>
+      </c>
       <c r="E28" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3">
-        <v>4</v>
-      </c>
+      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -19626,14 +20381,14 @@
     </row>
     <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C29" s="31">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(D29:O29)</f>
+        <v>3</v>
       </c>
       <c r="D29" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="3"/>
@@ -19649,16 +20404,16 @@
     </row>
     <row r="30" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C30" s="31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D30" s="32">
-        <v>3</v>
-      </c>
-      <c r="E30" s="32"/>
+        <f>SUM(D30:O30)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32">
+        <v>1</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -19672,21 +20427,23 @@
     </row>
     <row r="31" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C31" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D31" s="32"/>
+        <f>SUM(D31:O31)</f>
+        <v>5</v>
+      </c>
+      <c r="D31" s="32">
+        <v>4</v>
+      </c>
       <c r="E31" s="32"/>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -19695,25 +20452,25 @@
     </row>
     <row r="32" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C32" s="31">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(D32:O32)</f>
+        <v>4</v>
       </c>
       <c r="D32" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="32">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
         <v>1</v>
       </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -19722,17 +20479,17 @@
     </row>
     <row r="33" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C33" s="31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D33" s="32"/>
+        <f>SUM(D33:O33)</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="32">
+        <v>1</v>
+      </c>
       <c r="E33" s="32"/>
-      <c r="F33" s="3">
-        <v>3</v>
-      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -19745,22 +20502,22 @@
     </row>
     <row r="34" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C34" s="31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D34" s="32">
-        <v>2</v>
-      </c>
+        <f>SUM(D34:O34)</f>
+        <v>5</v>
+      </c>
+      <c r="D34" s="32"/>
       <c r="E34" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3">
+        <v>4</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -19770,14 +20527,14 @@
     </row>
     <row r="35" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C35" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(D35:O35)</f>
+        <v>4</v>
       </c>
       <c r="D35" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="3"/>
@@ -19793,19 +20550,17 @@
     </row>
     <row r="36" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C36" s="31">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>4</v>
-      </c>
+        <f>SUM(D36:O36)</f>
+        <v>3</v>
+      </c>
+      <c r="D36" s="32">
+        <v>3</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -19818,15 +20573,21 @@
     </row>
     <row r="37" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C37" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="3"/>
+        <f>SUM(D37:O37)</f>
+        <v>7</v>
+      </c>
+      <c r="D37" s="32">
+        <v>3</v>
+      </c>
+      <c r="E37" s="32">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -19839,19 +20600,19 @@
     </row>
     <row r="38" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C38" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(D38:O38)</f>
+        <v>4</v>
+      </c>
+      <c r="D38" s="32">
         <v>2</v>
       </c>
-      <c r="D38" s="32"/>
       <c r="E38" s="32">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -19864,16 +20625,16 @@
     </row>
     <row r="39" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C39" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(D39:O39)</f>
         <v>1</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32">
+      <c r="D39" s="32">
         <v>1</v>
       </c>
+      <c r="E39" s="32"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -19887,22 +20648,22 @@
     </row>
     <row r="40" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C40" s="31">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D40" s="32">
+        <f>SUM(D40:O40)</f>
+        <v>5</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32">
         <v>1</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3">
-        <v>12</v>
-      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -19912,15 +20673,14 @@
     </row>
     <row r="41" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C41" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E41" s="32">
-        <v>1</v>
-      </c>
+        <f>SUM(D41:O41)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -19934,116 +20694,117 @@
     </row>
     <row r="42" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C42" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(D42:O42)</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32">
         <v>1</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32">
+      <c r="F42" s="3">
         <v>1</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C43" s="31">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(D43:O43)</f>
+        <v>1</v>
       </c>
       <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32">
-        <v>3</v>
-      </c>
-      <c r="H43" s="32">
-        <v>4</v>
-      </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32">
-        <v>2</v>
-      </c>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
+      <c r="E43" s="32">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C44" s="31">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D44" s="32"/>
+        <f>SUM(D44:O44)</f>
+        <v>13</v>
+      </c>
+      <c r="D44" s="32">
+        <v>1</v>
+      </c>
       <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32">
-        <v>17</v>
-      </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-    </row>
-    <row r="45" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>12</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C45" s="31">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32">
-        <v>3</v>
-      </c>
-      <c r="J45" s="32">
-        <v>5</v>
-      </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
+        <f>SUM(D45:O45)</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="32">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
     </row>
     <row r="46" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="C46" s="31">
+        <f>SUM(D46:O46)</f>
+        <v>1</v>
+      </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
+      <c r="F46" s="32">
+        <v>1</v>
+      </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="J46" s="32">
-        <v>1</v>
-      </c>
+      <c r="J46" s="32"/>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
@@ -20052,17 +20813,22 @@
     </row>
     <row r="47" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="31"/>
+        <v>131</v>
+      </c>
+      <c r="C47" s="31">
+        <f>SUM(D47:O47)</f>
+        <v>8</v>
+      </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
+      <c r="I47" s="32">
+        <v>3</v>
+      </c>
       <c r="J47" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
@@ -20072,7 +20838,7 @@
     </row>
     <row r="48" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
@@ -20090,9 +20856,9 @@
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
     </row>
-    <row r="49" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="32"/>
@@ -20102,7 +20868,7 @@
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
       <c r="J49" s="32">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
@@ -20110,9 +20876,9 @@
       <c r="N49" s="32"/>
       <c r="O49" s="32"/>
     </row>
-    <row r="50" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
@@ -20122,7 +20888,7 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -20132,7 +20898,7 @@
     </row>
     <row r="51" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
@@ -20142,7 +20908,7 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
@@ -20152,7 +20918,7 @@
     </row>
     <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="32"/>
@@ -20162,7 +20928,7 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
@@ -20172,7 +20938,7 @@
     </row>
     <row r="53" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" s="31"/>
       <c r="D53" s="32"/>
@@ -20192,7 +20958,7 @@
     </row>
     <row r="54" spans="2:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="32"/>
@@ -20212,7 +20978,7 @@
     </row>
     <row r="55" spans="2:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="32"/>
@@ -20232,7 +20998,7 @@
     </row>
     <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C56" s="31"/>
       <c r="D56" s="32"/>
@@ -20242,7 +21008,7 @@
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
@@ -20252,7 +21018,7 @@
     </row>
     <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="32"/>
@@ -20262,7 +21028,7 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
@@ -20272,7 +21038,7 @@
     </row>
     <row r="58" spans="2:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="32"/>
@@ -20292,7 +21058,7 @@
     </row>
     <row r="59" spans="2:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
@@ -20310,28 +21076,45 @@
       <c r="N59" s="32"/>
       <c r="O59" s="32"/>
     </row>
-    <row r="60" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
-      <c r="H60" s="32">
-        <v>3</v>
-      </c>
+      <c r="H60" s="32"/>
       <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
+      <c r="J60" s="32">
+        <v>1</v>
+      </c>
       <c r="K60" s="32"/>
       <c r="L60" s="32"/>
       <c r="M60" s="32"/>
       <c r="N60" s="32"/>
       <c r="O60" s="32"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="33"/>
+    <row r="61" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32">
+        <v>3</v>
+      </c>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
@@ -20342,7 +21125,13 @@
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
     </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="33"/>
+    </row>
   </sheetData>
+  <sortState ref="B3:O65">
+    <sortCondition descending="1" ref="K1"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
